--- a/内部設計書/内部設計書_2_1_ログイン.xlsx
+++ b/内部設計書/内部設計書_2_1_ログイン.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawamoto\Desktop\人技室\02_活動\研修\Gips\Java\03_演習課題\07_実践演習\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\内部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8387EB-81EB-4219-A062-C4811277B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>システム名</t>
   </si>
@@ -100,10 +101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -144,13 +141,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Gips実践演習</t>
-    <rPh sb="4" eb="8">
-      <t>ジッセンエンシュウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -299,25 +289,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/listをリダイレクトし、ユーザ一覧表示処理を呼び出す。</t>
-    <rPh sb="17" eb="19">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>－</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -357,10 +328,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（３）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Form.ユーザID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -377,42 +344,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レコードが１件も取得できなかった場合には、処理を異常終了する。</t>
-    <rPh sb="6" eb="7">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得したレコードのパスワードと引数のパスワードが一致しなかった場合には、処理を異常終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理を正常終了する。</t>
-    <rPh sb="3" eb="5">
-      <t>セイジョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -479,10 +410,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SELECT * FROM ユーザマスタ
 WHERE ユーザID = 引数のユーザID</t>
     <rPh sb="35" eb="37">
@@ -503,85 +430,129 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（４）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（５）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザマスタの最終ログイン日時を更新する。</t>
-    <rPh sb="7" eb="9">
-      <t>サイシュウ</t>
+    <t>ログインが成功した場合試験選択ページに遷移。</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニチジ</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウシン</t>
+    <rPh sb="11" eb="15">
+      <t>シケンセンタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正常に更新できなかった場合には、処理を異常終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
+    <t>（4）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齋藤信吾</t>
+    <rPh sb="0" eb="4">
+      <t>サイトウシンゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>最終ログイン日時</t>
+    <t>Sylph</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理が正常終了なら試験選択ページへ。</t>
     <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
+      <t>ショリ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
+    <rPh sb="3" eb="7">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シケンセンタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム現在時刻</t>
-    <rPh sb="4" eb="6">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジコク</t>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザID = 引数のユーザID</t>
+    <t>"新規アカウント登録ページへ"のボタンを押すと指定のurlに遷移。</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新条件</t>
+    <t>レコードが１件も取得できなかった場合には、処理を異常終了する。</t>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得したレコードのパスワードと引数のパスワードが一致しなかった場合には、背景を赤くする。</t>
     <rPh sb="0" eb="2">
-      <t>コウシン</t>
+      <t>シュトク</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
+    <rPh sb="15" eb="17">
+      <t>ヒキスウ</t>
     </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/login</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -634,6 +605,20 @@
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1155,7 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1237,9 +1222,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1252,64 +1264,25 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,31 +1324,83 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1720,117 +1745,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35:AH35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="6"/>
-    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="6"/>
+    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
-        <v>21</v>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>65</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="66" t="s">
-        <v>22</v>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="68" t="s">
+        <v>20</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="67" t="s">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
-      <c r="BR1" s="68"/>
-      <c r="BS1" s="68"/>
-      <c r="BT1" s="68"/>
-      <c r="BU1" s="68"/>
-      <c r="BV1" s="68"/>
-      <c r="BW1" s="68"/>
-      <c r="BX1" s="78" t="s">
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="70"/>
+      <c r="BS1" s="70"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="78"/>
-      <c r="CA1" s="78"/>
-      <c r="CB1" s="56"/>
-      <c r="CC1" s="56"/>
-      <c r="CD1" s="56"/>
-      <c r="CE1" s="56"/>
-      <c r="CF1" s="56"/>
-      <c r="CG1" s="56"/>
-      <c r="CH1" s="56"/>
-      <c r="CI1" s="56"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2770,104 +2799,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58" t="s">
-        <v>67</v>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60" t="s">
+        <v>59</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59" t="s">
-        <v>57</v>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61" t="s">
+        <v>50</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="60" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BS2" s="61"/>
-      <c r="BT2" s="61"/>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="61"/>
-      <c r="BX2" s="62" t="s">
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="63">
+        <v>44691</v>
+      </c>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="62"/>
-      <c r="BZ2" s="62"/>
-      <c r="CA2" s="62"/>
-      <c r="CB2" s="63"/>
-      <c r="CC2" s="63"/>
-      <c r="CD2" s="63"/>
-      <c r="CE2" s="63"/>
-      <c r="CF2" s="63"/>
-      <c r="CG2" s="63"/>
-      <c r="CH2" s="63"/>
-      <c r="CI2" s="63"/>
+      <c r="BY2" s="64"/>
+      <c r="BZ2" s="64"/>
+      <c r="CA2" s="64"/>
+      <c r="CB2" s="65"/>
+      <c r="CC2" s="65"/>
+      <c r="CD2" s="65"/>
+      <c r="CE2" s="65"/>
+      <c r="CF2" s="65"/>
+      <c r="CG2" s="65"/>
+      <c r="CH2" s="65"/>
+      <c r="CI2" s="65"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3807,7 +3838,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -3895,102 +3926,102 @@
       <c r="CH3" s="28"/>
       <c r="CI3" s="28"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44"/>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="56"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4930,102 +4961,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="45">
+      <c r="B5" s="76">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="51" t="s">
-        <v>26</v>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="79" t="s">
+        <v>24</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51" t="s">
-        <v>27</v>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79" t="s">
+        <v>25</v>
       </c>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="52" t="s">
-        <v>26</v>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="80" t="s">
+        <v>24</v>
       </c>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="52"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
-      <c r="BX5" s="52"/>
-      <c r="BY5" s="52"/>
-      <c r="BZ5" s="52"/>
-      <c r="CA5" s="52"/>
-      <c r="CB5" s="52"/>
-      <c r="CC5" s="52"/>
-      <c r="CD5" s="52"/>
-      <c r="CE5" s="52"/>
-      <c r="CF5" s="52"/>
-      <c r="CG5" s="52"/>
-      <c r="CH5" s="52"/>
-      <c r="CI5" s="52"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="80"/>
+      <c r="BZ5" s="80"/>
+      <c r="CA5" s="80"/>
+      <c r="CB5" s="80"/>
+      <c r="CC5" s="80"/>
+      <c r="CD5" s="80"/>
+      <c r="CE5" s="80"/>
+      <c r="CF5" s="80"/>
+      <c r="CG5" s="80"/>
+      <c r="CH5" s="80"/>
+      <c r="CI5" s="80"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5965,7 +5996,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6053,202 +6084,202 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="41" t="s">
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="44" t="s">
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="85"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
-      <c r="BM7" s="44"/>
-      <c r="BN7" s="44"/>
-      <c r="BO7" s="44"/>
-      <c r="BP7" s="44"/>
-      <c r="BQ7" s="44"/>
-      <c r="BR7" s="44"/>
-      <c r="BS7" s="44"/>
-      <c r="BT7" s="44"/>
-      <c r="BU7" s="44"/>
-      <c r="BV7" s="44"/>
-      <c r="BW7" s="44"/>
-      <c r="BX7" s="44"/>
-      <c r="BY7" s="44"/>
-      <c r="BZ7" s="44"/>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="44"/>
-      <c r="CC7" s="44"/>
-      <c r="CD7" s="44"/>
-      <c r="CE7" s="44"/>
-      <c r="CF7" s="44"/>
-      <c r="CG7" s="44"/>
-      <c r="CH7" s="44"/>
-      <c r="CI7" s="44"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="56"/>
+      <c r="BR7" s="56"/>
+      <c r="BS7" s="56"/>
+      <c r="BT7" s="56"/>
+      <c r="BU7" s="56"/>
+      <c r="BV7" s="56"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="56"/>
+      <c r="BY7" s="56"/>
+      <c r="BZ7" s="56"/>
+      <c r="CA7" s="56"/>
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="56"/>
+      <c r="CF7" s="56"/>
+      <c r="CG7" s="56"/>
+      <c r="CH7" s="56"/>
+      <c r="CI7" s="56"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="45">
+      <c r="B8" s="76">
         <v>1</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="53" t="s">
-        <v>69</v>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="81" t="s">
+        <v>61</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="53" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="53" t="s">
-        <v>14</v>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="73" t="s">
+        <v>28</v>
       </c>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
-      <c r="BJ8" s="49"/>
-      <c r="BK8" s="49"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="49"/>
-      <c r="BN8" s="49"/>
-      <c r="BO8" s="49"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="49"/>
-      <c r="BR8" s="49"/>
-      <c r="BS8" s="49"/>
-      <c r="BT8" s="49"/>
-      <c r="BU8" s="49"/>
-      <c r="BV8" s="49"/>
-      <c r="BW8" s="49"/>
-      <c r="BX8" s="49"/>
-      <c r="BY8" s="49"/>
-      <c r="BZ8" s="49"/>
-      <c r="CA8" s="49"/>
-      <c r="CB8" s="49"/>
-      <c r="CC8" s="49"/>
-      <c r="CD8" s="49"/>
-      <c r="CE8" s="49"/>
-      <c r="CF8" s="49"/>
-      <c r="CG8" s="49"/>
-      <c r="CH8" s="49"/>
-      <c r="CI8" s="49"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
+      <c r="BA8" s="73"/>
+      <c r="BB8" s="73"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="73"/>
+      <c r="BJ8" s="73"/>
+      <c r="BK8" s="73"/>
+      <c r="BL8" s="73"/>
+      <c r="BM8" s="73"/>
+      <c r="BN8" s="73"/>
+      <c r="BO8" s="73"/>
+      <c r="BP8" s="73"/>
+      <c r="BQ8" s="73"/>
+      <c r="BR8" s="73"/>
+      <c r="BS8" s="73"/>
+      <c r="BT8" s="73"/>
+      <c r="BU8" s="73"/>
+      <c r="BV8" s="73"/>
+      <c r="BW8" s="73"/>
+      <c r="BX8" s="73"/>
+      <c r="BY8" s="73"/>
+      <c r="BZ8" s="73"/>
+      <c r="CA8" s="73"/>
+      <c r="CB8" s="73"/>
+      <c r="CC8" s="73"/>
+      <c r="CD8" s="73"/>
+      <c r="CE8" s="73"/>
+      <c r="CF8" s="73"/>
+      <c r="CG8" s="73"/>
+      <c r="CH8" s="73"/>
+      <c r="CI8" s="73"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7187,7 +7218,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -8213,19 +8244,19 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -9243,7 +9274,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -10269,19 +10300,19 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -11299,7 +11330,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -12325,7 +12356,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13351,202 +13382,202 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="41" t="s">
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="44" t="s">
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="44"/>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44"/>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44"/>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="44"/>
-      <c r="BT15" s="44"/>
-      <c r="BU15" s="44"/>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44"/>
-      <c r="BY15" s="44"/>
-      <c r="BZ15" s="44"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="44"/>
-      <c r="CE15" s="44"/>
-      <c r="CF15" s="44"/>
-      <c r="CG15" s="44"/>
-      <c r="CH15" s="44"/>
-      <c r="CI15" s="44"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
+      <c r="BP15" s="56"/>
+      <c r="BQ15" s="56"/>
+      <c r="BR15" s="56"/>
+      <c r="BS15" s="56"/>
+      <c r="BT15" s="56"/>
+      <c r="BU15" s="56"/>
+      <c r="BV15" s="56"/>
+      <c r="BW15" s="56"/>
+      <c r="BX15" s="56"/>
+      <c r="BY15" s="56"/>
+      <c r="BZ15" s="56"/>
+      <c r="CA15" s="56"/>
+      <c r="CB15" s="56"/>
+      <c r="CC15" s="56"/>
+      <c r="CD15" s="56"/>
+      <c r="CE15" s="56"/>
+      <c r="CF15" s="56"/>
+      <c r="CG15" s="56"/>
+      <c r="CH15" s="56"/>
+      <c r="CI15" s="56"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="45">
+      <c r="B16" s="76">
         <v>2</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46" t="s">
-        <v>61</v>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="72" t="s">
+        <v>54</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="36" t="s">
-        <v>65</v>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="57" t="s">
+        <v>43</v>
       </c>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="36" t="s">
-        <v>68</v>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="57" t="s">
+        <v>60</v>
       </c>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="49" t="s">
-        <v>64</v>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="73" t="s">
+        <v>57</v>
       </c>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="49"/>
-      <c r="BC16" s="49"/>
-      <c r="BD16" s="49"/>
-      <c r="BE16" s="49"/>
-      <c r="BF16" s="49"/>
-      <c r="BG16" s="49"/>
-      <c r="BH16" s="49"/>
-      <c r="BI16" s="49"/>
-      <c r="BJ16" s="49"/>
-      <c r="BK16" s="49"/>
-      <c r="BL16" s="49"/>
-      <c r="BM16" s="49"/>
-      <c r="BN16" s="49"/>
-      <c r="BO16" s="49"/>
-      <c r="BP16" s="49"/>
-      <c r="BQ16" s="49"/>
-      <c r="BR16" s="49"/>
-      <c r="BS16" s="49"/>
-      <c r="BT16" s="49"/>
-      <c r="BU16" s="49"/>
-      <c r="BV16" s="49"/>
-      <c r="BW16" s="49"/>
-      <c r="BX16" s="49"/>
-      <c r="BY16" s="49"/>
-      <c r="BZ16" s="49"/>
-      <c r="CA16" s="49"/>
-      <c r="CB16" s="49"/>
-      <c r="CC16" s="49"/>
-      <c r="CD16" s="49"/>
-      <c r="CE16" s="49"/>
-      <c r="CF16" s="49"/>
-      <c r="CG16" s="49"/>
-      <c r="CH16" s="49"/>
-      <c r="CI16" s="49"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="73"/>
+      <c r="BL16" s="73"/>
+      <c r="BM16" s="73"/>
+      <c r="BN16" s="73"/>
+      <c r="BO16" s="73"/>
+      <c r="BP16" s="73"/>
+      <c r="BQ16" s="73"/>
+      <c r="BR16" s="73"/>
+      <c r="BS16" s="73"/>
+      <c r="BT16" s="73"/>
+      <c r="BU16" s="73"/>
+      <c r="BV16" s="73"/>
+      <c r="BW16" s="73"/>
+      <c r="BX16" s="73"/>
+      <c r="BY16" s="73"/>
+      <c r="BZ16" s="73"/>
+      <c r="CA16" s="73"/>
+      <c r="CB16" s="73"/>
+      <c r="CC16" s="73"/>
+      <c r="CD16" s="73"/>
+      <c r="CE16" s="73"/>
+      <c r="CF16" s="73"/>
+      <c r="CG16" s="73"/>
+      <c r="CH16" s="73"/>
+      <c r="CI16" s="73"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -14485,7 +14516,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -15511,19 +15542,19 @@
       <c r="AMI17" s="1"/>
       <c r="AMJ17" s="1"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="24"/>
       <c r="E18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="1"/>
       <c r="I18" s="15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -16541,7 +16572,7 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -17567,76 +17598,76 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="24"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="31" t="s">
-        <v>34</v>
+      <c r="G20" s="35" t="s">
+        <v>32</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34" t="s">
-        <v>17</v>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49" t="s">
+        <v>16</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="31" t="s">
-        <v>35</v>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="35" t="s">
+        <v>33</v>
       </c>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="37"/>
-      <c r="BH20" s="37"/>
-      <c r="BI20" s="37"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="38"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="37"/>
       <c r="BL20" s="24"/>
       <c r="BM20" s="24"/>
       <c r="BN20" s="24"/>
@@ -18599,76 +18630,76 @@
       <c r="AMI20" s="1"/>
       <c r="AMJ20" s="1"/>
     </row>
-    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="24"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="36">
+      <c r="G21" s="57">
         <v>1</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="36" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="37"/>
-      <c r="BH21" s="37"/>
-      <c r="BI21" s="37"/>
-      <c r="BJ21" s="37"/>
-      <c r="BK21" s="38"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="37"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
       <c r="BN21" s="24"/>
@@ -19631,76 +19662,76 @@
       <c r="AMI21" s="1"/>
       <c r="AMJ21" s="1"/>
     </row>
-    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="24"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="36">
+      <c r="G22" s="57">
         <v>2</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="36" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="37"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="37"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="37"/>
-      <c r="BK22" s="38"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="36"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="36"/>
+      <c r="BJ22" s="36"/>
+      <c r="BK22" s="37"/>
       <c r="BL22" s="24"/>
       <c r="BM22" s="24"/>
       <c r="BN22" s="24"/>
@@ -20663,7 +20694,7 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -21689,19 +21720,19 @@
       <c r="AMI23" s="1"/>
       <c r="AMJ23" s="1"/>
     </row>
-    <row r="24" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="24"/>
       <c r="E24" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="1"/>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -22719,7 +22750,7 @@
       <c r="AMI24" s="1"/>
       <c r="AMJ24" s="1"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -23745,76 +23776,76 @@
       <c r="AMI25" s="1"/>
       <c r="AMJ25" s="1"/>
     </row>
-    <row r="26" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="24"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="31" t="s">
-        <v>34</v>
+      <c r="G26" s="35" t="s">
+        <v>32</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34" t="s">
-        <v>17</v>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49" t="s">
+        <v>16</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="31" t="s">
-        <v>35</v>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="35" t="s">
+        <v>33</v>
       </c>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="37"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="37"/>
-      <c r="BC26" s="37"/>
-      <c r="BD26" s="37"/>
-      <c r="BE26" s="37"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="37"/>
-      <c r="BH26" s="37"/>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="37"/>
-      <c r="BK26" s="38"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="37"/>
       <c r="BL26" s="24"/>
       <c r="BM26" s="24"/>
       <c r="BN26" s="24"/>
@@ -24777,76 +24808,76 @@
       <c r="AMI26" s="1"/>
       <c r="AMJ26" s="1"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="24"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="36">
+      <c r="G27" s="57">
         <v>1</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="36" t="s">
-        <v>36</v>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="57" t="s">
+        <v>34</v>
       </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="36" t="s">
-        <v>52</v>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="57" t="s">
+        <v>48</v>
       </c>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="37"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="37"/>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="38"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="37"/>
       <c r="BL27" s="24"/>
       <c r="BM27" s="24"/>
       <c r="BN27" s="24"/>
@@ -25809,76 +25840,76 @@
       <c r="AMI27" s="1"/>
       <c r="AMJ27" s="1"/>
     </row>
-    <row r="28" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="24"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="36">
+      <c r="G28" s="57">
         <v>2</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="36" t="s">
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="38"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="37"/>
       <c r="BL28" s="24"/>
       <c r="BM28" s="24"/>
       <c r="BN28" s="24"/>
@@ -26841,76 +26872,76 @@
       <c r="AMI28" s="1"/>
       <c r="AMJ28" s="1"/>
     </row>
-    <row r="29" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="24"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="36">
+      <c r="G29" s="57">
         <v>3</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="36" t="s">
-        <v>41</v>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="57" t="s">
+        <v>39</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="36" t="s">
-        <v>42</v>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="57" t="s">
+        <v>40</v>
       </c>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="38"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="37"/>
       <c r="BL29" s="24"/>
       <c r="BM29" s="24"/>
       <c r="BN29" s="24"/>
@@ -27873,7 +27904,7 @@
       <c r="AMI29" s="1"/>
       <c r="AMJ29" s="1"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
@@ -28899,19 +28930,19 @@
       <c r="AMI30" s="1"/>
       <c r="AMJ30" s="1"/>
     </row>
-    <row r="31" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="24"/>
       <c r="E31" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="15" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -29929,7 +29960,7 @@
       <c r="AMI31" s="1"/>
       <c r="AMJ31" s="1"/>
     </row>
-    <row r="32" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -30955,7 +30986,7 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row r="33" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -31981,202 +32012,202 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="39" t="s">
+    <row r="34" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="41" t="s">
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="41" t="s">
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="85"/>
+      <c r="AF34" s="85"/>
+      <c r="AG34" s="85"/>
+      <c r="AH34" s="86"/>
+      <c r="AI34" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="44" t="s">
+      <c r="AJ34" s="85"/>
+      <c r="AK34" s="85"/>
+      <c r="AL34" s="85"/>
+      <c r="AM34" s="85"/>
+      <c r="AN34" s="85"/>
+      <c r="AO34" s="85"/>
+      <c r="AP34" s="85"/>
+      <c r="AQ34" s="85"/>
+      <c r="AR34" s="86"/>
+      <c r="AS34" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="44"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="44"/>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="44"/>
-      <c r="BN34" s="44"/>
-      <c r="BO34" s="44"/>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="44"/>
-      <c r="BR34" s="44"/>
-      <c r="BS34" s="44"/>
-      <c r="BT34" s="44"/>
-      <c r="BU34" s="44"/>
-      <c r="BV34" s="44"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44"/>
-      <c r="BZ34" s="44"/>
-      <c r="CA34" s="44"/>
-      <c r="CB34" s="44"/>
-      <c r="CC34" s="44"/>
-      <c r="CD34" s="44"/>
-      <c r="CE34" s="44"/>
-      <c r="CF34" s="44"/>
-      <c r="CG34" s="44"/>
-      <c r="CH34" s="44"/>
-      <c r="CI34" s="44"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="56"/>
+      <c r="BP34" s="56"/>
+      <c r="BQ34" s="56"/>
+      <c r="BR34" s="56"/>
+      <c r="BS34" s="56"/>
+      <c r="BT34" s="56"/>
+      <c r="BU34" s="56"/>
+      <c r="BV34" s="56"/>
+      <c r="BW34" s="56"/>
+      <c r="BX34" s="56"/>
+      <c r="BY34" s="56"/>
+      <c r="BZ34" s="56"/>
+      <c r="CA34" s="56"/>
+      <c r="CB34" s="56"/>
+      <c r="CC34" s="56"/>
+      <c r="CD34" s="56"/>
+      <c r="CE34" s="56"/>
+      <c r="CF34" s="56"/>
+      <c r="CG34" s="56"/>
+      <c r="CH34" s="56"/>
+      <c r="CI34" s="56"/>
     </row>
-    <row r="35" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2"/>
-      <c r="B35" s="45">
+      <c r="B35" s="76">
         <v>3</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46" t="s">
-        <v>62</v>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="72" t="s">
+        <v>55</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="36" t="s">
-        <v>45</v>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="36" t="s">
-        <v>45</v>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="47"/>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="47"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="47"/>
-      <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="49" t="s">
-        <v>46</v>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="74"/>
+      <c r="AQ35" s="74"/>
+      <c r="AR35" s="75"/>
+      <c r="AS35" s="73" t="s">
+        <v>43</v>
       </c>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
-      <c r="BP35" s="49"/>
-      <c r="BQ35" s="49"/>
-      <c r="BR35" s="49"/>
-      <c r="BS35" s="49"/>
-      <c r="BT35" s="49"/>
-      <c r="BU35" s="49"/>
-      <c r="BV35" s="49"/>
-      <c r="BW35" s="49"/>
-      <c r="BX35" s="49"/>
-      <c r="BY35" s="49"/>
-      <c r="BZ35" s="49"/>
-      <c r="CA35" s="49"/>
-      <c r="CB35" s="49"/>
-      <c r="CC35" s="49"/>
-      <c r="CD35" s="49"/>
-      <c r="CE35" s="49"/>
-      <c r="CF35" s="49"/>
-      <c r="CG35" s="49"/>
-      <c r="CH35" s="49"/>
-      <c r="CI35" s="49"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="73"/>
+      <c r="BA35" s="73"/>
+      <c r="BB35" s="73"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="73"/>
+      <c r="BE35" s="73"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="73"/>
+      <c r="BH35" s="73"/>
+      <c r="BI35" s="73"/>
+      <c r="BJ35" s="73"/>
+      <c r="BK35" s="73"/>
+      <c r="BL35" s="73"/>
+      <c r="BM35" s="73"/>
+      <c r="BN35" s="73"/>
+      <c r="BO35" s="73"/>
+      <c r="BP35" s="73"/>
+      <c r="BQ35" s="73"/>
+      <c r="BR35" s="73"/>
+      <c r="BS35" s="73"/>
+      <c r="BT35" s="73"/>
+      <c r="BU35" s="73"/>
+      <c r="BV35" s="73"/>
+      <c r="BW35" s="73"/>
+      <c r="BX35" s="73"/>
+      <c r="BY35" s="73"/>
+      <c r="BZ35" s="73"/>
+      <c r="CA35" s="73"/>
+      <c r="CB35" s="73"/>
+      <c r="CC35" s="73"/>
+      <c r="CD35" s="73"/>
+      <c r="CE35" s="73"/>
+      <c r="CF35" s="73"/>
+      <c r="CG35" s="73"/>
+      <c r="CH35" s="73"/>
+      <c r="CI35" s="73"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
@@ -33115,7 +33146,7 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -34141,19 +34172,19 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="24"/>
       <c r="E37" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="1"/>
       <c r="I37" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -35171,7 +35202,7 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -35181,7 +35212,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -36199,7 +36230,7 @@
       <c r="AMI38" s="1"/>
       <c r="AMJ38" s="1"/>
     </row>
-    <row r="39" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
@@ -37225,78 +37256,78 @@
       <c r="AMI39" s="1"/>
       <c r="AMJ39" s="1"/>
     </row>
-    <row r="40" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
       <c r="D40" s="24"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="79" t="s">
+      <c r="G40" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79" t="s">
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="34" t="s">
-        <v>19</v>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="80"/>
-      <c r="AL40" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM40" s="35"/>
-      <c r="AN40" s="35"/>
-      <c r="AO40" s="35"/>
-      <c r="AP40" s="35"/>
-      <c r="AQ40" s="35"/>
-      <c r="AR40" s="35"/>
-      <c r="AS40" s="35"/>
-      <c r="AT40" s="35"/>
-      <c r="AU40" s="35"/>
-      <c r="AV40" s="35"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="32"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
-      <c r="BA40" s="32"/>
-      <c r="BB40" s="32"/>
-      <c r="BC40" s="32"/>
-      <c r="BD40" s="32"/>
-      <c r="BE40" s="32"/>
-      <c r="BF40" s="32"/>
-      <c r="BG40" s="32"/>
-      <c r="BH40" s="32"/>
-      <c r="BI40" s="32"/>
-      <c r="BJ40" s="32"/>
-      <c r="BK40" s="33"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
+      <c r="AV40" s="50"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="47"/>
+      <c r="BA40" s="47"/>
+      <c r="BB40" s="47"/>
+      <c r="BC40" s="47"/>
+      <c r="BD40" s="47"/>
+      <c r="BE40" s="47"/>
+      <c r="BF40" s="47"/>
+      <c r="BG40" s="47"/>
+      <c r="BH40" s="47"/>
+      <c r="BI40" s="47"/>
+      <c r="BJ40" s="47"/>
+      <c r="BK40" s="48"/>
       <c r="BL40" s="24"/>
       <c r="BM40" s="24"/>
       <c r="BN40" s="24"/>
@@ -38259,78 +38290,78 @@
       <c r="AMI40" s="1"/>
       <c r="AMJ40" s="1"/>
     </row>
-    <row r="41" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="24"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="46" t="s">
-        <v>31</v>
+      <c r="G41" s="72" t="s">
+        <v>29</v>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46" t="s">
-        <v>20</v>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72" t="s">
+        <v>19</v>
       </c>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="36" t="s">
-        <v>60</v>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="57" t="s">
+        <v>53</v>
       </c>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="48"/>
-      <c r="AL41" s="36" t="s">
-        <v>58</v>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="74"/>
+      <c r="AJ41" s="74"/>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="57" t="s">
+        <v>51</v>
       </c>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="47"/>
-      <c r="AV41" s="47"/>
-      <c r="AW41" s="37"/>
-      <c r="AX41" s="37"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="37"/>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="37"/>
-      <c r="BF41" s="37"/>
-      <c r="BG41" s="37"/>
-      <c r="BH41" s="37"/>
-      <c r="BI41" s="37"/>
-      <c r="BJ41" s="37"/>
-      <c r="BK41" s="38"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="74"/>
+      <c r="AP41" s="74"/>
+      <c r="AQ41" s="74"/>
+      <c r="AR41" s="74"/>
+      <c r="AS41" s="74"/>
+      <c r="AT41" s="74"/>
+      <c r="AU41" s="74"/>
+      <c r="AV41" s="74"/>
+      <c r="AW41" s="36"/>
+      <c r="AX41" s="36"/>
+      <c r="AY41" s="36"/>
+      <c r="AZ41" s="36"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="36"/>
+      <c r="BC41" s="36"/>
+      <c r="BD41" s="36"/>
+      <c r="BE41" s="36"/>
+      <c r="BF41" s="36"/>
+      <c r="BG41" s="36"/>
+      <c r="BH41" s="36"/>
+      <c r="BI41" s="36"/>
+      <c r="BJ41" s="36"/>
+      <c r="BK41" s="37"/>
       <c r="BL41" s="24"/>
       <c r="BM41" s="24"/>
       <c r="BN41" s="24"/>
@@ -39293,78 +39324,78 @@
       <c r="AMI41" s="1"/>
       <c r="AMJ41" s="1"/>
     </row>
-    <row r="42" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="24"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="46" t="s">
-        <v>32</v>
+      <c r="G42" s="72" t="s">
+        <v>30</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46" t="s">
-        <v>20</v>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72" t="s">
+        <v>19</v>
       </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="36" t="s">
-        <v>60</v>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="57" t="s">
+        <v>53</v>
       </c>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="48"/>
-      <c r="AL42" s="36" t="s">
-        <v>59</v>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="74"/>
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="74"/>
+      <c r="AK42" s="75"/>
+      <c r="AL42" s="57" t="s">
+        <v>52</v>
       </c>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="47"/>
-      <c r="AS42" s="47"/>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="37"/>
-      <c r="AX42" s="37"/>
-      <c r="AY42" s="37"/>
-      <c r="AZ42" s="37"/>
-      <c r="BA42" s="37"/>
-      <c r="BB42" s="37"/>
-      <c r="BC42" s="37"/>
-      <c r="BD42" s="37"/>
-      <c r="BE42" s="37"/>
-      <c r="BF42" s="37"/>
-      <c r="BG42" s="37"/>
-      <c r="BH42" s="37"/>
-      <c r="BI42" s="37"/>
-      <c r="BJ42" s="37"/>
-      <c r="BK42" s="38"/>
+      <c r="AM42" s="74"/>
+      <c r="AN42" s="74"/>
+      <c r="AO42" s="74"/>
+      <c r="AP42" s="74"/>
+      <c r="AQ42" s="74"/>
+      <c r="AR42" s="74"/>
+      <c r="AS42" s="74"/>
+      <c r="AT42" s="74"/>
+      <c r="AU42" s="74"/>
+      <c r="AV42" s="74"/>
+      <c r="AW42" s="36"/>
+      <c r="AX42" s="36"/>
+      <c r="AY42" s="36"/>
+      <c r="AZ42" s="36"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
+      <c r="BC42" s="36"/>
+      <c r="BD42" s="36"/>
+      <c r="BE42" s="36"/>
+      <c r="BF42" s="36"/>
+      <c r="BG42" s="36"/>
+      <c r="BH42" s="36"/>
+      <c r="BI42" s="36"/>
+      <c r="BJ42" s="36"/>
+      <c r="BK42" s="37"/>
       <c r="BL42" s="24"/>
       <c r="BM42" s="24"/>
       <c r="BN42" s="24"/>
@@ -40327,7 +40358,7 @@
       <c r="AMI42" s="1"/>
       <c r="AMJ42" s="1"/>
     </row>
-    <row r="43" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -41353,19 +41384,19 @@
       <c r="AMI43" s="1"/>
       <c r="AMJ43" s="1"/>
     </row>
-    <row r="44" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="1"/>
       <c r="I44" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
@@ -42383,7 +42414,7 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -42393,7 +42424,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -43411,7 +43442,7 @@
       <c r="AMI45" s="1"/>
       <c r="AMJ45" s="1"/>
     </row>
-    <row r="46" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -44437,72 +44468,72 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="24"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="31" t="s">
-        <v>49</v>
+      <c r="G47" s="35" t="s">
+        <v>46</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37"/>
-      <c r="AM47" s="37"/>
-      <c r="AN47" s="37"/>
-      <c r="AO47" s="37"/>
-      <c r="AP47" s="37"/>
-      <c r="AQ47" s="37"/>
-      <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
-      <c r="AT47" s="37"/>
-      <c r="AU47" s="37"/>
-      <c r="AV47" s="37"/>
-      <c r="AW47" s="37"/>
-      <c r="AX47" s="37"/>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37"/>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="37"/>
-      <c r="BF47" s="37"/>
-      <c r="BG47" s="37"/>
-      <c r="BH47" s="37"/>
-      <c r="BI47" s="37"/>
-      <c r="BJ47" s="37"/>
-      <c r="BK47" s="38"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="36"/>
+      <c r="AI47" s="36"/>
+      <c r="AJ47" s="36"/>
+      <c r="AK47" s="36"/>
+      <c r="AL47" s="36"/>
+      <c r="AM47" s="36"/>
+      <c r="AN47" s="36"/>
+      <c r="AO47" s="36"/>
+      <c r="AP47" s="36"/>
+      <c r="AQ47" s="36"/>
+      <c r="AR47" s="36"/>
+      <c r="AS47" s="36"/>
+      <c r="AT47" s="36"/>
+      <c r="AU47" s="36"/>
+      <c r="AV47" s="36"/>
+      <c r="AW47" s="36"/>
+      <c r="AX47" s="36"/>
+      <c r="AY47" s="36"/>
+      <c r="AZ47" s="36"/>
+      <c r="BA47" s="36"/>
+      <c r="BB47" s="36"/>
+      <c r="BC47" s="36"/>
+      <c r="BD47" s="36"/>
+      <c r="BE47" s="36"/>
+      <c r="BF47" s="36"/>
+      <c r="BG47" s="36"/>
+      <c r="BH47" s="36"/>
+      <c r="BI47" s="36"/>
+      <c r="BJ47" s="36"/>
+      <c r="BK47" s="37"/>
       <c r="BL47" s="24"/>
       <c r="BM47" s="24"/>
       <c r="BN47" s="24"/>
@@ -45465,71 +45496,71 @@
       <c r="AMI47" s="1"/>
       <c r="AMJ47" s="1"/>
     </row>
-    <row r="48" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="69" t="s">
-        <v>66</v>
+      <c r="G48" s="38" t="s">
+        <v>58</v>
       </c>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="70"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="70"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="70"/>
-      <c r="AG48" s="70"/>
-      <c r="AH48" s="70"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="70"/>
-      <c r="AK48" s="70"/>
-      <c r="AL48" s="70"/>
-      <c r="AM48" s="70"/>
-      <c r="AN48" s="70"/>
-      <c r="AO48" s="70"/>
-      <c r="AP48" s="70"/>
-      <c r="AQ48" s="70"/>
-      <c r="AR48" s="70"/>
-      <c r="AS48" s="70"/>
-      <c r="AT48" s="70"/>
-      <c r="AU48" s="70"/>
-      <c r="AV48" s="70"/>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
-      <c r="AY48" s="70"/>
-      <c r="AZ48" s="70"/>
-      <c r="BA48" s="70"/>
-      <c r="BB48" s="70"/>
-      <c r="BC48" s="70"/>
-      <c r="BD48" s="70"/>
-      <c r="BE48" s="70"/>
-      <c r="BF48" s="70"/>
-      <c r="BG48" s="70"/>
-      <c r="BH48" s="70"/>
-      <c r="BI48" s="70"/>
-      <c r="BJ48" s="70"/>
-      <c r="BK48" s="71"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
+      <c r="AQ48" s="39"/>
+      <c r="AR48" s="39"/>
+      <c r="AS48" s="39"/>
+      <c r="AT48" s="39"/>
+      <c r="AU48" s="39"/>
+      <c r="AV48" s="39"/>
+      <c r="AW48" s="39"/>
+      <c r="AX48" s="39"/>
+      <c r="AY48" s="39"/>
+      <c r="AZ48" s="39"/>
+      <c r="BA48" s="39"/>
+      <c r="BB48" s="39"/>
+      <c r="BC48" s="39"/>
+      <c r="BD48" s="39"/>
+      <c r="BE48" s="39"/>
+      <c r="BF48" s="39"/>
+      <c r="BG48" s="39"/>
+      <c r="BH48" s="39"/>
+      <c r="BI48" s="39"/>
+      <c r="BJ48" s="39"/>
+      <c r="BK48" s="40"/>
       <c r="BL48" s="24"/>
       <c r="BM48" s="24"/>
       <c r="BN48" s="24"/>
@@ -45556,69 +45587,69 @@
       <c r="CI48" s="17"/>
       <c r="AMK48" s="29"/>
     </row>
-    <row r="49" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-      <c r="AF49" s="73"/>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="73"/>
-      <c r="AL49" s="73"/>
-      <c r="AM49" s="73"/>
-      <c r="AN49" s="73"/>
-      <c r="AO49" s="73"/>
-      <c r="AP49" s="73"/>
-      <c r="AQ49" s="73"/>
-      <c r="AR49" s="73"/>
-      <c r="AS49" s="73"/>
-      <c r="AT49" s="73"/>
-      <c r="AU49" s="73"/>
-      <c r="AV49" s="73"/>
-      <c r="AW49" s="73"/>
-      <c r="AX49" s="73"/>
-      <c r="AY49" s="73"/>
-      <c r="AZ49" s="73"/>
-      <c r="BA49" s="73"/>
-      <c r="BB49" s="73"/>
-      <c r="BC49" s="73"/>
-      <c r="BD49" s="73"/>
-      <c r="BE49" s="73"/>
-      <c r="BF49" s="73"/>
-      <c r="BG49" s="73"/>
-      <c r="BH49" s="73"/>
-      <c r="BI49" s="73"/>
-      <c r="BJ49" s="73"/>
-      <c r="BK49" s="74"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="42"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="42"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+      <c r="AT49" s="42"/>
+      <c r="AU49" s="42"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="42"/>
+      <c r="AX49" s="42"/>
+      <c r="AY49" s="42"/>
+      <c r="AZ49" s="42"/>
+      <c r="BA49" s="42"/>
+      <c r="BB49" s="42"/>
+      <c r="BC49" s="42"/>
+      <c r="BD49" s="42"/>
+      <c r="BE49" s="42"/>
+      <c r="BF49" s="42"/>
+      <c r="BG49" s="42"/>
+      <c r="BH49" s="42"/>
+      <c r="BI49" s="42"/>
+      <c r="BJ49" s="42"/>
+      <c r="BK49" s="43"/>
       <c r="BL49" s="24"/>
       <c r="BM49" s="24"/>
       <c r="BN49" s="24"/>
@@ -45645,69 +45676,69 @@
       <c r="CI49" s="17"/>
       <c r="AMK49" s="29"/>
     </row>
-    <row r="50" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="76"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="76"/>
-      <c r="AD50" s="76"/>
-      <c r="AE50" s="76"/>
-      <c r="AF50" s="76"/>
-      <c r="AG50" s="76"/>
-      <c r="AH50" s="76"/>
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AQ50" s="76"/>
-      <c r="AR50" s="76"/>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="76"/>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="76"/>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
-      <c r="AZ50" s="76"/>
-      <c r="BA50" s="76"/>
-      <c r="BB50" s="76"/>
-      <c r="BC50" s="76"/>
-      <c r="BD50" s="76"/>
-      <c r="BE50" s="76"/>
-      <c r="BF50" s="76"/>
-      <c r="BG50" s="76"/>
-      <c r="BH50" s="76"/>
-      <c r="BI50" s="76"/>
-      <c r="BJ50" s="76"/>
-      <c r="BK50" s="77"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="45"/>
+      <c r="AO50" s="45"/>
+      <c r="AP50" s="45"/>
+      <c r="AQ50" s="45"/>
+      <c r="AR50" s="45"/>
+      <c r="AS50" s="45"/>
+      <c r="AT50" s="45"/>
+      <c r="AU50" s="45"/>
+      <c r="AV50" s="45"/>
+      <c r="AW50" s="45"/>
+      <c r="AX50" s="45"/>
+      <c r="AY50" s="45"/>
+      <c r="AZ50" s="45"/>
+      <c r="BA50" s="45"/>
+      <c r="BB50" s="45"/>
+      <c r="BC50" s="45"/>
+      <c r="BD50" s="45"/>
+      <c r="BE50" s="45"/>
+      <c r="BF50" s="45"/>
+      <c r="BG50" s="45"/>
+      <c r="BH50" s="45"/>
+      <c r="BI50" s="45"/>
+      <c r="BJ50" s="45"/>
+      <c r="BK50" s="46"/>
       <c r="BL50" s="24"/>
       <c r="BM50" s="24"/>
       <c r="BN50" s="24"/>
@@ -45734,7 +45765,7 @@
       <c r="CI50" s="17"/>
       <c r="AMK50" s="29"/>
     </row>
-    <row r="51" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -46760,19 +46791,19 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="24"/>
       <c r="E52" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="1"/>
       <c r="I52" s="15" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -47790,7 +47821,7 @@
       <c r="AMI52" s="1"/>
       <c r="AMJ52" s="1"/>
     </row>
-    <row r="53" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -48816,22 +48847,23 @@
       <c r="AMI53" s="1"/>
       <c r="AMJ53" s="1"/>
     </row>
-    <row r="54" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1025" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <v>-4</v>
+      </c>
       <c r="I54" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
@@ -49846,7 +49878,7 @@
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -49855,9 +49887,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -50874,7 +50904,7 @@
       <c r="AMI55" s="1"/>
       <c r="AMJ55" s="1"/>
     </row>
-    <row r="56" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -51900,72 +51930,70 @@
       <c r="AMI56" s="1"/>
       <c r="AMJ56" s="1"/>
     </row>
-    <row r="57" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="24"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="37"/>
-      <c r="AE57" s="37"/>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
-      <c r="AK57" s="37"/>
-      <c r="AL57" s="37"/>
-      <c r="AM57" s="37"/>
-      <c r="AN57" s="37"/>
-      <c r="AO57" s="37"/>
-      <c r="AP57" s="37"/>
-      <c r="AQ57" s="37"/>
-      <c r="AR57" s="37"/>
-      <c r="AS57" s="37"/>
-      <c r="AT57" s="37"/>
-      <c r="AU57" s="37"/>
-      <c r="AV57" s="37"/>
-      <c r="AW57" s="37"/>
-      <c r="AX57" s="37"/>
-      <c r="AY57" s="37"/>
-      <c r="AZ57" s="37"/>
-      <c r="BA57" s="37"/>
-      <c r="BB57" s="37"/>
-      <c r="BC57" s="37"/>
-      <c r="BD57" s="37"/>
-      <c r="BE57" s="37"/>
-      <c r="BF57" s="37"/>
-      <c r="BG57" s="37"/>
-      <c r="BH57" s="37"/>
-      <c r="BI57" s="37"/>
-      <c r="BJ57" s="37"/>
-      <c r="BK57" s="38"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="32"/>
+      <c r="AF57" s="32"/>
+      <c r="AG57" s="32"/>
+      <c r="AH57" s="32"/>
+      <c r="AI57" s="32"/>
+      <c r="AJ57" s="32"/>
+      <c r="AK57" s="32"/>
+      <c r="AL57" s="32"/>
+      <c r="AM57" s="32"/>
+      <c r="AN57" s="32"/>
+      <c r="AO57" s="32"/>
+      <c r="AP57" s="32"/>
+      <c r="AQ57" s="32"/>
+      <c r="AR57" s="32"/>
+      <c r="AS57" s="32"/>
+      <c r="AT57" s="32"/>
+      <c r="AU57" s="32"/>
+      <c r="AV57" s="32"/>
+      <c r="AW57" s="32"/>
+      <c r="AX57" s="32"/>
+      <c r="AY57" s="32"/>
+      <c r="AZ57" s="32"/>
+      <c r="BA57" s="32"/>
+      <c r="BB57" s="32"/>
+      <c r="BC57" s="32"/>
+      <c r="BD57" s="32"/>
+      <c r="BE57" s="32"/>
+      <c r="BF57" s="32"/>
+      <c r="BG57" s="32"/>
+      <c r="BH57" s="32"/>
+      <c r="BI57" s="32"/>
+      <c r="BJ57" s="32"/>
+      <c r="BK57" s="32"/>
       <c r="BL57" s="24"/>
       <c r="BM57" s="24"/>
       <c r="BN57" s="24"/>
@@ -52928,71 +52956,69 @@
       <c r="AMI57" s="1"/>
       <c r="AMJ57" s="1"/>
     </row>
-    <row r="58" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="70"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="70"/>
-      <c r="AH58" s="70"/>
-      <c r="AI58" s="70"/>
-      <c r="AJ58" s="70"/>
-      <c r="AK58" s="70"/>
-      <c r="AL58" s="70"/>
-      <c r="AM58" s="70"/>
-      <c r="AN58" s="70"/>
-      <c r="AO58" s="70"/>
-      <c r="AP58" s="70"/>
-      <c r="AQ58" s="70"/>
-      <c r="AR58" s="70"/>
-      <c r="AS58" s="70"/>
-      <c r="AT58" s="70"/>
-      <c r="AU58" s="70"/>
-      <c r="AV58" s="70"/>
-      <c r="AW58" s="70"/>
-      <c r="AX58" s="70"/>
-      <c r="AY58" s="70"/>
-      <c r="AZ58" s="70"/>
-      <c r="BA58" s="70"/>
-      <c r="BB58" s="70"/>
-      <c r="BC58" s="70"/>
-      <c r="BD58" s="70"/>
-      <c r="BE58" s="70"/>
-      <c r="BF58" s="70"/>
-      <c r="BG58" s="70"/>
-      <c r="BH58" s="70"/>
-      <c r="BI58" s="70"/>
-      <c r="BJ58" s="70"/>
-      <c r="BK58" s="71"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="31"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="31"/>
+      <c r="AE58" s="31"/>
+      <c r="AF58" s="31"/>
+      <c r="AG58" s="31"/>
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="31"/>
+      <c r="AJ58" s="31"/>
+      <c r="AK58" s="31"/>
+      <c r="AL58" s="31"/>
+      <c r="AM58" s="31"/>
+      <c r="AN58" s="31"/>
+      <c r="AO58" s="31"/>
+      <c r="AP58" s="31"/>
+      <c r="AQ58" s="31"/>
+      <c r="AR58" s="31"/>
+      <c r="AS58" s="31"/>
+      <c r="AT58" s="31"/>
+      <c r="AU58" s="31"/>
+      <c r="AV58" s="31"/>
+      <c r="AW58" s="31"/>
+      <c r="AX58" s="31"/>
+      <c r="AY58" s="31"/>
+      <c r="AZ58" s="31"/>
+      <c r="BA58" s="31"/>
+      <c r="BB58" s="31"/>
+      <c r="BC58" s="31"/>
+      <c r="BD58" s="31"/>
+      <c r="BE58" s="31"/>
+      <c r="BF58" s="31"/>
+      <c r="BG58" s="31"/>
+      <c r="BH58" s="31"/>
+      <c r="BI58" s="31"/>
+      <c r="BJ58" s="31"/>
+      <c r="BK58" s="31"/>
       <c r="BL58" s="24"/>
       <c r="BM58" s="24"/>
       <c r="BN58" s="24"/>
@@ -53019,69 +53045,69 @@
       <c r="CI58" s="17"/>
       <c r="AMK58" s="29"/>
     </row>
-    <row r="59" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="12"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
-      <c r="AC59" s="73"/>
-      <c r="AD59" s="73"/>
-      <c r="AE59" s="73"/>
-      <c r="AF59" s="73"/>
-      <c r="AG59" s="73"/>
-      <c r="AH59" s="73"/>
-      <c r="AI59" s="73"/>
-      <c r="AJ59" s="73"/>
-      <c r="AK59" s="73"/>
-      <c r="AL59" s="73"/>
-      <c r="AM59" s="73"/>
-      <c r="AN59" s="73"/>
-      <c r="AO59" s="73"/>
-      <c r="AP59" s="73"/>
-      <c r="AQ59" s="73"/>
-      <c r="AR59" s="73"/>
-      <c r="AS59" s="73"/>
-      <c r="AT59" s="73"/>
-      <c r="AU59" s="73"/>
-      <c r="AV59" s="73"/>
-      <c r="AW59" s="73"/>
-      <c r="AX59" s="73"/>
-      <c r="AY59" s="73"/>
-      <c r="AZ59" s="73"/>
-      <c r="BA59" s="73"/>
-      <c r="BB59" s="73"/>
-      <c r="BC59" s="73"/>
-      <c r="BD59" s="73"/>
-      <c r="BE59" s="73"/>
-      <c r="BF59" s="73"/>
-      <c r="BG59" s="73"/>
-      <c r="BH59" s="73"/>
-      <c r="BI59" s="73"/>
-      <c r="BJ59" s="73"/>
-      <c r="BK59" s="74"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="31"/>
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="31"/>
+      <c r="AE59" s="31"/>
+      <c r="AF59" s="31"/>
+      <c r="AG59" s="31"/>
+      <c r="AH59" s="31"/>
+      <c r="AI59" s="31"/>
+      <c r="AJ59" s="31"/>
+      <c r="AK59" s="31"/>
+      <c r="AL59" s="31"/>
+      <c r="AM59" s="31"/>
+      <c r="AN59" s="31"/>
+      <c r="AO59" s="31"/>
+      <c r="AP59" s="31"/>
+      <c r="AQ59" s="31"/>
+      <c r="AR59" s="31"/>
+      <c r="AS59" s="31"/>
+      <c r="AT59" s="31"/>
+      <c r="AU59" s="31"/>
+      <c r="AV59" s="31"/>
+      <c r="AW59" s="31"/>
+      <c r="AX59" s="31"/>
+      <c r="AY59" s="31"/>
+      <c r="AZ59" s="31"/>
+      <c r="BA59" s="31"/>
+      <c r="BB59" s="31"/>
+      <c r="BC59" s="31"/>
+      <c r="BD59" s="31"/>
+      <c r="BE59" s="31"/>
+      <c r="BF59" s="31"/>
+      <c r="BG59" s="31"/>
+      <c r="BH59" s="31"/>
+      <c r="BI59" s="31"/>
+      <c r="BJ59" s="31"/>
+      <c r="BK59" s="31"/>
       <c r="BL59" s="24"/>
       <c r="BM59" s="24"/>
       <c r="BN59" s="24"/>
@@ -53108,69 +53134,69 @@
       <c r="CI59" s="17"/>
       <c r="AMK59" s="29"/>
     </row>
-    <row r="60" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="12"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="76"/>
-      <c r="AQ60" s="76"/>
-      <c r="AR60" s="76"/>
-      <c r="AS60" s="76"/>
-      <c r="AT60" s="76"/>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BB60" s="76"/>
-      <c r="BC60" s="76"/>
-      <c r="BD60" s="76"/>
-      <c r="BE60" s="76"/>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="77"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="31"/>
+      <c r="Y60" s="31"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="31"/>
+      <c r="AE60" s="31"/>
+      <c r="AF60" s="31"/>
+      <c r="AG60" s="31"/>
+      <c r="AH60" s="31"/>
+      <c r="AI60" s="31"/>
+      <c r="AJ60" s="31"/>
+      <c r="AK60" s="31"/>
+      <c r="AL60" s="31"/>
+      <c r="AM60" s="31"/>
+      <c r="AN60" s="31"/>
+      <c r="AO60" s="31"/>
+      <c r="AP60" s="31"/>
+      <c r="AQ60" s="31"/>
+      <c r="AR60" s="31"/>
+      <c r="AS60" s="31"/>
+      <c r="AT60" s="31"/>
+      <c r="AU60" s="31"/>
+      <c r="AV60" s="31"/>
+      <c r="AW60" s="31"/>
+      <c r="AX60" s="31"/>
+      <c r="AY60" s="31"/>
+      <c r="AZ60" s="31"/>
+      <c r="BA60" s="31"/>
+      <c r="BB60" s="31"/>
+      <c r="BC60" s="31"/>
+      <c r="BD60" s="31"/>
+      <c r="BE60" s="31"/>
+      <c r="BF60" s="31"/>
+      <c r="BG60" s="31"/>
+      <c r="BH60" s="31"/>
+      <c r="BI60" s="31"/>
+      <c r="BJ60" s="31"/>
+      <c r="BK60" s="31"/>
       <c r="BL60" s="24"/>
       <c r="BM60" s="24"/>
       <c r="BN60" s="24"/>
@@ -53197,76 +53223,70 @@
       <c r="CI60" s="17"/>
       <c r="AMK60" s="29"/>
     </row>
-    <row r="61" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
       <c r="D61" s="24"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
-      <c r="AB61" s="37"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="37"/>
-      <c r="AF61" s="37"/>
-      <c r="AG61" s="37"/>
-      <c r="AH61" s="37"/>
-      <c r="AI61" s="37"/>
-      <c r="AJ61" s="37"/>
-      <c r="AK61" s="37"/>
-      <c r="AL61" s="37"/>
-      <c r="AM61" s="37"/>
-      <c r="AN61" s="37"/>
-      <c r="AO61" s="37"/>
-      <c r="AP61" s="37"/>
-      <c r="AQ61" s="37"/>
-      <c r="AR61" s="37"/>
-      <c r="AS61" s="37"/>
-      <c r="AT61" s="37"/>
-      <c r="AU61" s="37"/>
-      <c r="AV61" s="37"/>
-      <c r="AW61" s="37"/>
-      <c r="AX61" s="37"/>
-      <c r="AY61" s="37"/>
-      <c r="AZ61" s="37"/>
-      <c r="BA61" s="37"/>
-      <c r="BB61" s="37"/>
-      <c r="BC61" s="37"/>
-      <c r="BD61" s="37"/>
-      <c r="BE61" s="37"/>
-      <c r="BF61" s="37"/>
-      <c r="BG61" s="37"/>
-      <c r="BH61" s="37"/>
-      <c r="BI61" s="37"/>
-      <c r="BJ61" s="37"/>
-      <c r="BK61" s="38"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="AD61" s="53"/>
+      <c r="AE61" s="53"/>
+      <c r="AF61" s="53"/>
+      <c r="AG61" s="53"/>
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="53"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="53"/>
+      <c r="AL61" s="53"/>
+      <c r="AM61" s="53"/>
+      <c r="AN61" s="53"/>
+      <c r="AO61" s="53"/>
+      <c r="AP61" s="53"/>
+      <c r="AQ61" s="53"/>
+      <c r="AR61" s="53"/>
+      <c r="AS61" s="53"/>
+      <c r="AT61" s="53"/>
+      <c r="AU61" s="53"/>
+      <c r="AV61" s="53"/>
+      <c r="AW61" s="53"/>
+      <c r="AX61" s="53"/>
+      <c r="AY61" s="53"/>
+      <c r="AZ61" s="53"/>
+      <c r="BA61" s="53"/>
+      <c r="BB61" s="53"/>
+      <c r="BC61" s="53"/>
+      <c r="BD61" s="53"/>
+      <c r="BE61" s="53"/>
+      <c r="BF61" s="53"/>
+      <c r="BG61" s="53"/>
+      <c r="BH61" s="53"/>
+      <c r="BI61" s="53"/>
+      <c r="BJ61" s="53"/>
+      <c r="BK61" s="53"/>
       <c r="BL61" s="24"/>
       <c r="BM61" s="24"/>
       <c r="BN61" s="24"/>
@@ -54229,76 +54249,70 @@
       <c r="AMI61" s="1"/>
       <c r="AMJ61" s="1"/>
     </row>
-    <row r="62" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
       <c r="D62" s="24"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="36">
-        <v>1</v>
-      </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="37"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="37"/>
-      <c r="AJ62" s="37"/>
-      <c r="AK62" s="37"/>
-      <c r="AL62" s="37"/>
-      <c r="AM62" s="37"/>
-      <c r="AN62" s="37"/>
-      <c r="AO62" s="37"/>
-      <c r="AP62" s="37"/>
-      <c r="AQ62" s="37"/>
-      <c r="AR62" s="37"/>
-      <c r="AS62" s="37"/>
-      <c r="AT62" s="37"/>
-      <c r="AU62" s="37"/>
-      <c r="AV62" s="37"/>
-      <c r="AW62" s="37"/>
-      <c r="AX62" s="37"/>
-      <c r="AY62" s="37"/>
-      <c r="AZ62" s="37"/>
-      <c r="BA62" s="37"/>
-      <c r="BB62" s="37"/>
-      <c r="BC62" s="37"/>
-      <c r="BD62" s="37"/>
-      <c r="BE62" s="37"/>
-      <c r="BF62" s="37"/>
-      <c r="BG62" s="37"/>
-      <c r="BH62" s="37"/>
-      <c r="BI62" s="37"/>
-      <c r="BJ62" s="37"/>
-      <c r="BK62" s="38"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="53"/>
+      <c r="AA62" s="53"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="53"/>
+      <c r="AD62" s="53"/>
+      <c r="AE62" s="53"/>
+      <c r="AF62" s="53"/>
+      <c r="AG62" s="53"/>
+      <c r="AH62" s="53"/>
+      <c r="AI62" s="53"/>
+      <c r="AJ62" s="53"/>
+      <c r="AK62" s="53"/>
+      <c r="AL62" s="53"/>
+      <c r="AM62" s="53"/>
+      <c r="AN62" s="53"/>
+      <c r="AO62" s="53"/>
+      <c r="AP62" s="53"/>
+      <c r="AQ62" s="53"/>
+      <c r="AR62" s="53"/>
+      <c r="AS62" s="53"/>
+      <c r="AT62" s="53"/>
+      <c r="AU62" s="53"/>
+      <c r="AV62" s="53"/>
+      <c r="AW62" s="53"/>
+      <c r="AX62" s="53"/>
+      <c r="AY62" s="53"/>
+      <c r="AZ62" s="53"/>
+      <c r="BA62" s="53"/>
+      <c r="BB62" s="53"/>
+      <c r="BC62" s="53"/>
+      <c r="BD62" s="53"/>
+      <c r="BE62" s="53"/>
+      <c r="BF62" s="53"/>
+      <c r="BG62" s="53"/>
+      <c r="BH62" s="53"/>
+      <c r="BI62" s="53"/>
+      <c r="BJ62" s="53"/>
+      <c r="BK62" s="53"/>
       <c r="BL62" s="24"/>
       <c r="BM62" s="24"/>
       <c r="BN62" s="24"/>
@@ -55261,38 +55275,38 @@
       <c r="AMI62" s="1"/>
       <c r="AMJ62" s="1"/>
     </row>
-    <row r="63" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
       <c r="D63" s="24"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
       <c r="AF63" s="24"/>
       <c r="AG63" s="24"/>
       <c r="AH63" s="24"/>
@@ -56287,20 +56301,16 @@
       <c r="AMI63" s="1"/>
       <c r="AMJ63" s="1"/>
     </row>
-    <row r="64" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
       <c r="D64" s="24"/>
-      <c r="E64" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
@@ -57317,7 +57327,7 @@
       <c r="AMI64" s="1"/>
       <c r="AMJ64" s="1"/>
     </row>
-    <row r="65" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -58343,37 +58353,2919 @@
       <c r="AMI65" s="1"/>
       <c r="AMJ65" s="1"/>
     </row>
+    <row r="66" spans="1:1024" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B67" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="55"/>
+      <c r="Y67" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z67" s="85"/>
+      <c r="AA67" s="85"/>
+      <c r="AB67" s="85"/>
+      <c r="AC67" s="85"/>
+      <c r="AD67" s="85"/>
+      <c r="AE67" s="85"/>
+      <c r="AF67" s="85"/>
+      <c r="AG67" s="85"/>
+      <c r="AH67" s="86"/>
+      <c r="AI67" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ67" s="85"/>
+      <c r="AK67" s="85"/>
+      <c r="AL67" s="85"/>
+      <c r="AM67" s="85"/>
+      <c r="AN67" s="85"/>
+      <c r="AO67" s="85"/>
+      <c r="AP67" s="85"/>
+      <c r="AQ67" s="85"/>
+      <c r="AR67" s="86"/>
+      <c r="AS67" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT67" s="56"/>
+      <c r="AU67" s="56"/>
+      <c r="AV67" s="56"/>
+      <c r="AW67" s="56"/>
+      <c r="AX67" s="56"/>
+      <c r="AY67" s="56"/>
+      <c r="AZ67" s="56"/>
+      <c r="BA67" s="56"/>
+      <c r="BB67" s="56"/>
+      <c r="BC67" s="56"/>
+      <c r="BD67" s="56"/>
+      <c r="BE67" s="56"/>
+      <c r="BF67" s="56"/>
+      <c r="BG67" s="56"/>
+      <c r="BH67" s="56"/>
+      <c r="BI67" s="56"/>
+      <c r="BJ67" s="56"/>
+      <c r="BK67" s="56"/>
+      <c r="BL67" s="56"/>
+      <c r="BM67" s="56"/>
+      <c r="BN67" s="56"/>
+      <c r="BO67" s="56"/>
+      <c r="BP67" s="56"/>
+      <c r="BQ67" s="56"/>
+      <c r="BR67" s="56"/>
+      <c r="BS67" s="56"/>
+      <c r="BT67" s="56"/>
+      <c r="BU67" s="56"/>
+      <c r="BV67" s="56"/>
+      <c r="BW67" s="56"/>
+      <c r="BX67" s="56"/>
+      <c r="BY67" s="56"/>
+      <c r="BZ67" s="56"/>
+      <c r="CA67" s="56"/>
+      <c r="CB67" s="56"/>
+      <c r="CC67" s="56"/>
+      <c r="CD67" s="56"/>
+      <c r="CE67" s="56"/>
+      <c r="CF67" s="56"/>
+      <c r="CG67" s="56"/>
+      <c r="CH67" s="56"/>
+      <c r="CI67" s="56"/>
+    </row>
+    <row r="68" spans="1:1024" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="76">
+        <v>4</v>
+      </c>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="72"/>
+      <c r="W68" s="72"/>
+      <c r="X68" s="72"/>
+      <c r="Y68" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z68" s="74"/>
+      <c r="AA68" s="74"/>
+      <c r="AB68" s="74"/>
+      <c r="AC68" s="74"/>
+      <c r="AD68" s="74"/>
+      <c r="AE68" s="74"/>
+      <c r="AF68" s="74"/>
+      <c r="AG68" s="74"/>
+      <c r="AH68" s="75"/>
+      <c r="AI68" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ68" s="74"/>
+      <c r="AK68" s="74"/>
+      <c r="AL68" s="74"/>
+      <c r="AM68" s="74"/>
+      <c r="AN68" s="74"/>
+      <c r="AO68" s="74"/>
+      <c r="AP68" s="74"/>
+      <c r="AQ68" s="74"/>
+      <c r="AR68" s="75"/>
+      <c r="AS68" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT68" s="73"/>
+      <c r="AU68" s="73"/>
+      <c r="AV68" s="73"/>
+      <c r="AW68" s="73"/>
+      <c r="AX68" s="73"/>
+      <c r="AY68" s="73"/>
+      <c r="AZ68" s="73"/>
+      <c r="BA68" s="73"/>
+      <c r="BB68" s="73"/>
+      <c r="BC68" s="73"/>
+      <c r="BD68" s="73"/>
+      <c r="BE68" s="73"/>
+      <c r="BF68" s="73"/>
+      <c r="BG68" s="73"/>
+      <c r="BH68" s="73"/>
+      <c r="BI68" s="73"/>
+      <c r="BJ68" s="73"/>
+      <c r="BK68" s="73"/>
+      <c r="BL68" s="73"/>
+      <c r="BM68" s="73"/>
+      <c r="BN68" s="73"/>
+      <c r="BO68" s="73"/>
+      <c r="BP68" s="73"/>
+      <c r="BQ68" s="73"/>
+      <c r="BR68" s="73"/>
+      <c r="BS68" s="73"/>
+      <c r="BT68" s="73"/>
+      <c r="BU68" s="73"/>
+      <c r="BV68" s="73"/>
+      <c r="BW68" s="73"/>
+      <c r="BX68" s="73"/>
+      <c r="BY68" s="73"/>
+      <c r="BZ68" s="73"/>
+      <c r="CA68" s="73"/>
+      <c r="CB68" s="73"/>
+      <c r="CC68" s="73"/>
+      <c r="CD68" s="73"/>
+      <c r="CE68" s="73"/>
+      <c r="CF68" s="73"/>
+      <c r="CG68" s="73"/>
+      <c r="CH68" s="73"/>
+      <c r="CI68" s="73"/>
+    </row>
+    <row r="69" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="23"/>
+      <c r="AF69" s="23"/>
+      <c r="AG69" s="23"/>
+      <c r="AH69" s="23"/>
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="23"/>
+      <c r="AL69" s="23"/>
+      <c r="AM69" s="23"/>
+      <c r="AN69" s="23"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="23"/>
+      <c r="AQ69" s="23"/>
+      <c r="AR69" s="23"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="23"/>
+      <c r="AU69" s="23"/>
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="23"/>
+      <c r="AY69" s="23"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="23"/>
+      <c r="BB69" s="23"/>
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="23"/>
+      <c r="BF69" s="23"/>
+      <c r="BG69" s="23"/>
+      <c r="BH69" s="23"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="23"/>
+      <c r="BK69" s="23"/>
+      <c r="BL69" s="23"/>
+      <c r="BM69" s="23"/>
+      <c r="BN69" s="23"/>
+      <c r="BO69" s="23"/>
+      <c r="BP69" s="10"/>
+      <c r="BQ69" s="10"/>
+      <c r="BR69" s="10"/>
+      <c r="BS69" s="10"/>
+      <c r="BT69" s="10"/>
+      <c r="BU69" s="10"/>
+      <c r="BV69" s="10"/>
+      <c r="BW69" s="10"/>
+      <c r="BX69" s="10"/>
+      <c r="BY69" s="10"/>
+      <c r="BZ69" s="10"/>
+      <c r="CA69" s="10"/>
+      <c r="CB69" s="10"/>
+      <c r="CC69" s="10"/>
+      <c r="CD69" s="10"/>
+      <c r="CE69" s="10"/>
+      <c r="CF69" s="10"/>
+      <c r="CG69" s="10"/>
+      <c r="CH69" s="10"/>
+      <c r="CI69" s="11"/>
+    </row>
+    <row r="70" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="24"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="24"/>
+      <c r="AM70" s="24"/>
+      <c r="AN70" s="24"/>
+      <c r="AO70" s="24"/>
+      <c r="AP70" s="24"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="24"/>
+      <c r="AT70" s="24"/>
+      <c r="AU70" s="24"/>
+      <c r="AV70" s="24"/>
+      <c r="AW70" s="24"/>
+      <c r="AX70" s="24"/>
+      <c r="AY70" s="24"/>
+      <c r="AZ70" s="24"/>
+      <c r="BA70" s="24"/>
+      <c r="BB70" s="24"/>
+      <c r="BC70" s="24"/>
+      <c r="BD70" s="24"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="24"/>
+      <c r="BG70" s="24"/>
+      <c r="BH70" s="24"/>
+      <c r="BI70" s="24"/>
+      <c r="BJ70" s="24"/>
+      <c r="BK70" s="24"/>
+      <c r="BL70" s="24"/>
+      <c r="BM70" s="24"/>
+      <c r="BN70" s="24"/>
+      <c r="BO70" s="24"/>
+      <c r="BP70" s="13"/>
+      <c r="BQ70" s="13"/>
+      <c r="BR70" s="13"/>
+      <c r="BS70" s="13"/>
+      <c r="BT70" s="13"/>
+      <c r="BU70" s="13"/>
+      <c r="BV70" s="13"/>
+      <c r="BW70" s="13"/>
+      <c r="BX70" s="13"/>
+      <c r="BY70" s="13"/>
+      <c r="BZ70" s="13"/>
+      <c r="CA70" s="13"/>
+      <c r="CB70" s="13"/>
+      <c r="CC70" s="13"/>
+      <c r="CD70" s="13"/>
+      <c r="CE70" s="13"/>
+      <c r="CF70" s="16"/>
+      <c r="CG70" s="16"/>
+      <c r="CH70" s="16"/>
+      <c r="CI70" s="17"/>
+    </row>
+    <row r="71" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="15"/>
+      <c r="AL71" s="15"/>
+      <c r="AM71" s="15"/>
+      <c r="AN71" s="15"/>
+      <c r="AO71" s="15"/>
+      <c r="AP71" s="15"/>
+      <c r="AQ71" s="15"/>
+      <c r="AR71" s="15"/>
+      <c r="AS71" s="15"/>
+      <c r="AT71" s="15"/>
+      <c r="AU71" s="15"/>
+      <c r="AV71" s="15"/>
+      <c r="AW71" s="15"/>
+      <c r="AX71" s="15"/>
+      <c r="AY71" s="15"/>
+      <c r="AZ71" s="15"/>
+      <c r="BA71" s="15"/>
+      <c r="BB71" s="15"/>
+      <c r="BC71" s="15"/>
+      <c r="BD71" s="15"/>
+      <c r="BE71" s="15"/>
+      <c r="BF71" s="15"/>
+      <c r="BG71" s="15"/>
+      <c r="BH71" s="15"/>
+      <c r="BI71" s="15"/>
+      <c r="BJ71" s="25"/>
+      <c r="BK71" s="25"/>
+      <c r="BL71" s="24"/>
+      <c r="BM71" s="24"/>
+      <c r="BN71" s="24"/>
+      <c r="BO71" s="24"/>
+      <c r="BP71" s="13"/>
+      <c r="BQ71" s="13"/>
+      <c r="BR71" s="13"/>
+      <c r="BS71" s="13"/>
+      <c r="BT71" s="13"/>
+      <c r="BU71" s="13"/>
+      <c r="BV71" s="13"/>
+      <c r="BW71" s="13"/>
+      <c r="BX71" s="13"/>
+      <c r="BY71" s="13"/>
+      <c r="BZ71" s="13"/>
+      <c r="CA71" s="13"/>
+      <c r="CB71" s="13"/>
+      <c r="CC71" s="13"/>
+      <c r="CD71" s="13"/>
+      <c r="CE71" s="13"/>
+      <c r="CF71" s="16"/>
+      <c r="CG71" s="16"/>
+      <c r="CH71" s="16"/>
+      <c r="CI71" s="17"/>
+    </row>
+    <row r="72" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="24"/>
+      <c r="AT72" s="24"/>
+      <c r="AU72" s="24"/>
+      <c r="AV72" s="24"/>
+      <c r="AW72" s="24"/>
+      <c r="AX72" s="25"/>
+      <c r="AY72" s="25"/>
+      <c r="AZ72" s="25"/>
+      <c r="BA72" s="25"/>
+      <c r="BB72" s="25"/>
+      <c r="BC72" s="25"/>
+      <c r="BD72" s="25"/>
+      <c r="BE72" s="25"/>
+      <c r="BF72" s="25"/>
+      <c r="BG72" s="25"/>
+      <c r="BH72" s="25"/>
+      <c r="BI72" s="25"/>
+      <c r="BJ72" s="25"/>
+      <c r="BK72" s="25"/>
+      <c r="BL72" s="24"/>
+      <c r="BM72" s="24"/>
+      <c r="BN72" s="24"/>
+      <c r="BO72" s="24"/>
+      <c r="BP72" s="13"/>
+      <c r="BQ72" s="13"/>
+      <c r="BR72" s="13"/>
+      <c r="BS72" s="13"/>
+      <c r="BT72" s="13"/>
+      <c r="BU72" s="13"/>
+      <c r="BV72" s="13"/>
+      <c r="BW72" s="13"/>
+      <c r="BX72" s="13"/>
+      <c r="BY72" s="13"/>
+      <c r="BZ72" s="13"/>
+      <c r="CA72" s="13"/>
+      <c r="CB72" s="13"/>
+      <c r="CC72" s="13"/>
+      <c r="CD72" s="13"/>
+      <c r="CE72" s="13"/>
+      <c r="CF72" s="16"/>
+      <c r="CG72" s="16"/>
+      <c r="CH72" s="16"/>
+      <c r="CI72" s="17"/>
+    </row>
+    <row r="73" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
+      <c r="O73" s="92"/>
+      <c r="P73" s="92"/>
+      <c r="Q73" s="92"/>
+      <c r="R73" s="92"/>
+      <c r="S73" s="92"/>
+      <c r="T73" s="92"/>
+      <c r="U73" s="92"/>
+      <c r="V73" s="92"/>
+      <c r="W73" s="92"/>
+      <c r="X73" s="92"/>
+      <c r="Y73" s="92"/>
+      <c r="Z73" s="92"/>
+      <c r="AA73" s="92"/>
+      <c r="AB73" s="92"/>
+      <c r="AC73" s="92"/>
+      <c r="AD73" s="92"/>
+      <c r="AE73" s="92"/>
+      <c r="AF73" s="92"/>
+      <c r="AG73" s="92"/>
+      <c r="AH73" s="92"/>
+      <c r="AI73" s="92"/>
+      <c r="AJ73" s="92"/>
+      <c r="AK73" s="92"/>
+      <c r="AL73" s="92"/>
+      <c r="AM73" s="92"/>
+      <c r="AN73" s="92"/>
+      <c r="AO73" s="92"/>
+      <c r="AP73" s="92"/>
+      <c r="AQ73" s="92"/>
+      <c r="AR73" s="92"/>
+      <c r="AS73" s="92"/>
+      <c r="AT73" s="92"/>
+      <c r="AU73" s="92"/>
+      <c r="AV73" s="92"/>
+      <c r="AW73" s="93"/>
+      <c r="AX73" s="93"/>
+      <c r="AY73" s="93"/>
+      <c r="AZ73" s="93"/>
+      <c r="BA73" s="93"/>
+      <c r="BB73" s="93"/>
+      <c r="BC73" s="93"/>
+      <c r="BD73" s="93"/>
+      <c r="BE73" s="93"/>
+      <c r="BF73" s="93"/>
+      <c r="BG73" s="93"/>
+      <c r="BH73" s="93"/>
+      <c r="BI73" s="93"/>
+      <c r="BJ73" s="93"/>
+      <c r="BK73" s="93"/>
+      <c r="BL73" s="24"/>
+      <c r="BM73" s="24"/>
+      <c r="BN73" s="24"/>
+      <c r="BO73" s="24"/>
+      <c r="BP73" s="13"/>
+      <c r="BQ73" s="13"/>
+      <c r="BR73" s="13"/>
+      <c r="BS73" s="13"/>
+      <c r="BT73" s="13"/>
+      <c r="BU73" s="13"/>
+      <c r="BV73" s="13"/>
+      <c r="BW73" s="13"/>
+      <c r="BX73" s="13"/>
+      <c r="BY73" s="13"/>
+      <c r="BZ73" s="13"/>
+      <c r="CA73" s="13"/>
+      <c r="CB73" s="13"/>
+      <c r="CC73" s="13"/>
+      <c r="CD73" s="13"/>
+      <c r="CE73" s="13"/>
+      <c r="CF73" s="16"/>
+      <c r="CG73" s="16"/>
+      <c r="CH73" s="16"/>
+      <c r="CI73" s="17"/>
+    </row>
+    <row r="74" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="94"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="94"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="94"/>
+      <c r="U74" s="94"/>
+      <c r="V74" s="94"/>
+      <c r="W74" s="94"/>
+      <c r="X74" s="94"/>
+      <c r="Y74" s="94"/>
+      <c r="Z74" s="94"/>
+      <c r="AA74" s="94"/>
+      <c r="AB74" s="94"/>
+      <c r="AC74" s="94"/>
+      <c r="AD74" s="94"/>
+      <c r="AE74" s="94"/>
+      <c r="AF74" s="94"/>
+      <c r="AG74" s="94"/>
+      <c r="AH74" s="94"/>
+      <c r="AI74" s="94"/>
+      <c r="AJ74" s="94"/>
+      <c r="AK74" s="94"/>
+      <c r="AL74" s="94"/>
+      <c r="AM74" s="94"/>
+      <c r="AN74" s="94"/>
+      <c r="AO74" s="94"/>
+      <c r="AP74" s="94"/>
+      <c r="AQ74" s="94"/>
+      <c r="AR74" s="94"/>
+      <c r="AS74" s="94"/>
+      <c r="AT74" s="94"/>
+      <c r="AU74" s="94"/>
+      <c r="AV74" s="94"/>
+      <c r="AW74" s="93"/>
+      <c r="AX74" s="93"/>
+      <c r="AY74" s="93"/>
+      <c r="AZ74" s="93"/>
+      <c r="BA74" s="93"/>
+      <c r="BB74" s="93"/>
+      <c r="BC74" s="93"/>
+      <c r="BD74" s="93"/>
+      <c r="BE74" s="93"/>
+      <c r="BF74" s="93"/>
+      <c r="BG74" s="93"/>
+      <c r="BH74" s="93"/>
+      <c r="BI74" s="93"/>
+      <c r="BJ74" s="93"/>
+      <c r="BK74" s="93"/>
+      <c r="BL74" s="24"/>
+      <c r="BM74" s="24"/>
+      <c r="BN74" s="24"/>
+      <c r="BO74" s="24"/>
+      <c r="BP74" s="13"/>
+      <c r="BQ74" s="13"/>
+      <c r="BR74" s="13"/>
+      <c r="BS74" s="13"/>
+      <c r="BT74" s="13"/>
+      <c r="BU74" s="13"/>
+      <c r="BV74" s="13"/>
+      <c r="BW74" s="13"/>
+      <c r="BX74" s="13"/>
+      <c r="BY74" s="13"/>
+      <c r="BZ74" s="13"/>
+      <c r="CA74" s="13"/>
+      <c r="CB74" s="13"/>
+      <c r="CC74" s="13"/>
+      <c r="CD74" s="13"/>
+      <c r="CE74" s="13"/>
+      <c r="CF74" s="16"/>
+      <c r="CG74" s="16"/>
+      <c r="CH74" s="16"/>
+      <c r="CI74" s="17"/>
+    </row>
+    <row r="75" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="88"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="88"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="88"/>
+      <c r="V75" s="88"/>
+      <c r="W75" s="88"/>
+      <c r="X75" s="88"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="88"/>
+      <c r="AA75" s="88"/>
+      <c r="AB75" s="88"/>
+      <c r="AC75" s="88"/>
+      <c r="AD75" s="88"/>
+      <c r="AE75" s="88"/>
+      <c r="AF75" s="88"/>
+      <c r="AG75" s="88"/>
+      <c r="AH75" s="88"/>
+      <c r="AI75" s="88"/>
+      <c r="AJ75" s="88"/>
+      <c r="AK75" s="88"/>
+      <c r="AL75" s="88"/>
+      <c r="AM75" s="88"/>
+      <c r="AN75" s="88"/>
+      <c r="AO75" s="88"/>
+      <c r="AP75" s="88"/>
+      <c r="AQ75" s="88"/>
+      <c r="AR75" s="88"/>
+      <c r="AS75" s="88"/>
+      <c r="AT75" s="88"/>
+      <c r="AU75" s="88"/>
+      <c r="AV75" s="88"/>
+      <c r="AW75" s="89"/>
+      <c r="AX75" s="89"/>
+      <c r="AY75" s="89"/>
+      <c r="AZ75" s="89"/>
+      <c r="BA75" s="89"/>
+      <c r="BB75" s="89"/>
+      <c r="BC75" s="89"/>
+      <c r="BD75" s="89"/>
+      <c r="BE75" s="89"/>
+      <c r="BF75" s="89"/>
+      <c r="BG75" s="89"/>
+      <c r="BH75" s="89"/>
+      <c r="BI75" s="89"/>
+      <c r="BJ75" s="89"/>
+      <c r="BK75" s="89"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="24"/>
+      <c r="BO75" s="24"/>
+      <c r="BP75" s="13"/>
+      <c r="BQ75" s="13"/>
+      <c r="BR75" s="13"/>
+      <c r="BS75" s="13"/>
+      <c r="BT75" s="13"/>
+      <c r="BU75" s="13"/>
+      <c r="BV75" s="13"/>
+      <c r="BW75" s="13"/>
+      <c r="BX75" s="13"/>
+      <c r="BY75" s="13"/>
+      <c r="BZ75" s="13"/>
+      <c r="CA75" s="13"/>
+      <c r="CB75" s="13"/>
+      <c r="CC75" s="13"/>
+      <c r="CD75" s="13"/>
+      <c r="CE75" s="13"/>
+      <c r="CF75" s="16"/>
+      <c r="CG75" s="16"/>
+      <c r="CH75" s="16"/>
+      <c r="CI75" s="17"/>
+    </row>
+    <row r="76" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="13"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="24"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
+      <c r="AM76" s="24"/>
+      <c r="AN76" s="24"/>
+      <c r="AO76" s="24"/>
+      <c r="AP76" s="24"/>
+      <c r="AQ76" s="24"/>
+      <c r="AR76" s="24"/>
+      <c r="AS76" s="24"/>
+      <c r="AT76" s="24"/>
+      <c r="AU76" s="24"/>
+      <c r="AV76" s="24"/>
+      <c r="AW76" s="24"/>
+      <c r="AX76" s="25"/>
+      <c r="AY76" s="25"/>
+      <c r="AZ76" s="25"/>
+      <c r="BA76" s="25"/>
+      <c r="BB76" s="25"/>
+      <c r="BC76" s="25"/>
+      <c r="BD76" s="25"/>
+      <c r="BE76" s="25"/>
+      <c r="BF76" s="25"/>
+      <c r="BG76" s="25"/>
+      <c r="BH76" s="25"/>
+      <c r="BI76" s="25"/>
+      <c r="BJ76" s="25"/>
+      <c r="BK76" s="25"/>
+      <c r="BL76" s="24"/>
+      <c r="BM76" s="24"/>
+      <c r="BN76" s="24"/>
+      <c r="BO76" s="24"/>
+      <c r="BP76" s="13"/>
+      <c r="BQ76" s="13"/>
+      <c r="BR76" s="13"/>
+      <c r="BS76" s="13"/>
+      <c r="BT76" s="13"/>
+      <c r="BU76" s="13"/>
+      <c r="BV76" s="13"/>
+      <c r="BW76" s="13"/>
+      <c r="BX76" s="13"/>
+      <c r="BY76" s="13"/>
+      <c r="BZ76" s="13"/>
+      <c r="CA76" s="13"/>
+      <c r="CB76" s="13"/>
+      <c r="CC76" s="13"/>
+      <c r="CD76" s="13"/>
+      <c r="CE76" s="13"/>
+      <c r="CF76" s="16"/>
+      <c r="CG76" s="16"/>
+      <c r="CH76" s="16"/>
+      <c r="CI76" s="17"/>
+    </row>
+    <row r="77" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="15"/>
+      <c r="AK77" s="15"/>
+      <c r="AL77" s="15"/>
+      <c r="AM77" s="15"/>
+      <c r="AN77" s="15"/>
+      <c r="AO77" s="15"/>
+      <c r="AP77" s="15"/>
+      <c r="AQ77" s="15"/>
+      <c r="AR77" s="15"/>
+      <c r="AS77" s="15"/>
+      <c r="AT77" s="13"/>
+      <c r="AU77" s="13"/>
+      <c r="AV77" s="13"/>
+      <c r="AW77" s="13"/>
+      <c r="AX77" s="13"/>
+      <c r="AY77" s="13"/>
+      <c r="AZ77" s="13"/>
+      <c r="BA77" s="13"/>
+      <c r="BB77" s="13"/>
+      <c r="BC77" s="13"/>
+      <c r="BD77" s="13"/>
+      <c r="BE77" s="13"/>
+      <c r="BF77" s="13"/>
+      <c r="BG77" s="13"/>
+      <c r="BH77" s="13"/>
+      <c r="BI77" s="13"/>
+      <c r="BJ77" s="13"/>
+      <c r="BK77" s="13"/>
+      <c r="BL77" s="13"/>
+      <c r="BM77" s="13"/>
+      <c r="BN77" s="13"/>
+      <c r="BO77" s="13"/>
+      <c r="BP77" s="13"/>
+      <c r="BQ77" s="13"/>
+      <c r="BR77" s="13"/>
+      <c r="BS77" s="13"/>
+      <c r="BT77" s="13"/>
+      <c r="BU77" s="13"/>
+      <c r="BV77" s="13"/>
+      <c r="BW77" s="13"/>
+      <c r="BX77" s="13"/>
+      <c r="BY77" s="13"/>
+      <c r="BZ77" s="13"/>
+      <c r="CA77" s="13"/>
+      <c r="CB77" s="13"/>
+      <c r="CC77" s="13"/>
+      <c r="CD77" s="13"/>
+      <c r="CE77" s="13"/>
+      <c r="CF77" s="16"/>
+      <c r="CG77" s="16"/>
+      <c r="CH77" s="16"/>
+      <c r="CI77" s="17"/>
+    </row>
+    <row r="78" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="15"/>
+      <c r="AM78" s="15"/>
+      <c r="AN78" s="15"/>
+      <c r="AO78" s="15"/>
+      <c r="AP78" s="15"/>
+      <c r="AQ78" s="15"/>
+      <c r="AR78" s="15"/>
+      <c r="AS78" s="15"/>
+      <c r="AT78" s="15"/>
+      <c r="AU78" s="15"/>
+      <c r="AV78" s="15"/>
+      <c r="AW78" s="15"/>
+      <c r="AX78" s="15"/>
+      <c r="AY78" s="15"/>
+      <c r="AZ78" s="15"/>
+      <c r="BA78" s="15"/>
+      <c r="BB78" s="15"/>
+      <c r="BC78" s="15"/>
+      <c r="BD78" s="15"/>
+      <c r="BE78" s="15"/>
+      <c r="BF78" s="15"/>
+      <c r="BG78" s="15"/>
+      <c r="BH78" s="15"/>
+      <c r="BI78" s="15"/>
+      <c r="BJ78" s="25"/>
+      <c r="BK78" s="25"/>
+      <c r="BL78" s="24"/>
+      <c r="BM78" s="24"/>
+      <c r="BN78" s="24"/>
+      <c r="BO78" s="24"/>
+      <c r="BP78" s="13"/>
+      <c r="BQ78" s="13"/>
+      <c r="BR78" s="13"/>
+      <c r="BS78" s="13"/>
+      <c r="BT78" s="13"/>
+      <c r="BU78" s="13"/>
+      <c r="BV78" s="13"/>
+      <c r="BW78" s="13"/>
+      <c r="BX78" s="13"/>
+      <c r="BY78" s="13"/>
+      <c r="BZ78" s="13"/>
+      <c r="CA78" s="13"/>
+      <c r="CB78" s="13"/>
+      <c r="CC78" s="13"/>
+      <c r="CD78" s="13"/>
+      <c r="CE78" s="13"/>
+      <c r="CF78" s="16"/>
+      <c r="CG78" s="16"/>
+      <c r="CH78" s="16"/>
+      <c r="CI78" s="17"/>
+    </row>
+    <row r="79" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="13"/>
+      <c r="AH79" s="13"/>
+      <c r="AI79" s="13"/>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="13"/>
+      <c r="AL79" s="13"/>
+      <c r="AM79" s="13"/>
+      <c r="AN79" s="13"/>
+      <c r="AO79" s="13"/>
+      <c r="AP79" s="13"/>
+      <c r="AQ79" s="13"/>
+      <c r="AR79" s="13"/>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="13"/>
+      <c r="AU79" s="13"/>
+      <c r="AV79" s="13"/>
+      <c r="AW79" s="13"/>
+      <c r="AX79" s="13"/>
+      <c r="AY79" s="13"/>
+      <c r="AZ79" s="13"/>
+      <c r="BA79" s="13"/>
+      <c r="BB79" s="13"/>
+      <c r="BC79" s="13"/>
+      <c r="BD79" s="13"/>
+      <c r="BE79" s="13"/>
+      <c r="BF79" s="13"/>
+      <c r="BG79" s="13"/>
+      <c r="BH79" s="13"/>
+      <c r="BI79" s="13"/>
+      <c r="BJ79" s="13"/>
+      <c r="BK79" s="13"/>
+      <c r="BL79" s="13"/>
+      <c r="BM79" s="13"/>
+      <c r="BN79" s="13"/>
+      <c r="BO79" s="13"/>
+      <c r="BP79" s="13"/>
+      <c r="BQ79" s="13"/>
+      <c r="BR79" s="13"/>
+      <c r="BS79" s="13"/>
+      <c r="BT79" s="13"/>
+      <c r="BU79" s="13"/>
+      <c r="BV79" s="13"/>
+      <c r="BW79" s="13"/>
+      <c r="BX79" s="13"/>
+      <c r="BY79" s="13"/>
+      <c r="BZ79" s="13"/>
+      <c r="CA79" s="13"/>
+      <c r="CB79" s="13"/>
+      <c r="CC79" s="13"/>
+      <c r="CD79" s="13"/>
+      <c r="CE79" s="13"/>
+      <c r="CF79" s="16"/>
+      <c r="CG79" s="16"/>
+      <c r="CH79" s="16"/>
+      <c r="CI79" s="17"/>
+    </row>
+    <row r="80" spans="1:1024" x14ac:dyDescent="0.45">
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="91"/>
+      <c r="U80" s="91"/>
+      <c r="V80" s="91"/>
+      <c r="W80" s="91"/>
+      <c r="X80" s="91"/>
+      <c r="Y80" s="91"/>
+      <c r="Z80" s="91"/>
+      <c r="AA80" s="91"/>
+      <c r="AB80" s="91"/>
+      <c r="AC80" s="91"/>
+      <c r="AD80" s="91"/>
+      <c r="AE80" s="91"/>
+      <c r="AF80" s="91"/>
+      <c r="AG80" s="91"/>
+      <c r="AH80" s="91"/>
+      <c r="AI80" s="91"/>
+      <c r="AJ80" s="91"/>
+      <c r="AK80" s="91"/>
+      <c r="AL80" s="91"/>
+      <c r="AM80" s="91"/>
+      <c r="AN80" s="91"/>
+      <c r="AO80" s="91"/>
+      <c r="AP80" s="91"/>
+      <c r="AQ80" s="91"/>
+      <c r="AR80" s="91"/>
+      <c r="AS80" s="91"/>
+      <c r="AT80" s="91"/>
+      <c r="AU80" s="91"/>
+      <c r="AV80" s="91"/>
+      <c r="AW80" s="91"/>
+      <c r="AX80" s="91"/>
+      <c r="AY80" s="91"/>
+      <c r="AZ80" s="91"/>
+      <c r="BA80" s="91"/>
+      <c r="BB80" s="91"/>
+      <c r="BC80" s="91"/>
+      <c r="BD80" s="91"/>
+      <c r="BE80" s="91"/>
+      <c r="BF80" s="91"/>
+      <c r="BG80" s="91"/>
+      <c r="BH80" s="91"/>
+      <c r="BI80" s="91"/>
+      <c r="BJ80" s="91"/>
+      <c r="BK80" s="91"/>
+      <c r="BL80" s="24"/>
+      <c r="BM80" s="24"/>
+      <c r="BN80" s="24"/>
+      <c r="BO80" s="24"/>
+      <c r="BP80" s="13"/>
+      <c r="BQ80" s="13"/>
+      <c r="BR80" s="13"/>
+      <c r="BS80" s="13"/>
+      <c r="BT80" s="13"/>
+      <c r="BU80" s="13"/>
+      <c r="BV80" s="13"/>
+      <c r="BW80" s="13"/>
+      <c r="BX80" s="13"/>
+      <c r="BY80" s="13"/>
+      <c r="BZ80" s="13"/>
+      <c r="CA80" s="13"/>
+      <c r="CB80" s="13"/>
+      <c r="CC80" s="13"/>
+      <c r="CD80" s="13"/>
+      <c r="CE80" s="13"/>
+      <c r="CF80" s="16"/>
+      <c r="CG80" s="16"/>
+      <c r="CH80" s="16"/>
+      <c r="CI80" s="17"/>
+    </row>
+    <row r="81" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B81" s="12"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="42"/>
+      <c r="AL81" s="42"/>
+      <c r="AM81" s="42"/>
+      <c r="AN81" s="42"/>
+      <c r="AO81" s="42"/>
+      <c r="AP81" s="42"/>
+      <c r="AQ81" s="42"/>
+      <c r="AR81" s="42"/>
+      <c r="AS81" s="42"/>
+      <c r="AT81" s="42"/>
+      <c r="AU81" s="42"/>
+      <c r="AV81" s="42"/>
+      <c r="AW81" s="42"/>
+      <c r="AX81" s="42"/>
+      <c r="AY81" s="42"/>
+      <c r="AZ81" s="42"/>
+      <c r="BA81" s="42"/>
+      <c r="BB81" s="42"/>
+      <c r="BC81" s="42"/>
+      <c r="BD81" s="42"/>
+      <c r="BE81" s="42"/>
+      <c r="BF81" s="42"/>
+      <c r="BG81" s="42"/>
+      <c r="BH81" s="42"/>
+      <c r="BI81" s="42"/>
+      <c r="BJ81" s="42"/>
+      <c r="BK81" s="42"/>
+      <c r="BL81" s="24"/>
+      <c r="BM81" s="24"/>
+      <c r="BN81" s="24"/>
+      <c r="BO81" s="24"/>
+      <c r="BP81" s="13"/>
+      <c r="BQ81" s="13"/>
+      <c r="BR81" s="13"/>
+      <c r="BS81" s="13"/>
+      <c r="BT81" s="13"/>
+      <c r="BU81" s="13"/>
+      <c r="BV81" s="13"/>
+      <c r="BW81" s="13"/>
+      <c r="BX81" s="13"/>
+      <c r="BY81" s="13"/>
+      <c r="BZ81" s="13"/>
+      <c r="CA81" s="13"/>
+      <c r="CB81" s="13"/>
+      <c r="CC81" s="13"/>
+      <c r="CD81" s="13"/>
+      <c r="CE81" s="13"/>
+      <c r="CF81" s="30"/>
+      <c r="CG81" s="30"/>
+      <c r="CH81" s="30"/>
+      <c r="CI81" s="17"/>
+    </row>
+    <row r="82" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B82" s="12"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="42"/>
+      <c r="Z82" s="42"/>
+      <c r="AA82" s="42"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="42"/>
+      <c r="AD82" s="42"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="42"/>
+      <c r="AG82" s="42"/>
+      <c r="AH82" s="42"/>
+      <c r="AI82" s="42"/>
+      <c r="AJ82" s="42"/>
+      <c r="AK82" s="42"/>
+      <c r="AL82" s="42"/>
+      <c r="AM82" s="42"/>
+      <c r="AN82" s="42"/>
+      <c r="AO82" s="42"/>
+      <c r="AP82" s="42"/>
+      <c r="AQ82" s="42"/>
+      <c r="AR82" s="42"/>
+      <c r="AS82" s="42"/>
+      <c r="AT82" s="42"/>
+      <c r="AU82" s="42"/>
+      <c r="AV82" s="42"/>
+      <c r="AW82" s="42"/>
+      <c r="AX82" s="42"/>
+      <c r="AY82" s="42"/>
+      <c r="AZ82" s="42"/>
+      <c r="BA82" s="42"/>
+      <c r="BB82" s="42"/>
+      <c r="BC82" s="42"/>
+      <c r="BD82" s="42"/>
+      <c r="BE82" s="42"/>
+      <c r="BF82" s="42"/>
+      <c r="BG82" s="42"/>
+      <c r="BH82" s="42"/>
+      <c r="BI82" s="42"/>
+      <c r="BJ82" s="42"/>
+      <c r="BK82" s="42"/>
+      <c r="BL82" s="24"/>
+      <c r="BM82" s="24"/>
+      <c r="BN82" s="24"/>
+      <c r="BO82" s="24"/>
+      <c r="BP82" s="13"/>
+      <c r="BQ82" s="13"/>
+      <c r="BR82" s="13"/>
+      <c r="BS82" s="13"/>
+      <c r="BT82" s="13"/>
+      <c r="BU82" s="13"/>
+      <c r="BV82" s="13"/>
+      <c r="BW82" s="13"/>
+      <c r="BX82" s="13"/>
+      <c r="BY82" s="13"/>
+      <c r="BZ82" s="13"/>
+      <c r="CA82" s="13"/>
+      <c r="CB82" s="13"/>
+      <c r="CC82" s="13"/>
+      <c r="CD82" s="13"/>
+      <c r="CE82" s="13"/>
+      <c r="CF82" s="30"/>
+      <c r="CG82" s="30"/>
+      <c r="CH82" s="30"/>
+      <c r="CI82" s="17"/>
+    </row>
+    <row r="83" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B83" s="12"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="42"/>
+      <c r="AA83" s="42"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="42"/>
+      <c r="AD83" s="42"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="42"/>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="42"/>
+      <c r="AJ83" s="42"/>
+      <c r="AK83" s="42"/>
+      <c r="AL83" s="42"/>
+      <c r="AM83" s="42"/>
+      <c r="AN83" s="42"/>
+      <c r="AO83" s="42"/>
+      <c r="AP83" s="42"/>
+      <c r="AQ83" s="42"/>
+      <c r="AR83" s="42"/>
+      <c r="AS83" s="42"/>
+      <c r="AT83" s="42"/>
+      <c r="AU83" s="42"/>
+      <c r="AV83" s="42"/>
+      <c r="AW83" s="42"/>
+      <c r="AX83" s="42"/>
+      <c r="AY83" s="42"/>
+      <c r="AZ83" s="42"/>
+      <c r="BA83" s="42"/>
+      <c r="BB83" s="42"/>
+      <c r="BC83" s="42"/>
+      <c r="BD83" s="42"/>
+      <c r="BE83" s="42"/>
+      <c r="BF83" s="42"/>
+      <c r="BG83" s="42"/>
+      <c r="BH83" s="42"/>
+      <c r="BI83" s="42"/>
+      <c r="BJ83" s="42"/>
+      <c r="BK83" s="42"/>
+      <c r="BL83" s="24"/>
+      <c r="BM83" s="24"/>
+      <c r="BN83" s="24"/>
+      <c r="BO83" s="24"/>
+      <c r="BP83" s="13"/>
+      <c r="BQ83" s="13"/>
+      <c r="BR83" s="13"/>
+      <c r="BS83" s="13"/>
+      <c r="BT83" s="13"/>
+      <c r="BU83" s="13"/>
+      <c r="BV83" s="13"/>
+      <c r="BW83" s="13"/>
+      <c r="BX83" s="13"/>
+      <c r="BY83" s="13"/>
+      <c r="BZ83" s="13"/>
+      <c r="CA83" s="13"/>
+      <c r="CB83" s="13"/>
+      <c r="CC83" s="13"/>
+      <c r="CD83" s="13"/>
+      <c r="CE83" s="13"/>
+      <c r="CF83" s="30"/>
+      <c r="CG83" s="30"/>
+      <c r="CH83" s="30"/>
+      <c r="CI83" s="17"/>
+    </row>
+    <row r="84" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AQ84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BL84" s="24"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="24"/>
+      <c r="BO84" s="24"/>
+      <c r="BP84" s="13"/>
+      <c r="BQ84" s="13"/>
+      <c r="BR84" s="13"/>
+      <c r="BS84" s="13"/>
+      <c r="BT84" s="13"/>
+      <c r="BU84" s="13"/>
+      <c r="BV84" s="13"/>
+      <c r="BW84" s="13"/>
+      <c r="BX84" s="13"/>
+      <c r="BY84" s="13"/>
+      <c r="BZ84" s="13"/>
+      <c r="CA84" s="13"/>
+      <c r="CB84" s="13"/>
+      <c r="CC84" s="13"/>
+      <c r="CD84" s="13"/>
+      <c r="CE84" s="13"/>
+      <c r="CF84" s="16"/>
+      <c r="CG84" s="16"/>
+      <c r="CH84" s="16"/>
+      <c r="CI84" s="17"/>
+    </row>
+    <row r="85" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="15"/>
+      <c r="AN85" s="15"/>
+      <c r="AO85" s="15"/>
+      <c r="AP85" s="15"/>
+      <c r="AQ85" s="15"/>
+      <c r="AR85" s="15"/>
+      <c r="AS85" s="15"/>
+      <c r="AT85" s="15"/>
+      <c r="AU85" s="15"/>
+      <c r="AV85" s="15"/>
+      <c r="AW85" s="15"/>
+      <c r="AX85" s="15"/>
+      <c r="AY85" s="15"/>
+      <c r="AZ85" s="15"/>
+      <c r="BA85" s="15"/>
+      <c r="BB85" s="15"/>
+      <c r="BC85" s="15"/>
+      <c r="BD85" s="15"/>
+      <c r="BE85" s="15"/>
+      <c r="BF85" s="15"/>
+      <c r="BG85" s="15"/>
+      <c r="BH85" s="15"/>
+      <c r="BI85" s="15"/>
+      <c r="BJ85" s="25"/>
+      <c r="BK85" s="25"/>
+      <c r="BL85" s="24"/>
+      <c r="BM85" s="24"/>
+      <c r="BN85" s="24"/>
+      <c r="BO85" s="24"/>
+      <c r="BP85" s="13"/>
+      <c r="BQ85" s="13"/>
+      <c r="BR85" s="13"/>
+      <c r="BS85" s="13"/>
+      <c r="BT85" s="13"/>
+      <c r="BU85" s="13"/>
+      <c r="BV85" s="13"/>
+      <c r="BW85" s="13"/>
+      <c r="BX85" s="13"/>
+      <c r="BY85" s="13"/>
+      <c r="BZ85" s="13"/>
+      <c r="CA85" s="13"/>
+      <c r="CB85" s="13"/>
+      <c r="CC85" s="13"/>
+      <c r="CD85" s="13"/>
+      <c r="CE85" s="13"/>
+      <c r="CF85" s="16"/>
+      <c r="CG85" s="16"/>
+      <c r="CH85" s="16"/>
+      <c r="CI85" s="17"/>
+    </row>
+    <row r="86" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="7"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7"/>
+      <c r="AW86" s="7"/>
+      <c r="AX86" s="25"/>
+      <c r="AY86" s="25"/>
+      <c r="AZ86" s="25"/>
+      <c r="BA86" s="25"/>
+      <c r="BB86" s="25"/>
+      <c r="BC86" s="25"/>
+      <c r="BD86" s="25"/>
+      <c r="BE86" s="25"/>
+      <c r="BF86" s="25"/>
+      <c r="BG86" s="25"/>
+      <c r="BH86" s="25"/>
+      <c r="BI86" s="25"/>
+      <c r="BJ86" s="25"/>
+      <c r="BK86" s="25"/>
+      <c r="BL86" s="24"/>
+      <c r="BM86" s="24"/>
+      <c r="BN86" s="24"/>
+      <c r="BO86" s="24"/>
+      <c r="BP86" s="13"/>
+      <c r="BQ86" s="13"/>
+      <c r="BR86" s="13"/>
+      <c r="BS86" s="13"/>
+      <c r="BT86" s="13"/>
+      <c r="BU86" s="13"/>
+      <c r="BV86" s="13"/>
+      <c r="BW86" s="13"/>
+      <c r="BX86" s="13"/>
+      <c r="BY86" s="13"/>
+      <c r="BZ86" s="13"/>
+      <c r="CA86" s="13"/>
+      <c r="CB86" s="13"/>
+      <c r="CC86" s="13"/>
+      <c r="CD86" s="13"/>
+      <c r="CE86" s="13"/>
+      <c r="CF86" s="16"/>
+      <c r="CG86" s="16"/>
+      <c r="CH86" s="16"/>
+      <c r="CI86" s="17"/>
+    </row>
+    <row r="87" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="15"/>
+      <c r="AN87" s="15"/>
+      <c r="AO87" s="15"/>
+      <c r="AP87" s="15"/>
+      <c r="AQ87" s="15"/>
+      <c r="AR87" s="15"/>
+      <c r="AS87" s="15"/>
+      <c r="AT87" s="13"/>
+      <c r="AU87" s="13"/>
+      <c r="AV87" s="13"/>
+      <c r="AW87" s="13"/>
+      <c r="AX87" s="13"/>
+      <c r="AY87" s="13"/>
+      <c r="AZ87" s="13"/>
+      <c r="BA87" s="13"/>
+      <c r="BB87" s="13"/>
+      <c r="BC87" s="13"/>
+      <c r="BD87" s="13"/>
+      <c r="BE87" s="13"/>
+      <c r="BF87" s="13"/>
+      <c r="BG87" s="13"/>
+      <c r="BH87" s="13"/>
+      <c r="BI87" s="13"/>
+      <c r="BJ87" s="13"/>
+      <c r="BK87" s="13"/>
+      <c r="BL87" s="13"/>
+      <c r="BM87" s="13"/>
+      <c r="BN87" s="13"/>
+      <c r="BO87" s="13"/>
+      <c r="BP87" s="13"/>
+      <c r="BQ87" s="13"/>
+      <c r="BR87" s="13"/>
+      <c r="BS87" s="13"/>
+      <c r="BT87" s="13"/>
+      <c r="BU87" s="13"/>
+      <c r="BV87" s="13"/>
+      <c r="BW87" s="13"/>
+      <c r="BX87" s="13"/>
+      <c r="BY87" s="13"/>
+      <c r="BZ87" s="13"/>
+      <c r="CA87" s="13"/>
+      <c r="CB87" s="13"/>
+      <c r="CC87" s="13"/>
+      <c r="CD87" s="13"/>
+      <c r="CE87" s="13"/>
+      <c r="CF87" s="16"/>
+      <c r="CG87" s="16"/>
+      <c r="CH87" s="16"/>
+      <c r="CI87" s="17"/>
+    </row>
+    <row r="88" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="15"/>
+      <c r="AN88" s="15"/>
+      <c r="AO88" s="15"/>
+      <c r="AP88" s="15"/>
+      <c r="AQ88" s="15"/>
+      <c r="AR88" s="15"/>
+      <c r="AS88" s="15"/>
+      <c r="AT88" s="15"/>
+      <c r="AU88" s="15"/>
+      <c r="AV88" s="15"/>
+      <c r="AW88" s="15"/>
+      <c r="AX88" s="15"/>
+      <c r="AY88" s="15"/>
+      <c r="AZ88" s="15"/>
+      <c r="BA88" s="15"/>
+      <c r="BB88" s="15"/>
+      <c r="BC88" s="15"/>
+      <c r="BD88" s="15"/>
+      <c r="BE88" s="15"/>
+      <c r="BF88" s="15"/>
+      <c r="BG88" s="15"/>
+      <c r="BH88" s="15"/>
+      <c r="BI88" s="15"/>
+      <c r="BJ88" s="25"/>
+      <c r="BK88" s="25"/>
+      <c r="BL88" s="24"/>
+      <c r="BM88" s="24"/>
+      <c r="BN88" s="24"/>
+      <c r="BO88" s="24"/>
+      <c r="BP88" s="13"/>
+      <c r="BQ88" s="13"/>
+      <c r="BR88" s="13"/>
+      <c r="BS88" s="13"/>
+      <c r="BT88" s="13"/>
+      <c r="BU88" s="13"/>
+      <c r="BV88" s="13"/>
+      <c r="BW88" s="13"/>
+      <c r="BX88" s="13"/>
+      <c r="BY88" s="13"/>
+      <c r="BZ88" s="13"/>
+      <c r="CA88" s="13"/>
+      <c r="CB88" s="13"/>
+      <c r="CC88" s="13"/>
+      <c r="CD88" s="13"/>
+      <c r="CE88" s="13"/>
+      <c r="CF88" s="16"/>
+      <c r="CG88" s="16"/>
+      <c r="CH88" s="16"/>
+      <c r="CI88" s="17"/>
+    </row>
+    <row r="89" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="24"/>
+      <c r="AI89" s="24"/>
+      <c r="AJ89" s="24"/>
+      <c r="AK89" s="24"/>
+      <c r="AL89" s="24"/>
+      <c r="AM89" s="24"/>
+      <c r="AN89" s="24"/>
+      <c r="AO89" s="24"/>
+      <c r="AP89" s="24"/>
+      <c r="AQ89" s="24"/>
+      <c r="AR89" s="24"/>
+      <c r="AS89" s="24"/>
+      <c r="AT89" s="24"/>
+      <c r="AU89" s="24"/>
+      <c r="AV89" s="24"/>
+      <c r="AW89" s="24"/>
+      <c r="AX89" s="25"/>
+      <c r="AY89" s="25"/>
+      <c r="AZ89" s="25"/>
+      <c r="BA89" s="25"/>
+      <c r="BB89" s="25"/>
+      <c r="BC89" s="25"/>
+      <c r="BD89" s="25"/>
+      <c r="BE89" s="25"/>
+      <c r="BF89" s="25"/>
+      <c r="BG89" s="25"/>
+      <c r="BH89" s="25"/>
+      <c r="BI89" s="25"/>
+      <c r="BJ89" s="25"/>
+      <c r="BK89" s="25"/>
+      <c r="BL89" s="24"/>
+      <c r="BM89" s="24"/>
+      <c r="BN89" s="24"/>
+      <c r="BO89" s="24"/>
+      <c r="BP89" s="13"/>
+      <c r="BQ89" s="13"/>
+      <c r="BR89" s="13"/>
+      <c r="BS89" s="13"/>
+      <c r="BT89" s="13"/>
+      <c r="BU89" s="13"/>
+      <c r="BV89" s="13"/>
+      <c r="BW89" s="13"/>
+      <c r="BX89" s="13"/>
+      <c r="BY89" s="13"/>
+      <c r="BZ89" s="13"/>
+      <c r="CA89" s="13"/>
+      <c r="CB89" s="13"/>
+      <c r="CC89" s="13"/>
+      <c r="CD89" s="13"/>
+      <c r="CE89" s="13"/>
+      <c r="CF89" s="16"/>
+      <c r="CG89" s="16"/>
+      <c r="CH89" s="16"/>
+      <c r="CI89" s="17"/>
+    </row>
+    <row r="90" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="32"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="32"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="32"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="32"/>
+      <c r="AE90" s="32"/>
+      <c r="AF90" s="32"/>
+      <c r="AG90" s="32"/>
+      <c r="AH90" s="32"/>
+      <c r="AI90" s="32"/>
+      <c r="AJ90" s="32"/>
+      <c r="AK90" s="32"/>
+      <c r="AL90" s="32"/>
+      <c r="AM90" s="32"/>
+      <c r="AN90" s="32"/>
+      <c r="AO90" s="32"/>
+      <c r="AP90" s="32"/>
+      <c r="AQ90" s="32"/>
+      <c r="AR90" s="32"/>
+      <c r="AS90" s="32"/>
+      <c r="AT90" s="32"/>
+      <c r="AU90" s="32"/>
+      <c r="AV90" s="32"/>
+      <c r="AW90" s="32"/>
+      <c r="AX90" s="32"/>
+      <c r="AY90" s="32"/>
+      <c r="AZ90" s="32"/>
+      <c r="BA90" s="32"/>
+      <c r="BB90" s="32"/>
+      <c r="BC90" s="32"/>
+      <c r="BD90" s="32"/>
+      <c r="BE90" s="32"/>
+      <c r="BF90" s="32"/>
+      <c r="BG90" s="32"/>
+      <c r="BH90" s="32"/>
+      <c r="BI90" s="32"/>
+      <c r="BJ90" s="32"/>
+      <c r="BK90" s="32"/>
+      <c r="BL90" s="24"/>
+      <c r="BM90" s="24"/>
+      <c r="BN90" s="24"/>
+      <c r="BO90" s="24"/>
+      <c r="BP90" s="13"/>
+      <c r="BQ90" s="13"/>
+      <c r="BR90" s="13"/>
+      <c r="BS90" s="13"/>
+      <c r="BT90" s="13"/>
+      <c r="BU90" s="13"/>
+      <c r="BV90" s="13"/>
+      <c r="BW90" s="13"/>
+      <c r="BX90" s="13"/>
+      <c r="BY90" s="13"/>
+      <c r="BZ90" s="13"/>
+      <c r="CA90" s="13"/>
+      <c r="CB90" s="13"/>
+      <c r="CC90" s="13"/>
+      <c r="CD90" s="13"/>
+      <c r="CE90" s="13"/>
+      <c r="CF90" s="16"/>
+      <c r="CG90" s="16"/>
+      <c r="CH90" s="16"/>
+      <c r="CI90" s="17"/>
+    </row>
+    <row r="91" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B91" s="12"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="31"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+      <c r="V91" s="31"/>
+      <c r="W91" s="31"/>
+      <c r="X91" s="31"/>
+      <c r="Y91" s="31"/>
+      <c r="Z91" s="31"/>
+      <c r="AA91" s="31"/>
+      <c r="AB91" s="31"/>
+      <c r="AC91" s="31"/>
+      <c r="AD91" s="31"/>
+      <c r="AE91" s="31"/>
+      <c r="AF91" s="31"/>
+      <c r="AG91" s="31"/>
+      <c r="AH91" s="31"/>
+      <c r="AI91" s="31"/>
+      <c r="AJ91" s="31"/>
+      <c r="AK91" s="31"/>
+      <c r="AL91" s="31"/>
+      <c r="AM91" s="31"/>
+      <c r="AN91" s="31"/>
+      <c r="AO91" s="31"/>
+      <c r="AP91" s="31"/>
+      <c r="AQ91" s="31"/>
+      <c r="AR91" s="31"/>
+      <c r="AS91" s="31"/>
+      <c r="AT91" s="31"/>
+      <c r="AU91" s="31"/>
+      <c r="AV91" s="31"/>
+      <c r="AW91" s="31"/>
+      <c r="AX91" s="31"/>
+      <c r="AY91" s="31"/>
+      <c r="AZ91" s="31"/>
+      <c r="BA91" s="31"/>
+      <c r="BB91" s="31"/>
+      <c r="BC91" s="31"/>
+      <c r="BD91" s="31"/>
+      <c r="BE91" s="31"/>
+      <c r="BF91" s="31"/>
+      <c r="BG91" s="31"/>
+      <c r="BH91" s="31"/>
+      <c r="BI91" s="31"/>
+      <c r="BJ91" s="31"/>
+      <c r="BK91" s="31"/>
+      <c r="BL91" s="24"/>
+      <c r="BM91" s="24"/>
+      <c r="BN91" s="24"/>
+      <c r="BO91" s="24"/>
+      <c r="BP91" s="13"/>
+      <c r="BQ91" s="13"/>
+      <c r="BR91" s="13"/>
+      <c r="BS91" s="13"/>
+      <c r="BT91" s="13"/>
+      <c r="BU91" s="13"/>
+      <c r="BV91" s="13"/>
+      <c r="BW91" s="13"/>
+      <c r="BX91" s="13"/>
+      <c r="BY91" s="13"/>
+      <c r="BZ91" s="13"/>
+      <c r="CA91" s="13"/>
+      <c r="CB91" s="13"/>
+      <c r="CC91" s="13"/>
+      <c r="CD91" s="13"/>
+      <c r="CE91" s="13"/>
+      <c r="CF91" s="30"/>
+      <c r="CG91" s="30"/>
+      <c r="CH91" s="30"/>
+      <c r="CI91" s="17"/>
+    </row>
+    <row r="92" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B92" s="12"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+      <c r="V92" s="31"/>
+      <c r="W92" s="31"/>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="Z92" s="31"/>
+      <c r="AA92" s="31"/>
+      <c r="AB92" s="31"/>
+      <c r="AC92" s="31"/>
+      <c r="AD92" s="31"/>
+      <c r="AE92" s="31"/>
+      <c r="AF92" s="31"/>
+      <c r="AG92" s="31"/>
+      <c r="AH92" s="31"/>
+      <c r="AI92" s="31"/>
+      <c r="AJ92" s="31"/>
+      <c r="AK92" s="31"/>
+      <c r="AL92" s="31"/>
+      <c r="AM92" s="31"/>
+      <c r="AN92" s="31"/>
+      <c r="AO92" s="31"/>
+      <c r="AP92" s="31"/>
+      <c r="AQ92" s="31"/>
+      <c r="AR92" s="31"/>
+      <c r="AS92" s="31"/>
+      <c r="AT92" s="31"/>
+      <c r="AU92" s="31"/>
+      <c r="AV92" s="31"/>
+      <c r="AW92" s="31"/>
+      <c r="AX92" s="31"/>
+      <c r="AY92" s="31"/>
+      <c r="AZ92" s="31"/>
+      <c r="BA92" s="31"/>
+      <c r="BB92" s="31"/>
+      <c r="BC92" s="31"/>
+      <c r="BD92" s="31"/>
+      <c r="BE92" s="31"/>
+      <c r="BF92" s="31"/>
+      <c r="BG92" s="31"/>
+      <c r="BH92" s="31"/>
+      <c r="BI92" s="31"/>
+      <c r="BJ92" s="31"/>
+      <c r="BK92" s="31"/>
+      <c r="BL92" s="24"/>
+      <c r="BM92" s="24"/>
+      <c r="BN92" s="24"/>
+      <c r="BO92" s="24"/>
+      <c r="BP92" s="13"/>
+      <c r="BQ92" s="13"/>
+      <c r="BR92" s="13"/>
+      <c r="BS92" s="13"/>
+      <c r="BT92" s="13"/>
+      <c r="BU92" s="13"/>
+      <c r="BV92" s="13"/>
+      <c r="BW92" s="13"/>
+      <c r="BX92" s="13"/>
+      <c r="BY92" s="13"/>
+      <c r="BZ92" s="13"/>
+      <c r="CA92" s="13"/>
+      <c r="CB92" s="13"/>
+      <c r="CC92" s="13"/>
+      <c r="CD92" s="13"/>
+      <c r="CE92" s="13"/>
+      <c r="CF92" s="30"/>
+      <c r="CG92" s="30"/>
+      <c r="CH92" s="30"/>
+      <c r="CI92" s="17"/>
+    </row>
+    <row r="93" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B93" s="12"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="31"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="31"/>
+      <c r="T93" s="31"/>
+      <c r="U93" s="31"/>
+      <c r="V93" s="31"/>
+      <c r="W93" s="31"/>
+      <c r="X93" s="31"/>
+      <c r="Y93" s="31"/>
+      <c r="Z93" s="31"/>
+      <c r="AA93" s="31"/>
+      <c r="AB93" s="31"/>
+      <c r="AC93" s="31"/>
+      <c r="AD93" s="31"/>
+      <c r="AE93" s="31"/>
+      <c r="AF93" s="31"/>
+      <c r="AG93" s="31"/>
+      <c r="AH93" s="31"/>
+      <c r="AI93" s="31"/>
+      <c r="AJ93" s="31"/>
+      <c r="AK93" s="31"/>
+      <c r="AL93" s="31"/>
+      <c r="AM93" s="31"/>
+      <c r="AN93" s="31"/>
+      <c r="AO93" s="31"/>
+      <c r="AP93" s="31"/>
+      <c r="AQ93" s="31"/>
+      <c r="AR93" s="31"/>
+      <c r="AS93" s="31"/>
+      <c r="AT93" s="31"/>
+      <c r="AU93" s="31"/>
+      <c r="AV93" s="31"/>
+      <c r="AW93" s="31"/>
+      <c r="AX93" s="31"/>
+      <c r="AY93" s="31"/>
+      <c r="AZ93" s="31"/>
+      <c r="BA93" s="31"/>
+      <c r="BB93" s="31"/>
+      <c r="BC93" s="31"/>
+      <c r="BD93" s="31"/>
+      <c r="BE93" s="31"/>
+      <c r="BF93" s="31"/>
+      <c r="BG93" s="31"/>
+      <c r="BH93" s="31"/>
+      <c r="BI93" s="31"/>
+      <c r="BJ93" s="31"/>
+      <c r="BK93" s="31"/>
+      <c r="BL93" s="24"/>
+      <c r="BM93" s="24"/>
+      <c r="BN93" s="24"/>
+      <c r="BO93" s="24"/>
+      <c r="BP93" s="13"/>
+      <c r="BQ93" s="13"/>
+      <c r="BR93" s="13"/>
+      <c r="BS93" s="13"/>
+      <c r="BT93" s="13"/>
+      <c r="BU93" s="13"/>
+      <c r="BV93" s="13"/>
+      <c r="BW93" s="13"/>
+      <c r="BX93" s="13"/>
+      <c r="BY93" s="13"/>
+      <c r="BZ93" s="13"/>
+      <c r="CA93" s="13"/>
+      <c r="CB93" s="13"/>
+      <c r="CC93" s="13"/>
+      <c r="CD93" s="13"/>
+      <c r="CE93" s="13"/>
+      <c r="CF93" s="30"/>
+      <c r="CG93" s="30"/>
+      <c r="CH93" s="30"/>
+      <c r="CI93" s="17"/>
+    </row>
+    <row r="94" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="54"/>
+      <c r="O94" s="54"/>
+      <c r="P94" s="54"/>
+      <c r="Q94" s="54"/>
+      <c r="R94" s="54"/>
+      <c r="S94" s="54"/>
+      <c r="T94" s="54"/>
+      <c r="U94" s="54"/>
+      <c r="V94" s="54"/>
+      <c r="W94" s="54"/>
+      <c r="X94" s="54"/>
+      <c r="Y94" s="54"/>
+      <c r="Z94" s="53"/>
+      <c r="AA94" s="53"/>
+      <c r="AB94" s="53"/>
+      <c r="AC94" s="53"/>
+      <c r="AD94" s="53"/>
+      <c r="AE94" s="53"/>
+      <c r="AF94" s="53"/>
+      <c r="AG94" s="53"/>
+      <c r="AH94" s="53"/>
+      <c r="AI94" s="53"/>
+      <c r="AJ94" s="53"/>
+      <c r="AK94" s="53"/>
+      <c r="AL94" s="53"/>
+      <c r="AM94" s="53"/>
+      <c r="AN94" s="53"/>
+      <c r="AO94" s="53"/>
+      <c r="AP94" s="53"/>
+      <c r="AQ94" s="53"/>
+      <c r="AR94" s="53"/>
+      <c r="AS94" s="53"/>
+      <c r="AT94" s="53"/>
+      <c r="AU94" s="53"/>
+      <c r="AV94" s="53"/>
+      <c r="AW94" s="53"/>
+      <c r="AX94" s="53"/>
+      <c r="AY94" s="53"/>
+      <c r="AZ94" s="53"/>
+      <c r="BA94" s="53"/>
+      <c r="BB94" s="53"/>
+      <c r="BC94" s="53"/>
+      <c r="BD94" s="53"/>
+      <c r="BE94" s="53"/>
+      <c r="BF94" s="53"/>
+      <c r="BG94" s="53"/>
+      <c r="BH94" s="53"/>
+      <c r="BI94" s="53"/>
+      <c r="BJ94" s="53"/>
+      <c r="BK94" s="53"/>
+      <c r="BL94" s="24"/>
+      <c r="BM94" s="24"/>
+      <c r="BN94" s="24"/>
+      <c r="BO94" s="24"/>
+      <c r="BP94" s="13"/>
+      <c r="BQ94" s="13"/>
+      <c r="BR94" s="13"/>
+      <c r="BS94" s="13"/>
+      <c r="BT94" s="13"/>
+      <c r="BU94" s="13"/>
+      <c r="BV94" s="13"/>
+      <c r="BW94" s="13"/>
+      <c r="BX94" s="13"/>
+      <c r="BY94" s="13"/>
+      <c r="BZ94" s="13"/>
+      <c r="CA94" s="13"/>
+      <c r="CB94" s="13"/>
+      <c r="CC94" s="13"/>
+      <c r="CD94" s="13"/>
+      <c r="CE94" s="13"/>
+      <c r="CF94" s="16"/>
+      <c r="CG94" s="16"/>
+      <c r="CH94" s="16"/>
+      <c r="CI94" s="17"/>
+    </row>
+    <row r="95" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
+      <c r="V95" s="54"/>
+      <c r="W95" s="54"/>
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
+      <c r="Z95" s="53"/>
+      <c r="AA95" s="53"/>
+      <c r="AB95" s="53"/>
+      <c r="AC95" s="53"/>
+      <c r="AD95" s="53"/>
+      <c r="AE95" s="53"/>
+      <c r="AF95" s="53"/>
+      <c r="AG95" s="53"/>
+      <c r="AH95" s="53"/>
+      <c r="AI95" s="53"/>
+      <c r="AJ95" s="53"/>
+      <c r="AK95" s="53"/>
+      <c r="AL95" s="53"/>
+      <c r="AM95" s="53"/>
+      <c r="AN95" s="53"/>
+      <c r="AO95" s="53"/>
+      <c r="AP95" s="53"/>
+      <c r="AQ95" s="53"/>
+      <c r="AR95" s="53"/>
+      <c r="AS95" s="53"/>
+      <c r="AT95" s="53"/>
+      <c r="AU95" s="53"/>
+      <c r="AV95" s="53"/>
+      <c r="AW95" s="53"/>
+      <c r="AX95" s="53"/>
+      <c r="AY95" s="53"/>
+      <c r="AZ95" s="53"/>
+      <c r="BA95" s="53"/>
+      <c r="BB95" s="53"/>
+      <c r="BC95" s="53"/>
+      <c r="BD95" s="53"/>
+      <c r="BE95" s="53"/>
+      <c r="BF95" s="53"/>
+      <c r="BG95" s="53"/>
+      <c r="BH95" s="53"/>
+      <c r="BI95" s="53"/>
+      <c r="BJ95" s="53"/>
+      <c r="BK95" s="53"/>
+      <c r="BL95" s="24"/>
+      <c r="BM95" s="24"/>
+      <c r="BN95" s="24"/>
+      <c r="BO95" s="24"/>
+      <c r="BP95" s="13"/>
+      <c r="BQ95" s="13"/>
+      <c r="BR95" s="13"/>
+      <c r="BS95" s="13"/>
+      <c r="BT95" s="13"/>
+      <c r="BU95" s="13"/>
+      <c r="BV95" s="13"/>
+      <c r="BW95" s="13"/>
+      <c r="BX95" s="13"/>
+      <c r="BY95" s="13"/>
+      <c r="BZ95" s="13"/>
+      <c r="CA95" s="13"/>
+      <c r="CB95" s="13"/>
+      <c r="CC95" s="13"/>
+      <c r="CD95" s="13"/>
+      <c r="CE95" s="13"/>
+      <c r="CF95" s="16"/>
+      <c r="CG95" s="16"/>
+      <c r="CH95" s="16"/>
+      <c r="CI95" s="17"/>
+    </row>
+    <row r="96" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="54"/>
+      <c r="Q96" s="54"/>
+      <c r="R96" s="54"/>
+      <c r="S96" s="54"/>
+      <c r="T96" s="54"/>
+      <c r="U96" s="54"/>
+      <c r="V96" s="54"/>
+      <c r="W96" s="54"/>
+      <c r="X96" s="54"/>
+      <c r="Y96" s="54"/>
+      <c r="Z96" s="13"/>
+      <c r="AA96" s="13"/>
+      <c r="AB96" s="13"/>
+      <c r="AC96" s="13"/>
+      <c r="AD96" s="13"/>
+      <c r="AE96" s="13"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="24"/>
+      <c r="AI96" s="24"/>
+      <c r="AJ96" s="24"/>
+      <c r="AK96" s="24"/>
+      <c r="AL96" s="24"/>
+      <c r="AM96" s="24"/>
+      <c r="AN96" s="24"/>
+      <c r="AO96" s="24"/>
+      <c r="AP96" s="24"/>
+      <c r="AQ96" s="24"/>
+      <c r="AR96" s="24"/>
+      <c r="AS96" s="24"/>
+      <c r="AT96" s="24"/>
+      <c r="AU96" s="24"/>
+      <c r="AV96" s="24"/>
+      <c r="AW96" s="24"/>
+      <c r="AX96" s="25"/>
+      <c r="AY96" s="25"/>
+      <c r="AZ96" s="25"/>
+      <c r="BA96" s="25"/>
+      <c r="BB96" s="25"/>
+      <c r="BC96" s="25"/>
+      <c r="BD96" s="25"/>
+      <c r="BE96" s="25"/>
+      <c r="BF96" s="25"/>
+      <c r="BG96" s="25"/>
+      <c r="BH96" s="25"/>
+      <c r="BI96" s="25"/>
+      <c r="BJ96" s="25"/>
+      <c r="BK96" s="25"/>
+      <c r="BL96" s="24"/>
+      <c r="BM96" s="24"/>
+      <c r="BN96" s="24"/>
+      <c r="BO96" s="24"/>
+      <c r="BP96" s="13"/>
+      <c r="BQ96" s="13"/>
+      <c r="BR96" s="13"/>
+      <c r="BS96" s="13"/>
+      <c r="BT96" s="13"/>
+      <c r="BU96" s="13"/>
+      <c r="BV96" s="13"/>
+      <c r="BW96" s="13"/>
+      <c r="BX96" s="13"/>
+      <c r="BY96" s="13"/>
+      <c r="BZ96" s="13"/>
+      <c r="CA96" s="13"/>
+      <c r="CB96" s="13"/>
+      <c r="CC96" s="13"/>
+      <c r="CD96" s="13"/>
+      <c r="CE96" s="13"/>
+      <c r="CF96" s="16"/>
+      <c r="CG96" s="16"/>
+      <c r="CH96" s="16"/>
+      <c r="CI96" s="17"/>
+    </row>
+    <row r="97" spans="2:87" x14ac:dyDescent="0.45">
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="15"/>
+      <c r="T97" s="15"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="15"/>
+      <c r="AA97" s="15"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="8"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="8"/>
+      <c r="AW97" s="8"/>
+      <c r="AX97" s="25"/>
+      <c r="AY97" s="25"/>
+      <c r="AZ97" s="25"/>
+      <c r="BA97" s="25"/>
+      <c r="BB97" s="25"/>
+      <c r="BC97" s="25"/>
+      <c r="BD97" s="25"/>
+      <c r="BE97" s="25"/>
+      <c r="BF97" s="25"/>
+      <c r="BG97" s="25"/>
+      <c r="BH97" s="25"/>
+      <c r="BI97" s="25"/>
+      <c r="BJ97" s="25"/>
+      <c r="BK97" s="25"/>
+      <c r="BL97" s="24"/>
+      <c r="BM97" s="24"/>
+      <c r="BN97" s="24"/>
+      <c r="BO97" s="24"/>
+      <c r="BP97" s="13"/>
+      <c r="BQ97" s="13"/>
+      <c r="BR97" s="13"/>
+      <c r="BS97" s="13"/>
+      <c r="BT97" s="13"/>
+      <c r="BU97" s="13"/>
+      <c r="BV97" s="13"/>
+      <c r="BW97" s="13"/>
+      <c r="BX97" s="13"/>
+      <c r="BY97" s="13"/>
+      <c r="BZ97" s="13"/>
+      <c r="CA97" s="13"/>
+      <c r="CB97" s="13"/>
+      <c r="CC97" s="13"/>
+      <c r="CD97" s="13"/>
+      <c r="CE97" s="13"/>
+      <c r="CF97" s="16"/>
+      <c r="CG97" s="16"/>
+      <c r="CH97" s="16"/>
+      <c r="CI97" s="17"/>
+    </row>
+    <row r="98" spans="2:87" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
+      <c r="AG98" s="19"/>
+      <c r="AH98" s="19"/>
+      <c r="AI98" s="19"/>
+      <c r="AJ98" s="19"/>
+      <c r="AK98" s="19"/>
+      <c r="AL98" s="19"/>
+      <c r="AM98" s="19"/>
+      <c r="AN98" s="19"/>
+      <c r="AO98" s="19"/>
+      <c r="AP98" s="19"/>
+      <c r="AQ98" s="19"/>
+      <c r="AR98" s="19"/>
+      <c r="AS98" s="19"/>
+      <c r="AT98" s="19"/>
+      <c r="AU98" s="19"/>
+      <c r="AV98" s="19"/>
+      <c r="AW98" s="19"/>
+      <c r="AX98" s="19"/>
+      <c r="AY98" s="19"/>
+      <c r="AZ98" s="19"/>
+      <c r="BA98" s="19"/>
+      <c r="BB98" s="19"/>
+      <c r="BC98" s="19"/>
+      <c r="BD98" s="19"/>
+      <c r="BE98" s="19"/>
+      <c r="BF98" s="19"/>
+      <c r="BG98" s="19"/>
+      <c r="BH98" s="19"/>
+      <c r="BI98" s="19"/>
+      <c r="BJ98" s="19"/>
+      <c r="BK98" s="19"/>
+      <c r="BL98" s="19"/>
+      <c r="BM98" s="19"/>
+      <c r="BN98" s="19"/>
+      <c r="BO98" s="19"/>
+      <c r="BP98" s="19"/>
+      <c r="BQ98" s="19"/>
+      <c r="BR98" s="21"/>
+      <c r="BS98" s="21"/>
+      <c r="BT98" s="21"/>
+      <c r="BU98" s="21"/>
+      <c r="BV98" s="21"/>
+      <c r="BW98" s="21"/>
+      <c r="BX98" s="21"/>
+      <c r="BY98" s="21"/>
+      <c r="BZ98" s="21"/>
+      <c r="CA98" s="21"/>
+      <c r="CB98" s="21"/>
+      <c r="CC98" s="21"/>
+      <c r="CD98" s="21"/>
+      <c r="CE98" s="21"/>
+      <c r="CF98" s="21"/>
+      <c r="CG98" s="21"/>
+      <c r="CH98" s="21"/>
+      <c r="CI98" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:X61"/>
-    <mergeCell ref="Y61:BK61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:X62"/>
-    <mergeCell ref="Y62:BK62"/>
-    <mergeCell ref="G57:BK57"/>
-    <mergeCell ref="G58:BK60"/>
-    <mergeCell ref="Y20:BK20"/>
-    <mergeCell ref="Y21:BK21"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y26:BK26"/>
-    <mergeCell ref="Y27:BK27"/>
+  <mergeCells count="115">
+    <mergeCell ref="G81:BK83"/>
+    <mergeCell ref="G94:Y96"/>
+    <mergeCell ref="Z94:BK95"/>
+    <mergeCell ref="G75:P75"/>
+    <mergeCell ref="Q75:Z75"/>
+    <mergeCell ref="AA75:AK75"/>
+    <mergeCell ref="AL75:BK75"/>
+    <mergeCell ref="G80:BK80"/>
+    <mergeCell ref="G73:P73"/>
+    <mergeCell ref="Q73:Z73"/>
+    <mergeCell ref="AA73:AK73"/>
+    <mergeCell ref="AL73:BK73"/>
+    <mergeCell ref="G74:P74"/>
+    <mergeCell ref="Q74:Z74"/>
+    <mergeCell ref="AA74:AK74"/>
+    <mergeCell ref="AL74:BK74"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AH15"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:AH68"/>
+    <mergeCell ref="AI68:AR68"/>
+    <mergeCell ref="AS68:CI68"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:X67"/>
+    <mergeCell ref="Y67:AH67"/>
+    <mergeCell ref="AI67:AR67"/>
+    <mergeCell ref="AS67:CI67"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AH16"/>
+    <mergeCell ref="AI16:AR16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:X34"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:X22"/>
     <mergeCell ref="Y28:BK28"/>
     <mergeCell ref="Y29:BK29"/>
-    <mergeCell ref="G47:BK47"/>
-    <mergeCell ref="G48:BK50"/>
-    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:X28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="AI35:AR35"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="AS34:CI34"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="Y34:AH34"/>
+    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:X21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="G40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AK40"/>
-    <mergeCell ref="Y34:AH34"/>
-    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="AI15:AR15"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -58387,17 +61279,26 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="E7:X7"/>
     <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS34:CI34"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:BK20"/>
+    <mergeCell ref="Y21:BK21"/>
+    <mergeCell ref="Y22:BK22"/>
+    <mergeCell ref="Y26:BK26"/>
+    <mergeCell ref="Y27:BK27"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="G47:BK47"/>
+    <mergeCell ref="G48:BK50"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="G40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="AA40:AK40"/>
+    <mergeCell ref="Z61:BK62"/>
+    <mergeCell ref="G61:Y63"/>
     <mergeCell ref="AL40:BK40"/>
     <mergeCell ref="E35:X35"/>
     <mergeCell ref="AS35:CI35"/>
@@ -58409,37 +61310,7 @@
     <mergeCell ref="AA41:AK41"/>
     <mergeCell ref="AL41:BK41"/>
     <mergeCell ref="AL42:BK42"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:X34"/>
     <mergeCell ref="Y35:AH35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="AI35:AR35"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AH16"/>
-    <mergeCell ref="AI16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="AI15:AR15"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:X28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_ログイン.xlsx
+++ b/内部設計書/内部設計書_2_1_ログイン.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\研修\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C3F4C-1046-4934-900D-2DF30B81DC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -450,11 +444,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1174,6 +1168,54 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1183,91 +1225,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,17 +1264,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,20 +1321,89 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1369,74 +1426,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1774,128 +1768,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:X30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="6"/>
-    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="6"/>
+    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="98" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="98"/>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="98"/>
-      <c r="BH1" s="98"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="99" t="s">
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="99"/>
-      <c r="BN1" s="99"/>
-      <c r="BO1" s="99"/>
-      <c r="BP1" s="100" t="s">
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="97"/>
+      <c r="BO1" s="97"/>
+      <c r="BP1" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="BQ1" s="100"/>
-      <c r="BR1" s="100"/>
-      <c r="BS1" s="100"/>
-      <c r="BT1" s="100"/>
-      <c r="BU1" s="100"/>
-      <c r="BV1" s="100"/>
-      <c r="BW1" s="100"/>
-      <c r="BX1" s="101" t="s">
+      <c r="BQ1" s="98"/>
+      <c r="BR1" s="98"/>
+      <c r="BS1" s="98"/>
+      <c r="BT1" s="98"/>
+      <c r="BU1" s="98"/>
+      <c r="BV1" s="98"/>
+      <c r="BW1" s="98"/>
+      <c r="BX1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="101"/>
-      <c r="BZ1" s="101"/>
-      <c r="CA1" s="101"/>
-      <c r="CB1" s="88"/>
-      <c r="CC1" s="88"/>
-      <c r="CD1" s="88"/>
-      <c r="CE1" s="88"/>
-      <c r="CF1" s="88"/>
-      <c r="CG1" s="88"/>
-      <c r="CH1" s="88"/>
-      <c r="CI1" s="88"/>
+      <c r="BY1" s="99"/>
+      <c r="BZ1" s="99"/>
+      <c r="CA1" s="99"/>
+      <c r="CB1" s="86"/>
+      <c r="CC1" s="86"/>
+      <c r="CD1" s="86"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
+      <c r="CG1" s="86"/>
+      <c r="CH1" s="86"/>
+      <c r="CI1" s="86"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2835,106 +2829,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="91" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="91"/>
-      <c r="BA2" s="91"/>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="91"/>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="91"/>
-      <c r="BG2" s="91"/>
-      <c r="BH2" s="91"/>
-      <c r="BI2" s="91"/>
-      <c r="BJ2" s="91"/>
-      <c r="BK2" s="91"/>
-      <c r="BL2" s="92" t="s">
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="92"/>
-      <c r="BN2" s="92"/>
-      <c r="BO2" s="92"/>
-      <c r="BP2" s="93">
+      <c r="BM2" s="90"/>
+      <c r="BN2" s="90"/>
+      <c r="BO2" s="90"/>
+      <c r="BP2" s="91">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="93"/>
-      <c r="BR2" s="93"/>
-      <c r="BS2" s="93"/>
-      <c r="BT2" s="93"/>
-      <c r="BU2" s="93"/>
-      <c r="BV2" s="93"/>
-      <c r="BW2" s="93"/>
-      <c r="BX2" s="94" t="s">
+      <c r="BQ2" s="91"/>
+      <c r="BR2" s="91"/>
+      <c r="BS2" s="91"/>
+      <c r="BT2" s="91"/>
+      <c r="BU2" s="91"/>
+      <c r="BV2" s="91"/>
+      <c r="BW2" s="91"/>
+      <c r="BX2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="94"/>
-      <c r="BZ2" s="94"/>
-      <c r="CA2" s="94"/>
-      <c r="CB2" s="95"/>
-      <c r="CC2" s="95"/>
-      <c r="CD2" s="95"/>
-      <c r="CE2" s="95"/>
-      <c r="CF2" s="95"/>
-      <c r="CG2" s="95"/>
-      <c r="CH2" s="95"/>
-      <c r="CI2" s="95"/>
+      <c r="BY2" s="92"/>
+      <c r="BZ2" s="92"/>
+      <c r="CA2" s="92"/>
+      <c r="CB2" s="93"/>
+      <c r="CC2" s="93"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3874,7 +3868,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -3962,102 +3956,102 @@
       <c r="CH3" s="27"/>
       <c r="CI3" s="27"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="72" t="s">
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="112"/>
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="72"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="72"/>
-      <c r="BP4" s="72"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="72"/>
-      <c r="BU4" s="72"/>
-      <c r="BV4" s="72"/>
-      <c r="BW4" s="72"/>
-      <c r="BX4" s="72"/>
-      <c r="BY4" s="72"/>
-      <c r="BZ4" s="72"/>
-      <c r="CA4" s="72"/>
-      <c r="CB4" s="72"/>
-      <c r="CC4" s="72"/>
-      <c r="CD4" s="72"/>
-      <c r="CE4" s="72"/>
-      <c r="CF4" s="72"/>
-      <c r="CG4" s="72"/>
-      <c r="CH4" s="72"/>
-      <c r="CI4" s="72"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="102"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="102"/>
+      <c r="BM4" s="102"/>
+      <c r="BN4" s="102"/>
+      <c r="BO4" s="102"/>
+      <c r="BP4" s="102"/>
+      <c r="BQ4" s="102"/>
+      <c r="BR4" s="102"/>
+      <c r="BS4" s="102"/>
+      <c r="BT4" s="102"/>
+      <c r="BU4" s="102"/>
+      <c r="BV4" s="102"/>
+      <c r="BW4" s="102"/>
+      <c r="BX4" s="102"/>
+      <c r="BY4" s="102"/>
+      <c r="BZ4" s="102"/>
+      <c r="CA4" s="102"/>
+      <c r="CB4" s="102"/>
+      <c r="CC4" s="102"/>
+      <c r="CD4" s="102"/>
+      <c r="CE4" s="102"/>
+      <c r="CF4" s="102"/>
+      <c r="CG4" s="102"/>
+      <c r="CH4" s="102"/>
+      <c r="CI4" s="102"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4997,102 +4991,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="67">
+      <c r="B5" s="103">
         <v>1</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="79" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79" t="s">
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="80" t="s">
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="100"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="80"/>
-      <c r="BN5" s="80"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="80"/>
-      <c r="BU5" s="80"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="80"/>
-      <c r="CB5" s="80"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="80"/>
-      <c r="CF5" s="80"/>
-      <c r="CG5" s="80"/>
-      <c r="CH5" s="80"/>
-      <c r="CI5" s="80"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="101"/>
+      <c r="AX5" s="101"/>
+      <c r="AY5" s="101"/>
+      <c r="AZ5" s="101"/>
+      <c r="BA5" s="101"/>
+      <c r="BB5" s="101"/>
+      <c r="BC5" s="101"/>
+      <c r="BD5" s="101"/>
+      <c r="BE5" s="101"/>
+      <c r="BF5" s="101"/>
+      <c r="BG5" s="101"/>
+      <c r="BH5" s="101"/>
+      <c r="BI5" s="101"/>
+      <c r="BJ5" s="101"/>
+      <c r="BK5" s="101"/>
+      <c r="BL5" s="101"/>
+      <c r="BM5" s="101"/>
+      <c r="BN5" s="101"/>
+      <c r="BO5" s="101"/>
+      <c r="BP5" s="101"/>
+      <c r="BQ5" s="101"/>
+      <c r="BR5" s="101"/>
+      <c r="BS5" s="101"/>
+      <c r="BT5" s="101"/>
+      <c r="BU5" s="101"/>
+      <c r="BV5" s="101"/>
+      <c r="BW5" s="101"/>
+      <c r="BX5" s="101"/>
+      <c r="BY5" s="101"/>
+      <c r="BZ5" s="101"/>
+      <c r="CA5" s="101"/>
+      <c r="CB5" s="101"/>
+      <c r="CC5" s="101"/>
+      <c r="CD5" s="101"/>
+      <c r="CE5" s="101"/>
+      <c r="CF5" s="101"/>
+      <c r="CG5" s="101"/>
+      <c r="CH5" s="101"/>
+      <c r="CI5" s="101"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -6032,7 +6026,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6120,202 +6114,202 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="70" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="73" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="74" t="s">
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="72" t="s">
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
-      <c r="BS7" s="72"/>
-      <c r="BT7" s="72"/>
-      <c r="BU7" s="72"/>
-      <c r="BV7" s="72"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="72"/>
-      <c r="BY7" s="72"/>
-      <c r="BZ7" s="72"/>
-      <c r="CA7" s="72"/>
-      <c r="CB7" s="72"/>
-      <c r="CC7" s="72"/>
-      <c r="CD7" s="72"/>
-      <c r="CE7" s="72"/>
-      <c r="CF7" s="72"/>
-      <c r="CG7" s="72"/>
-      <c r="CH7" s="72"/>
-      <c r="CI7" s="72"/>
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="102"/>
+      <c r="AV7" s="102"/>
+      <c r="AW7" s="102"/>
+      <c r="AX7" s="102"/>
+      <c r="AY7" s="102"/>
+      <c r="AZ7" s="102"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="102"/>
+      <c r="BC7" s="102"/>
+      <c r="BD7" s="102"/>
+      <c r="BE7" s="102"/>
+      <c r="BF7" s="102"/>
+      <c r="BG7" s="102"/>
+      <c r="BH7" s="102"/>
+      <c r="BI7" s="102"/>
+      <c r="BJ7" s="102"/>
+      <c r="BK7" s="102"/>
+      <c r="BL7" s="102"/>
+      <c r="BM7" s="102"/>
+      <c r="BN7" s="102"/>
+      <c r="BO7" s="102"/>
+      <c r="BP7" s="102"/>
+      <c r="BQ7" s="102"/>
+      <c r="BR7" s="102"/>
+      <c r="BS7" s="102"/>
+      <c r="BT7" s="102"/>
+      <c r="BU7" s="102"/>
+      <c r="BV7" s="102"/>
+      <c r="BW7" s="102"/>
+      <c r="BX7" s="102"/>
+      <c r="BY7" s="102"/>
+      <c r="BZ7" s="102"/>
+      <c r="CA7" s="102"/>
+      <c r="CB7" s="102"/>
+      <c r="CC7" s="102"/>
+      <c r="CD7" s="102"/>
+      <c r="CE7" s="102"/>
+      <c r="CF7" s="102"/>
+      <c r="CG7" s="102"/>
+      <c r="CH7" s="102"/>
+      <c r="CI7" s="102"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="67">
-        <v>1</v>
+      <c r="B8" s="103">
+        <v>2</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="81" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="81" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="81" t="s">
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="78" t="s">
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="78"/>
-      <c r="BB8" s="78"/>
-      <c r="BC8" s="78"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="78"/>
-      <c r="BG8" s="78"/>
-      <c r="BH8" s="78"/>
-      <c r="BI8" s="78"/>
-      <c r="BJ8" s="78"/>
-      <c r="BK8" s="78"/>
-      <c r="BL8" s="78"/>
-      <c r="BM8" s="78"/>
-      <c r="BN8" s="78"/>
-      <c r="BO8" s="78"/>
-      <c r="BP8" s="78"/>
-      <c r="BQ8" s="78"/>
-      <c r="BR8" s="78"/>
-      <c r="BS8" s="78"/>
-      <c r="BT8" s="78"/>
-      <c r="BU8" s="78"/>
-      <c r="BV8" s="78"/>
-      <c r="BW8" s="78"/>
-      <c r="BX8" s="78"/>
-      <c r="BY8" s="78"/>
-      <c r="BZ8" s="78"/>
-      <c r="CA8" s="78"/>
-      <c r="CB8" s="78"/>
-      <c r="CC8" s="78"/>
-      <c r="CD8" s="78"/>
-      <c r="CE8" s="78"/>
-      <c r="CF8" s="78"/>
-      <c r="CG8" s="78"/>
-      <c r="CH8" s="78"/>
-      <c r="CI8" s="78"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="81"/>
+      <c r="BA8" s="81"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81"/>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81"/>
+      <c r="BG8" s="81"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="81"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="81"/>
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81"/>
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="81"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
+      <c r="CF8" s="81"/>
+      <c r="CG8" s="81"/>
+      <c r="CH8" s="81"/>
+      <c r="CI8" s="81"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7254,7 +7248,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1025" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -8280,7 +8274,7 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1025" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -9310,7 +9304,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1025" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -10336,7 +10330,7 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1025" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -11366,7 +11360,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -12392,7 +12386,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13418,134 +13412,134 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="70" t="s">
+    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="73" t="s">
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74" t="s">
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="74" t="s">
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="75"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="72" t="s">
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="72"/>
-      <c r="BD15" s="72"/>
-      <c r="BE15" s="72"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="72"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="72"/>
-      <c r="BJ15" s="72"/>
-      <c r="BK15" s="72"/>
-      <c r="BL15" s="72"/>
-      <c r="BM15" s="72"/>
-      <c r="BN15" s="72"/>
-      <c r="BO15" s="72"/>
-      <c r="BP15" s="72"/>
-      <c r="BQ15" s="72"/>
-      <c r="BR15" s="72"/>
-      <c r="BS15" s="72"/>
-      <c r="BT15" s="72"/>
-      <c r="BU15" s="72"/>
-      <c r="BV15" s="72"/>
-      <c r="BW15" s="72"/>
-      <c r="BX15" s="72"/>
-      <c r="BY15" s="72"/>
-      <c r="BZ15" s="72"/>
-      <c r="CA15" s="72"/>
-      <c r="CB15" s="72"/>
-      <c r="CC15" s="72"/>
-      <c r="CD15" s="72"/>
-      <c r="CE15" s="72"/>
-      <c r="CF15" s="72"/>
-      <c r="CG15" s="72"/>
-      <c r="CH15" s="72"/>
-      <c r="CI15" s="72"/>
+      <c r="AT15" s="102"/>
+      <c r="AU15" s="102"/>
+      <c r="AV15" s="102"/>
+      <c r="AW15" s="102"/>
+      <c r="AX15" s="102"/>
+      <c r="AY15" s="102"/>
+      <c r="AZ15" s="102"/>
+      <c r="BA15" s="102"/>
+      <c r="BB15" s="102"/>
+      <c r="BC15" s="102"/>
+      <c r="BD15" s="102"/>
+      <c r="BE15" s="102"/>
+      <c r="BF15" s="102"/>
+      <c r="BG15" s="102"/>
+      <c r="BH15" s="102"/>
+      <c r="BI15" s="102"/>
+      <c r="BJ15" s="102"/>
+      <c r="BK15" s="102"/>
+      <c r="BL15" s="102"/>
+      <c r="BM15" s="102"/>
+      <c r="BN15" s="102"/>
+      <c r="BO15" s="102"/>
+      <c r="BP15" s="102"/>
+      <c r="BQ15" s="102"/>
+      <c r="BR15" s="102"/>
+      <c r="BS15" s="102"/>
+      <c r="BT15" s="102"/>
+      <c r="BU15" s="102"/>
+      <c r="BV15" s="102"/>
+      <c r="BW15" s="102"/>
+      <c r="BX15" s="102"/>
+      <c r="BY15" s="102"/>
+      <c r="BZ15" s="102"/>
+      <c r="CA15" s="102"/>
+      <c r="CB15" s="102"/>
+      <c r="CC15" s="102"/>
+      <c r="CD15" s="102"/>
+      <c r="CE15" s="102"/>
+      <c r="CF15" s="102"/>
+      <c r="CG15" s="102"/>
+      <c r="CH15" s="102"/>
+      <c r="CI15" s="102"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="67">
-        <v>2</v>
+      <c r="B16" s="103">
+        <v>3</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="77" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="49" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="65" t="s">
         <v>54</v>
       </c>
       <c r="Z16" s="68"/>
@@ -13557,7 +13551,7 @@
       <c r="AF16" s="68"/>
       <c r="AG16" s="68"/>
       <c r="AH16" s="69"/>
-      <c r="AI16" s="49" t="s">
+      <c r="AI16" s="65" t="s">
         <v>50</v>
       </c>
       <c r="AJ16" s="68"/>
@@ -13569,51 +13563,51 @@
       <c r="AP16" s="68"/>
       <c r="AQ16" s="68"/>
       <c r="AR16" s="69"/>
-      <c r="AS16" s="78" t="s">
+      <c r="AS16" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="78"/>
-      <c r="BI16" s="78"/>
-      <c r="BJ16" s="78"/>
-      <c r="BK16" s="78"/>
-      <c r="BL16" s="78"/>
-      <c r="BM16" s="78"/>
-      <c r="BN16" s="78"/>
-      <c r="BO16" s="78"/>
-      <c r="BP16" s="78"/>
-      <c r="BQ16" s="78"/>
-      <c r="BR16" s="78"/>
-      <c r="BS16" s="78"/>
-      <c r="BT16" s="78"/>
-      <c r="BU16" s="78"/>
-      <c r="BV16" s="78"/>
-      <c r="BW16" s="78"/>
-      <c r="BX16" s="78"/>
-      <c r="BY16" s="78"/>
-      <c r="BZ16" s="78"/>
-      <c r="CA16" s="78"/>
-      <c r="CB16" s="78"/>
-      <c r="CC16" s="78"/>
-      <c r="CD16" s="78"/>
-      <c r="CE16" s="78"/>
-      <c r="CF16" s="78"/>
-      <c r="CG16" s="78"/>
-      <c r="CH16" s="78"/>
-      <c r="CI16" s="78"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="81"/>
+      <c r="BA16" s="81"/>
+      <c r="BB16" s="81"/>
+      <c r="BC16" s="81"/>
+      <c r="BD16" s="81"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="81"/>
+      <c r="BG16" s="81"/>
+      <c r="BH16" s="81"/>
+      <c r="BI16" s="81"/>
+      <c r="BJ16" s="81"/>
+      <c r="BK16" s="81"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="81"/>
+      <c r="BN16" s="81"/>
+      <c r="BO16" s="81"/>
+      <c r="BP16" s="81"/>
+      <c r="BQ16" s="81"/>
+      <c r="BR16" s="81"/>
+      <c r="BS16" s="81"/>
+      <c r="BT16" s="81"/>
+      <c r="BU16" s="81"/>
+      <c r="BV16" s="81"/>
+      <c r="BW16" s="81"/>
+      <c r="BX16" s="81"/>
+      <c r="BY16" s="81"/>
+      <c r="BZ16" s="81"/>
+      <c r="CA16" s="81"/>
+      <c r="CB16" s="81"/>
+      <c r="CC16" s="81"/>
+      <c r="CD16" s="81"/>
+      <c r="CE16" s="81"/>
+      <c r="CF16" s="81"/>
+      <c r="CG16" s="81"/>
+      <c r="CH16" s="81"/>
+      <c r="CI16" s="81"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -14552,7 +14546,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="23"/>
@@ -14641,98 +14635,98 @@
       <c r="CI17" s="11"/>
       <c r="AMK17" s="6"/>
     </row>
-    <row r="18" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="128" t="s">
+    <row r="18" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="129"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="129"/>
-      <c r="AN18" s="129"/>
-      <c r="AO18" s="129"/>
-      <c r="AP18" s="129"/>
-      <c r="AQ18" s="129"/>
-      <c r="AR18" s="129"/>
-      <c r="AS18" s="129"/>
-      <c r="AT18" s="129"/>
-      <c r="AU18" s="129"/>
-      <c r="AV18" s="129"/>
-      <c r="AW18" s="129"/>
-      <c r="AX18" s="129"/>
-      <c r="AY18" s="129"/>
-      <c r="AZ18" s="129"/>
-      <c r="BA18" s="129"/>
-      <c r="BB18" s="129"/>
-      <c r="BC18" s="129"/>
-      <c r="BD18" s="129"/>
-      <c r="BE18" s="129"/>
-      <c r="BF18" s="129"/>
-      <c r="BG18" s="129"/>
-      <c r="BH18" s="129"/>
-      <c r="BI18" s="129"/>
-      <c r="BJ18" s="129"/>
-      <c r="BK18" s="129"/>
-      <c r="BL18" s="129"/>
-      <c r="BM18" s="129"/>
-      <c r="BN18" s="129"/>
-      <c r="BO18" s="129"/>
-      <c r="BP18" s="129"/>
-      <c r="BQ18" s="129"/>
-      <c r="BR18" s="129"/>
-      <c r="BS18" s="129"/>
-      <c r="BT18" s="129"/>
-      <c r="BU18" s="129"/>
-      <c r="BV18" s="129"/>
-      <c r="BW18" s="129"/>
-      <c r="BX18" s="129"/>
-      <c r="BY18" s="129"/>
-      <c r="BZ18" s="129"/>
-      <c r="CA18" s="129"/>
-      <c r="CB18" s="129"/>
-      <c r="CC18" s="129"/>
-      <c r="CD18" s="129"/>
-      <c r="CE18" s="129"/>
-      <c r="CF18" s="129"/>
-      <c r="CG18" s="129"/>
-      <c r="CH18" s="129"/>
-      <c r="CI18" s="130"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="59"/>
+      <c r="BO18" s="59"/>
+      <c r="BP18" s="59"/>
+      <c r="BQ18" s="59"/>
+      <c r="BR18" s="59"/>
+      <c r="BS18" s="59"/>
+      <c r="BT18" s="59"/>
+      <c r="BU18" s="59"/>
+      <c r="BV18" s="59"/>
+      <c r="BW18" s="59"/>
+      <c r="BX18" s="59"/>
+      <c r="BY18" s="59"/>
+      <c r="BZ18" s="59"/>
+      <c r="CA18" s="59"/>
+      <c r="CB18" s="59"/>
+      <c r="CC18" s="59"/>
+      <c r="CD18" s="59"/>
+      <c r="CE18" s="59"/>
+      <c r="CF18" s="59"/>
+      <c r="CG18" s="59"/>
+      <c r="CH18" s="59"/>
+      <c r="CI18" s="60"/>
       <c r="AMK18" s="6"/>
     </row>
-    <row r="19" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="24"/>
@@ -14821,75 +14815,75 @@
       <c r="CI19" s="17"/>
       <c r="AMK19" s="6"/>
     </row>
-    <row r="20" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="24"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86" t="s">
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="61" t="s">
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="50"/>
-      <c r="AZ20" s="50"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="50"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="51"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="66"/>
+      <c r="BJ20" s="66"/>
+      <c r="BK20" s="67"/>
       <c r="BL20" s="24"/>
       <c r="BM20" s="24"/>
       <c r="BN20" s="24"/>
@@ -14916,75 +14910,75 @@
       <c r="CI20" s="17"/>
       <c r="AMK20" s="6"/>
     </row>
-    <row r="21" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="24"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="49">
+      <c r="G21" s="65">
         <v>1</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="49" t="s">
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="49" t="s">
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="51"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="67"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
       <c r="BN21" s="24"/>
@@ -15011,75 +15005,75 @@
       <c r="CI21" s="17"/>
       <c r="AMK21" s="6"/>
     </row>
-    <row r="22" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="24"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="49">
+      <c r="G22" s="65">
         <v>2</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="49" t="s">
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="49" t="s">
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="50"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="50"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="50"/>
-      <c r="BK22" s="51"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
+      <c r="BD22" s="66"/>
+      <c r="BE22" s="66"/>
+      <c r="BF22" s="66"/>
+      <c r="BG22" s="66"/>
+      <c r="BH22" s="66"/>
+      <c r="BI22" s="66"/>
+      <c r="BJ22" s="66"/>
+      <c r="BK22" s="67"/>
       <c r="BL22" s="24"/>
       <c r="BM22" s="24"/>
       <c r="BN22" s="24"/>
@@ -15106,7 +15100,7 @@
       <c r="CI22" s="17"/>
       <c r="AMK22" s="6"/>
     </row>
-    <row r="23" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="24"/>
@@ -15195,98 +15189,98 @@
       <c r="CI23" s="17"/>
       <c r="AMK23" s="6"/>
     </row>
-    <row r="24" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="122" t="s">
+    <row r="24" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="123"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="123"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="123"/>
-      <c r="AF24" s="123"/>
-      <c r="AG24" s="123"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="123"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="123"/>
-      <c r="AL24" s="123"/>
-      <c r="AM24" s="123"/>
-      <c r="AN24" s="123"/>
-      <c r="AO24" s="123"/>
-      <c r="AP24" s="123"/>
-      <c r="AQ24" s="123"/>
-      <c r="AR24" s="123"/>
-      <c r="AS24" s="123"/>
-      <c r="AT24" s="123"/>
-      <c r="AU24" s="123"/>
-      <c r="AV24" s="123"/>
-      <c r="AW24" s="123"/>
-      <c r="AX24" s="123"/>
-      <c r="AY24" s="123"/>
-      <c r="AZ24" s="123"/>
-      <c r="BA24" s="123"/>
-      <c r="BB24" s="123"/>
-      <c r="BC24" s="123"/>
-      <c r="BD24" s="123"/>
-      <c r="BE24" s="123"/>
-      <c r="BF24" s="123"/>
-      <c r="BG24" s="123"/>
-      <c r="BH24" s="123"/>
-      <c r="BI24" s="123"/>
-      <c r="BJ24" s="123"/>
-      <c r="BK24" s="123"/>
-      <c r="BL24" s="123"/>
-      <c r="BM24" s="123"/>
-      <c r="BN24" s="123"/>
-      <c r="BO24" s="123"/>
-      <c r="BP24" s="123"/>
-      <c r="BQ24" s="123"/>
-      <c r="BR24" s="123"/>
-      <c r="BS24" s="123"/>
-      <c r="BT24" s="123"/>
-      <c r="BU24" s="123"/>
-      <c r="BV24" s="123"/>
-      <c r="BW24" s="123"/>
-      <c r="BX24" s="123"/>
-      <c r="BY24" s="123"/>
-      <c r="BZ24" s="123"/>
-      <c r="CA24" s="123"/>
-      <c r="CB24" s="123"/>
-      <c r="CC24" s="123"/>
-      <c r="CD24" s="123"/>
-      <c r="CE24" s="123"/>
-      <c r="CF24" s="123"/>
-      <c r="CG24" s="123"/>
-      <c r="CH24" s="123"/>
-      <c r="CI24" s="124"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="56"/>
+      <c r="AR24" s="56"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="56"/>
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="56"/>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="56"/>
+      <c r="AY24" s="56"/>
+      <c r="AZ24" s="56"/>
+      <c r="BA24" s="56"/>
+      <c r="BB24" s="56"/>
+      <c r="BC24" s="56"/>
+      <c r="BD24" s="56"/>
+      <c r="BE24" s="56"/>
+      <c r="BF24" s="56"/>
+      <c r="BG24" s="56"/>
+      <c r="BH24" s="56"/>
+      <c r="BI24" s="56"/>
+      <c r="BJ24" s="56"/>
+      <c r="BK24" s="56"/>
+      <c r="BL24" s="56"/>
+      <c r="BM24" s="56"/>
+      <c r="BN24" s="56"/>
+      <c r="BO24" s="56"/>
+      <c r="BP24" s="56"/>
+      <c r="BQ24" s="56"/>
+      <c r="BR24" s="56"/>
+      <c r="BS24" s="56"/>
+      <c r="BT24" s="56"/>
+      <c r="BU24" s="56"/>
+      <c r="BV24" s="56"/>
+      <c r="BW24" s="56"/>
+      <c r="BX24" s="56"/>
+      <c r="BY24" s="56"/>
+      <c r="BZ24" s="56"/>
+      <c r="CA24" s="56"/>
+      <c r="CB24" s="56"/>
+      <c r="CC24" s="56"/>
+      <c r="CD24" s="56"/>
+      <c r="CE24" s="56"/>
+      <c r="CF24" s="56"/>
+      <c r="CG24" s="56"/>
+      <c r="CH24" s="56"/>
+      <c r="CI24" s="57"/>
       <c r="AMK24" s="6"/>
     </row>
-    <row r="25" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="45"/>
       <c r="D25" s="46"/>
@@ -15375,98 +15369,98 @@
       <c r="CI25" s="17"/>
       <c r="AMK25" s="6"/>
     </row>
-    <row r="26" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="125" t="s">
+    <row r="26" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="126"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="126"/>
-      <c r="AJ26" s="126"/>
-      <c r="AK26" s="126"/>
-      <c r="AL26" s="126"/>
-      <c r="AM26" s="126"/>
-      <c r="AN26" s="126"/>
-      <c r="AO26" s="126"/>
-      <c r="AP26" s="126"/>
-      <c r="AQ26" s="126"/>
-      <c r="AR26" s="126"/>
-      <c r="AS26" s="126"/>
-      <c r="AT26" s="126"/>
-      <c r="AU26" s="126"/>
-      <c r="AV26" s="126"/>
-      <c r="AW26" s="126"/>
-      <c r="AX26" s="126"/>
-      <c r="AY26" s="126"/>
-      <c r="AZ26" s="126"/>
-      <c r="BA26" s="126"/>
-      <c r="BB26" s="126"/>
-      <c r="BC26" s="126"/>
-      <c r="BD26" s="126"/>
-      <c r="BE26" s="126"/>
-      <c r="BF26" s="126"/>
-      <c r="BG26" s="126"/>
-      <c r="BH26" s="126"/>
-      <c r="BI26" s="126"/>
-      <c r="BJ26" s="126"/>
-      <c r="BK26" s="126"/>
-      <c r="BL26" s="126"/>
-      <c r="BM26" s="126"/>
-      <c r="BN26" s="126"/>
-      <c r="BO26" s="126"/>
-      <c r="BP26" s="126"/>
-      <c r="BQ26" s="126"/>
-      <c r="BR26" s="126"/>
-      <c r="BS26" s="126"/>
-      <c r="BT26" s="126"/>
-      <c r="BU26" s="126"/>
-      <c r="BV26" s="126"/>
-      <c r="BW26" s="126"/>
-      <c r="BX26" s="126"/>
-      <c r="BY26" s="126"/>
-      <c r="BZ26" s="126"/>
-      <c r="CA26" s="126"/>
-      <c r="CB26" s="126"/>
-      <c r="CC26" s="126"/>
-      <c r="CD26" s="126"/>
-      <c r="CE26" s="126"/>
-      <c r="CF26" s="126"/>
-      <c r="CG26" s="126"/>
-      <c r="CH26" s="126"/>
-      <c r="CI26" s="127"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="62"/>
+      <c r="BC26" s="62"/>
+      <c r="BD26" s="62"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="62"/>
+      <c r="BJ26" s="62"/>
+      <c r="BK26" s="62"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="62"/>
+      <c r="BN26" s="62"/>
+      <c r="BO26" s="62"/>
+      <c r="BP26" s="62"/>
+      <c r="BQ26" s="62"/>
+      <c r="BR26" s="62"/>
+      <c r="BS26" s="62"/>
+      <c r="BT26" s="62"/>
+      <c r="BU26" s="62"/>
+      <c r="BV26" s="62"/>
+      <c r="BW26" s="62"/>
+      <c r="BX26" s="62"/>
+      <c r="BY26" s="62"/>
+      <c r="BZ26" s="62"/>
+      <c r="CA26" s="62"/>
+      <c r="CB26" s="62"/>
+      <c r="CC26" s="62"/>
+      <c r="CD26" s="62"/>
+      <c r="CE26" s="62"/>
+      <c r="CF26" s="62"/>
+      <c r="CG26" s="62"/>
+      <c r="CH26" s="62"/>
+      <c r="CI26" s="63"/>
       <c r="AMK26" s="6"/>
     </row>
-    <row r="27" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="24"/>
@@ -15555,75 +15549,75 @@
       <c r="CI27" s="17"/>
       <c r="AMK27" s="6"/>
     </row>
-    <row r="28" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="24"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="86" t="s">
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="61" t="s">
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="50"/>
-      <c r="BA28" s="50"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="50"/>
-      <c r="BD28" s="50"/>
-      <c r="BE28" s="50"/>
-      <c r="BF28" s="50"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="50"/>
-      <c r="BK28" s="51"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="66"/>
+      <c r="BA28" s="66"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="66"/>
+      <c r="BD28" s="66"/>
+      <c r="BE28" s="66"/>
+      <c r="BF28" s="66"/>
+      <c r="BG28" s="66"/>
+      <c r="BH28" s="66"/>
+      <c r="BI28" s="66"/>
+      <c r="BJ28" s="66"/>
+      <c r="BK28" s="67"/>
       <c r="BL28" s="24"/>
       <c r="BM28" s="24"/>
       <c r="BN28" s="24"/>
@@ -15650,75 +15644,75 @@
       <c r="CI28" s="17"/>
       <c r="AMK28" s="6"/>
     </row>
-    <row r="29" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="24"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="49">
+      <c r="G29" s="65">
         <v>1</v>
       </c>
       <c r="H29" s="68"/>
       <c r="I29" s="69"/>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="49" t="s">
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="50"/>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="50"/>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="50"/>
-      <c r="BD29" s="50"/>
-      <c r="BE29" s="50"/>
-      <c r="BF29" s="50"/>
-      <c r="BG29" s="50"/>
-      <c r="BH29" s="50"/>
-      <c r="BI29" s="50"/>
-      <c r="BJ29" s="50"/>
-      <c r="BK29" s="51"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="66"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="66"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="66"/>
+      <c r="BF29" s="66"/>
+      <c r="BG29" s="66"/>
+      <c r="BH29" s="66"/>
+      <c r="BI29" s="66"/>
+      <c r="BJ29" s="66"/>
+      <c r="BK29" s="67"/>
       <c r="BL29" s="24"/>
       <c r="BM29" s="24"/>
       <c r="BN29" s="24"/>
@@ -15745,75 +15739,75 @@
       <c r="CI29" s="17"/>
       <c r="AMK29" s="6"/>
     </row>
-    <row r="30" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="24"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="49">
+      <c r="G30" s="65">
         <v>2</v>
       </c>
       <c r="H30" s="68"/>
       <c r="I30" s="69"/>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="49" t="s">
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="50"/>
-      <c r="AK30" s="50"/>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="50"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="50"/>
-      <c r="AW30" s="50"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="50"/>
-      <c r="AZ30" s="50"/>
-      <c r="BA30" s="50"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="50"/>
-      <c r="BD30" s="50"/>
-      <c r="BE30" s="50"/>
-      <c r="BF30" s="50"/>
-      <c r="BG30" s="50"/>
-      <c r="BH30" s="50"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="50"/>
-      <c r="BK30" s="51"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="66"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="66"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="66"/>
+      <c r="AZ30" s="66"/>
+      <c r="BA30" s="66"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="66"/>
+      <c r="BD30" s="66"/>
+      <c r="BE30" s="66"/>
+      <c r="BF30" s="66"/>
+      <c r="BG30" s="66"/>
+      <c r="BH30" s="66"/>
+      <c r="BI30" s="66"/>
+      <c r="BJ30" s="66"/>
+      <c r="BK30" s="67"/>
       <c r="BL30" s="24"/>
       <c r="BM30" s="24"/>
       <c r="BN30" s="24"/>
@@ -15840,75 +15834,75 @@
       <c r="CI30" s="17"/>
       <c r="AMK30" s="6"/>
     </row>
-    <row r="31" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="24"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="49">
+      <c r="G31" s="65">
         <v>3</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="69"/>
-      <c r="J31" s="49" t="s">
+      <c r="J31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="49" t="s">
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="50"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="50"/>
-      <c r="BD31" s="50"/>
-      <c r="BE31" s="50"/>
-      <c r="BF31" s="50"/>
-      <c r="BG31" s="50"/>
-      <c r="BH31" s="50"/>
-      <c r="BI31" s="50"/>
-      <c r="BJ31" s="50"/>
-      <c r="BK31" s="51"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="66"/>
+      <c r="BA31" s="66"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="66"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="66"/>
+      <c r="BF31" s="66"/>
+      <c r="BG31" s="66"/>
+      <c r="BH31" s="66"/>
+      <c r="BI31" s="66"/>
+      <c r="BJ31" s="66"/>
+      <c r="BK31" s="67"/>
       <c r="BL31" s="24"/>
       <c r="BM31" s="24"/>
       <c r="BN31" s="24"/>
@@ -15935,7 +15929,7 @@
       <c r="CI31" s="17"/>
       <c r="AMK31" s="6"/>
     </row>
-    <row r="32" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -16024,7 +16018,7 @@
       <c r="CI32" s="22"/>
       <c r="AMK32" s="6"/>
     </row>
-    <row r="33" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -17050,134 +17044,134 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="70" t="s">
+    <row r="34" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="116" t="s">
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="74" t="s">
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="76"/>
-      <c r="AI34" s="74" t="s">
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="105"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="105"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="75"/>
-      <c r="AP34" s="75"/>
-      <c r="AQ34" s="75"/>
-      <c r="AR34" s="76"/>
-      <c r="AS34" s="72" t="s">
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="105"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="106"/>
+      <c r="AS34" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="72"/>
-      <c r="BA34" s="72"/>
-      <c r="BB34" s="72"/>
-      <c r="BC34" s="72"/>
-      <c r="BD34" s="72"/>
-      <c r="BE34" s="72"/>
-      <c r="BF34" s="72"/>
-      <c r="BG34" s="72"/>
-      <c r="BH34" s="72"/>
-      <c r="BI34" s="72"/>
-      <c r="BJ34" s="72"/>
-      <c r="BK34" s="72"/>
-      <c r="BL34" s="72"/>
-      <c r="BM34" s="72"/>
-      <c r="BN34" s="72"/>
-      <c r="BO34" s="72"/>
-      <c r="BP34" s="72"/>
-      <c r="BQ34" s="72"/>
-      <c r="BR34" s="72"/>
-      <c r="BS34" s="72"/>
-      <c r="BT34" s="72"/>
-      <c r="BU34" s="72"/>
-      <c r="BV34" s="72"/>
-      <c r="BW34" s="72"/>
-      <c r="BX34" s="72"/>
-      <c r="BY34" s="72"/>
-      <c r="BZ34" s="72"/>
-      <c r="CA34" s="72"/>
-      <c r="CB34" s="72"/>
-      <c r="CC34" s="72"/>
-      <c r="CD34" s="72"/>
-      <c r="CE34" s="72"/>
-      <c r="CF34" s="72"/>
-      <c r="CG34" s="72"/>
-      <c r="CH34" s="72"/>
-      <c r="CI34" s="72"/>
+      <c r="AT34" s="102"/>
+      <c r="AU34" s="102"/>
+      <c r="AV34" s="102"/>
+      <c r="AW34" s="102"/>
+      <c r="AX34" s="102"/>
+      <c r="AY34" s="102"/>
+      <c r="AZ34" s="102"/>
+      <c r="BA34" s="102"/>
+      <c r="BB34" s="102"/>
+      <c r="BC34" s="102"/>
+      <c r="BD34" s="102"/>
+      <c r="BE34" s="102"/>
+      <c r="BF34" s="102"/>
+      <c r="BG34" s="102"/>
+      <c r="BH34" s="102"/>
+      <c r="BI34" s="102"/>
+      <c r="BJ34" s="102"/>
+      <c r="BK34" s="102"/>
+      <c r="BL34" s="102"/>
+      <c r="BM34" s="102"/>
+      <c r="BN34" s="102"/>
+      <c r="BO34" s="102"/>
+      <c r="BP34" s="102"/>
+      <c r="BQ34" s="102"/>
+      <c r="BR34" s="102"/>
+      <c r="BS34" s="102"/>
+      <c r="BT34" s="102"/>
+      <c r="BU34" s="102"/>
+      <c r="BV34" s="102"/>
+      <c r="BW34" s="102"/>
+      <c r="BX34" s="102"/>
+      <c r="BY34" s="102"/>
+      <c r="BZ34" s="102"/>
+      <c r="CA34" s="102"/>
+      <c r="CB34" s="102"/>
+      <c r="CC34" s="102"/>
+      <c r="CD34" s="102"/>
+      <c r="CE34" s="102"/>
+      <c r="CF34" s="102"/>
+      <c r="CG34" s="102"/>
+      <c r="CH34" s="102"/>
+      <c r="CI34" s="102"/>
     </row>
-    <row r="35" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="67">
-        <v>3</v>
+      <c r="B35" s="103">
+        <v>4</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="81" t="s">
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="49" t="s">
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="65" t="s">
         <v>37</v>
       </c>
       <c r="Z35" s="68"/>
@@ -17189,7 +17183,7 @@
       <c r="AF35" s="68"/>
       <c r="AG35" s="68"/>
       <c r="AH35" s="69"/>
-      <c r="AI35" s="49" t="s">
+      <c r="AI35" s="65" t="s">
         <v>37</v>
       </c>
       <c r="AJ35" s="68"/>
@@ -17201,51 +17195,51 @@
       <c r="AP35" s="68"/>
       <c r="AQ35" s="68"/>
       <c r="AR35" s="69"/>
-      <c r="AS35" s="78" t="s">
+      <c r="AS35" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="AT35" s="78"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="78"/>
-      <c r="AY35" s="78"/>
-      <c r="AZ35" s="78"/>
-      <c r="BA35" s="78"/>
-      <c r="BB35" s="78"/>
-      <c r="BC35" s="78"/>
-      <c r="BD35" s="78"/>
-      <c r="BE35" s="78"/>
-      <c r="BF35" s="78"/>
-      <c r="BG35" s="78"/>
-      <c r="BH35" s="78"/>
-      <c r="BI35" s="78"/>
-      <c r="BJ35" s="78"/>
-      <c r="BK35" s="78"/>
-      <c r="BL35" s="78"/>
-      <c r="BM35" s="78"/>
-      <c r="BN35" s="78"/>
-      <c r="BO35" s="78"/>
-      <c r="BP35" s="78"/>
-      <c r="BQ35" s="78"/>
-      <c r="BR35" s="78"/>
-      <c r="BS35" s="78"/>
-      <c r="BT35" s="78"/>
-      <c r="BU35" s="78"/>
-      <c r="BV35" s="78"/>
-      <c r="BW35" s="78"/>
-      <c r="BX35" s="78"/>
-      <c r="BY35" s="78"/>
-      <c r="BZ35" s="78"/>
-      <c r="CA35" s="78"/>
-      <c r="CB35" s="78"/>
-      <c r="CC35" s="78"/>
-      <c r="CD35" s="78"/>
-      <c r="CE35" s="78"/>
-      <c r="CF35" s="78"/>
-      <c r="CG35" s="78"/>
-      <c r="CH35" s="78"/>
-      <c r="CI35" s="78"/>
+      <c r="AT35" s="81"/>
+      <c r="AU35" s="81"/>
+      <c r="AV35" s="81"/>
+      <c r="AW35" s="81"/>
+      <c r="AX35" s="81"/>
+      <c r="AY35" s="81"/>
+      <c r="AZ35" s="81"/>
+      <c r="BA35" s="81"/>
+      <c r="BB35" s="81"/>
+      <c r="BC35" s="81"/>
+      <c r="BD35" s="81"/>
+      <c r="BE35" s="81"/>
+      <c r="BF35" s="81"/>
+      <c r="BG35" s="81"/>
+      <c r="BH35" s="81"/>
+      <c r="BI35" s="81"/>
+      <c r="BJ35" s="81"/>
+      <c r="BK35" s="81"/>
+      <c r="BL35" s="81"/>
+      <c r="BM35" s="81"/>
+      <c r="BN35" s="81"/>
+      <c r="BO35" s="81"/>
+      <c r="BP35" s="81"/>
+      <c r="BQ35" s="81"/>
+      <c r="BR35" s="81"/>
+      <c r="BS35" s="81"/>
+      <c r="BT35" s="81"/>
+      <c r="BU35" s="81"/>
+      <c r="BV35" s="81"/>
+      <c r="BW35" s="81"/>
+      <c r="BX35" s="81"/>
+      <c r="BY35" s="81"/>
+      <c r="BZ35" s="81"/>
+      <c r="CA35" s="81"/>
+      <c r="CB35" s="81"/>
+      <c r="CC35" s="81"/>
+      <c r="CD35" s="81"/>
+      <c r="CE35" s="81"/>
+      <c r="CF35" s="81"/>
+      <c r="CG35" s="81"/>
+      <c r="CH35" s="81"/>
+      <c r="CI35" s="81"/>
       <c r="CJ35" s="1"/>
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
@@ -18184,94 +18178,94 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1025" ht="18" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="132"/>
-      <c r="T36" s="132"/>
-      <c r="U36" s="132"/>
-      <c r="V36" s="132"/>
-      <c r="W36" s="132"/>
-      <c r="X36" s="132"/>
-      <c r="Y36" s="132"/>
-      <c r="Z36" s="132"/>
-      <c r="AA36" s="132"/>
-      <c r="AB36" s="132"/>
-      <c r="AC36" s="132"/>
-      <c r="AD36" s="132"/>
-      <c r="AE36" s="132"/>
-      <c r="AF36" s="132"/>
-      <c r="AG36" s="132"/>
-      <c r="AH36" s="132"/>
-      <c r="AI36" s="132"/>
-      <c r="AJ36" s="132"/>
-      <c r="AK36" s="132"/>
-      <c r="AL36" s="132"/>
-      <c r="AM36" s="132"/>
-      <c r="AN36" s="132"/>
-      <c r="AO36" s="132"/>
-      <c r="AP36" s="132"/>
-      <c r="AQ36" s="132"/>
-      <c r="AR36" s="132"/>
-      <c r="AS36" s="132"/>
-      <c r="AT36" s="132"/>
-      <c r="AU36" s="132"/>
-      <c r="AV36" s="132"/>
-      <c r="AW36" s="132"/>
-      <c r="AX36" s="132"/>
-      <c r="AY36" s="132"/>
-      <c r="AZ36" s="132"/>
-      <c r="BA36" s="132"/>
-      <c r="BB36" s="132"/>
-      <c r="BC36" s="132"/>
-      <c r="BD36" s="132"/>
-      <c r="BE36" s="132"/>
-      <c r="BF36" s="132"/>
-      <c r="BG36" s="132"/>
-      <c r="BH36" s="132"/>
-      <c r="BI36" s="132"/>
-      <c r="BJ36" s="132"/>
-      <c r="BK36" s="132"/>
-      <c r="BL36" s="132"/>
-      <c r="BM36" s="132"/>
-      <c r="BN36" s="132"/>
-      <c r="BO36" s="132"/>
-      <c r="BP36" s="132"/>
-      <c r="BQ36" s="132"/>
-      <c r="BR36" s="132"/>
-      <c r="BS36" s="132"/>
-      <c r="BT36" s="132"/>
-      <c r="BU36" s="132"/>
-      <c r="BV36" s="132"/>
-      <c r="BW36" s="132"/>
-      <c r="BX36" s="132"/>
-      <c r="BY36" s="132"/>
-      <c r="BZ36" s="132"/>
-      <c r="CA36" s="132"/>
-      <c r="CB36" s="132"/>
-      <c r="CC36" s="132"/>
-      <c r="CD36" s="132"/>
-      <c r="CE36" s="132"/>
-      <c r="CF36" s="132"/>
-      <c r="CG36" s="132"/>
-      <c r="CH36" s="132"/>
-      <c r="CI36" s="133"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="53"/>
+      <c r="AS36" s="53"/>
+      <c r="AT36" s="53"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BA36" s="53"/>
+      <c r="BB36" s="53"/>
+      <c r="BC36" s="53"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="53"/>
+      <c r="BF36" s="53"/>
+      <c r="BG36" s="53"/>
+      <c r="BH36" s="53"/>
+      <c r="BI36" s="53"/>
+      <c r="BJ36" s="53"/>
+      <c r="BK36" s="53"/>
+      <c r="BL36" s="53"/>
+      <c r="BM36" s="53"/>
+      <c r="BN36" s="53"/>
+      <c r="BO36" s="53"/>
+      <c r="BP36" s="53"/>
+      <c r="BQ36" s="53"/>
+      <c r="BR36" s="53"/>
+      <c r="BS36" s="53"/>
+      <c r="BT36" s="53"/>
+      <c r="BU36" s="53"/>
+      <c r="BV36" s="53"/>
+      <c r="BW36" s="53"/>
+      <c r="BX36" s="53"/>
+      <c r="BY36" s="53"/>
+      <c r="BZ36" s="53"/>
+      <c r="CA36" s="53"/>
+      <c r="CB36" s="53"/>
+      <c r="CC36" s="53"/>
+      <c r="CD36" s="53"/>
+      <c r="CE36" s="53"/>
+      <c r="CF36" s="53"/>
+      <c r="CG36" s="53"/>
+      <c r="CH36" s="53"/>
+      <c r="CI36" s="54"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
       <c r="CL36" s="1"/>
@@ -19210,7 +19204,7 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1025" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -20240,7 +20234,7 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1025" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -21268,7 +21262,7 @@
       <c r="AMI38" s="1"/>
       <c r="AMJ38" s="1"/>
     </row>
-    <row r="39" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1025" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
@@ -22294,78 +22288,78 @@
       <c r="AMI39" s="1"/>
       <c r="AMJ39" s="1"/>
     </row>
-    <row r="40" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1025" ht="18" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
       <c r="D40" s="24"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="86" t="s">
+      <c r="G40" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="102" t="s">
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="102"/>
-      <c r="V40" s="102"/>
-      <c r="W40" s="102"/>
-      <c r="X40" s="102"/>
-      <c r="Y40" s="102"/>
-      <c r="Z40" s="102"/>
-      <c r="AA40" s="86" t="s">
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="87"/>
-      <c r="AD40" s="87"/>
-      <c r="AE40" s="87"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="87"/>
-      <c r="AH40" s="87"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="87"/>
-      <c r="AK40" s="103"/>
-      <c r="AL40" s="86" t="s">
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="71"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="71"/>
+      <c r="AI40" s="71"/>
+      <c r="AJ40" s="71"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AM40" s="87"/>
-      <c r="AN40" s="87"/>
-      <c r="AO40" s="87"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="87"/>
-      <c r="AR40" s="87"/>
-      <c r="AS40" s="87"/>
-      <c r="AT40" s="87"/>
-      <c r="AU40" s="87"/>
-      <c r="AV40" s="87"/>
-      <c r="AW40" s="84"/>
-      <c r="AX40" s="84"/>
-      <c r="AY40" s="84"/>
-      <c r="AZ40" s="84"/>
-      <c r="BA40" s="84"/>
-      <c r="BB40" s="84"/>
-      <c r="BC40" s="84"/>
-      <c r="BD40" s="84"/>
-      <c r="BE40" s="84"/>
-      <c r="BF40" s="84"/>
-      <c r="BG40" s="84"/>
-      <c r="BH40" s="84"/>
-      <c r="BI40" s="84"/>
-      <c r="BJ40" s="84"/>
-      <c r="BK40" s="85"/>
+      <c r="AM40" s="71"/>
+      <c r="AN40" s="71"/>
+      <c r="AO40" s="71"/>
+      <c r="AP40" s="71"/>
+      <c r="AQ40" s="71"/>
+      <c r="AR40" s="71"/>
+      <c r="AS40" s="71"/>
+      <c r="AT40" s="71"/>
+      <c r="AU40" s="71"/>
+      <c r="AV40" s="71"/>
+      <c r="AW40" s="76"/>
+      <c r="AX40" s="76"/>
+      <c r="AY40" s="76"/>
+      <c r="AZ40" s="76"/>
+      <c r="BA40" s="76"/>
+      <c r="BB40" s="76"/>
+      <c r="BC40" s="76"/>
+      <c r="BD40" s="76"/>
+      <c r="BE40" s="76"/>
+      <c r="BF40" s="76"/>
+      <c r="BG40" s="76"/>
+      <c r="BH40" s="76"/>
+      <c r="BI40" s="76"/>
+      <c r="BJ40" s="76"/>
+      <c r="BK40" s="77"/>
       <c r="BL40" s="24"/>
       <c r="BM40" s="24"/>
       <c r="BN40" s="24"/>
@@ -23328,14 +23322,14 @@
       <c r="AMI40" s="1"/>
       <c r="AMJ40" s="1"/>
     </row>
-    <row r="41" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1025" ht="18" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="24"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H41" s="68"/>
@@ -23347,32 +23341,32 @@
       <c r="N41" s="68"/>
       <c r="O41" s="68"/>
       <c r="P41" s="69"/>
-      <c r="Q41" s="77" t="s">
+      <c r="Q41" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="77"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="77"/>
-      <c r="V41" s="77"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
-      <c r="Y41" s="77"/>
-      <c r="Z41" s="77"/>
-      <c r="AA41" s="104" t="s">
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="AB41" s="105"/>
-      <c r="AC41" s="105"/>
-      <c r="AD41" s="105"/>
-      <c r="AE41" s="105"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="105"/>
-      <c r="AI41" s="105"/>
-      <c r="AJ41" s="105"/>
-      <c r="AK41" s="106"/>
-      <c r="AL41" s="49" t="s">
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="84"/>
+      <c r="AD41" s="84"/>
+      <c r="AE41" s="84"/>
+      <c r="AF41" s="84"/>
+      <c r="AG41" s="84"/>
+      <c r="AH41" s="84"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="84"/>
+      <c r="AK41" s="85"/>
+      <c r="AL41" s="65" t="s">
         <v>44</v>
       </c>
       <c r="AM41" s="68"/>
@@ -23385,21 +23379,21 @@
       <c r="AT41" s="68"/>
       <c r="AU41" s="68"/>
       <c r="AV41" s="68"/>
-      <c r="AW41" s="50"/>
-      <c r="AX41" s="50"/>
-      <c r="AY41" s="50"/>
-      <c r="AZ41" s="50"/>
-      <c r="BA41" s="50"/>
-      <c r="BB41" s="50"/>
-      <c r="BC41" s="50"/>
-      <c r="BD41" s="50"/>
-      <c r="BE41" s="50"/>
-      <c r="BF41" s="50"/>
-      <c r="BG41" s="50"/>
-      <c r="BH41" s="50"/>
-      <c r="BI41" s="50"/>
-      <c r="BJ41" s="50"/>
-      <c r="BK41" s="51"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="66"/>
+      <c r="BD41" s="66"/>
+      <c r="BE41" s="66"/>
+      <c r="BF41" s="66"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="66"/>
+      <c r="BI41" s="66"/>
+      <c r="BJ41" s="66"/>
+      <c r="BK41" s="67"/>
       <c r="BL41" s="24"/>
       <c r="BM41" s="24"/>
       <c r="BN41" s="24"/>
@@ -24362,14 +24356,14 @@
       <c r="AMI41" s="1"/>
       <c r="AMJ41" s="1"/>
     </row>
-    <row r="42" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1025" ht="18" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="24"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="65" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="68"/>
@@ -24381,32 +24375,32 @@
       <c r="N42" s="68"/>
       <c r="O42" s="68"/>
       <c r="P42" s="69"/>
-      <c r="Q42" s="77" t="s">
+      <c r="Q42" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="77"/>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="77"/>
-      <c r="Z42" s="77"/>
-      <c r="AA42" s="104" t="s">
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="AB42" s="105"/>
-      <c r="AC42" s="105"/>
-      <c r="AD42" s="105"/>
-      <c r="AE42" s="105"/>
-      <c r="AF42" s="105"/>
-      <c r="AG42" s="105"/>
-      <c r="AH42" s="105"/>
-      <c r="AI42" s="105"/>
-      <c r="AJ42" s="105"/>
-      <c r="AK42" s="106"/>
-      <c r="AL42" s="49" t="s">
+      <c r="AB42" s="84"/>
+      <c r="AC42" s="84"/>
+      <c r="AD42" s="84"/>
+      <c r="AE42" s="84"/>
+      <c r="AF42" s="84"/>
+      <c r="AG42" s="84"/>
+      <c r="AH42" s="84"/>
+      <c r="AI42" s="84"/>
+      <c r="AJ42" s="84"/>
+      <c r="AK42" s="85"/>
+      <c r="AL42" s="65" t="s">
         <v>45</v>
       </c>
       <c r="AM42" s="68"/>
@@ -24419,21 +24413,21 @@
       <c r="AT42" s="68"/>
       <c r="AU42" s="68"/>
       <c r="AV42" s="68"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="50"/>
-      <c r="BA42" s="50"/>
-      <c r="BB42" s="50"/>
-      <c r="BC42" s="50"/>
-      <c r="BD42" s="50"/>
-      <c r="BE42" s="50"/>
-      <c r="BF42" s="50"/>
-      <c r="BG42" s="50"/>
-      <c r="BH42" s="50"/>
-      <c r="BI42" s="50"/>
-      <c r="BJ42" s="50"/>
-      <c r="BK42" s="51"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="66"/>
+      <c r="BA42" s="66"/>
+      <c r="BB42" s="66"/>
+      <c r="BC42" s="66"/>
+      <c r="BD42" s="66"/>
+      <c r="BE42" s="66"/>
+      <c r="BF42" s="66"/>
+      <c r="BG42" s="66"/>
+      <c r="BH42" s="66"/>
+      <c r="BI42" s="66"/>
+      <c r="BJ42" s="66"/>
+      <c r="BK42" s="67"/>
       <c r="BL42" s="24"/>
       <c r="BM42" s="24"/>
       <c r="BN42" s="24"/>
@@ -25396,94 +25390,94 @@
       <c r="AMI42" s="1"/>
       <c r="AMJ42" s="1"/>
     </row>
-    <row r="43" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1025" ht="18" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120"/>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120"/>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120"/>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120"/>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="120"/>
-      <c r="AP43" s="120"/>
-      <c r="AQ43" s="120"/>
-      <c r="AR43" s="120"/>
-      <c r="AS43" s="120"/>
-      <c r="AT43" s="120"/>
-      <c r="AU43" s="120"/>
-      <c r="AV43" s="120"/>
-      <c r="AW43" s="120"/>
-      <c r="AX43" s="120"/>
-      <c r="AY43" s="120"/>
-      <c r="AZ43" s="120"/>
-      <c r="BA43" s="120"/>
-      <c r="BB43" s="120"/>
-      <c r="BC43" s="120"/>
-      <c r="BD43" s="120"/>
-      <c r="BE43" s="120"/>
-      <c r="BF43" s="120"/>
-      <c r="BG43" s="120"/>
-      <c r="BH43" s="120"/>
-      <c r="BI43" s="120"/>
-      <c r="BJ43" s="120"/>
-      <c r="BK43" s="120"/>
-      <c r="BL43" s="120"/>
-      <c r="BM43" s="120"/>
-      <c r="BN43" s="120"/>
-      <c r="BO43" s="120"/>
-      <c r="BP43" s="120"/>
-      <c r="BQ43" s="120"/>
-      <c r="BR43" s="120"/>
-      <c r="BS43" s="120"/>
-      <c r="BT43" s="120"/>
-      <c r="BU43" s="120"/>
-      <c r="BV43" s="120"/>
-      <c r="BW43" s="120"/>
-      <c r="BX43" s="120"/>
-      <c r="BY43" s="120"/>
-      <c r="BZ43" s="120"/>
-      <c r="CA43" s="120"/>
-      <c r="CB43" s="120"/>
-      <c r="CC43" s="120"/>
-      <c r="CD43" s="120"/>
-      <c r="CE43" s="120"/>
-      <c r="CF43" s="120"/>
-      <c r="CG43" s="120"/>
-      <c r="CH43" s="120"/>
-      <c r="CI43" s="121"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="50"/>
+      <c r="AL43" s="50"/>
+      <c r="AM43" s="50"/>
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
+      <c r="AT43" s="50"/>
+      <c r="AU43" s="50"/>
+      <c r="AV43" s="50"/>
+      <c r="AW43" s="50"/>
+      <c r="AX43" s="50"/>
+      <c r="AY43" s="50"/>
+      <c r="AZ43" s="50"/>
+      <c r="BA43" s="50"/>
+      <c r="BB43" s="50"/>
+      <c r="BC43" s="50"/>
+      <c r="BD43" s="50"/>
+      <c r="BE43" s="50"/>
+      <c r="BF43" s="50"/>
+      <c r="BG43" s="50"/>
+      <c r="BH43" s="50"/>
+      <c r="BI43" s="50"/>
+      <c r="BJ43" s="50"/>
+      <c r="BK43" s="50"/>
+      <c r="BL43" s="50"/>
+      <c r="BM43" s="50"/>
+      <c r="BN43" s="50"/>
+      <c r="BO43" s="50"/>
+      <c r="BP43" s="50"/>
+      <c r="BQ43" s="50"/>
+      <c r="BR43" s="50"/>
+      <c r="BS43" s="50"/>
+      <c r="BT43" s="50"/>
+      <c r="BU43" s="50"/>
+      <c r="BV43" s="50"/>
+      <c r="BW43" s="50"/>
+      <c r="BX43" s="50"/>
+      <c r="BY43" s="50"/>
+      <c r="BZ43" s="50"/>
+      <c r="CA43" s="50"/>
+      <c r="CB43" s="50"/>
+      <c r="CC43" s="50"/>
+      <c r="CD43" s="50"/>
+      <c r="CE43" s="50"/>
+      <c r="CF43" s="50"/>
+      <c r="CG43" s="50"/>
+      <c r="CH43" s="50"/>
+      <c r="CI43" s="51"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
@@ -26422,7 +26416,7 @@
       <c r="AMI43" s="1"/>
       <c r="AMJ43" s="1"/>
     </row>
-    <row r="44" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A44"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -27452,7 +27446,7 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1025" ht="18" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -28480,7 +28474,7 @@
       <c r="AMI45" s="1"/>
       <c r="AMJ45" s="1"/>
     </row>
-    <row r="46" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A46"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -29506,72 +29500,72 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1025" ht="18" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="24"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="61" t="s">
+      <c r="G47" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
-      <c r="AB47" s="114"/>
-      <c r="AC47" s="114"/>
-      <c r="AD47" s="114"/>
-      <c r="AE47" s="114"/>
-      <c r="AF47" s="114"/>
-      <c r="AG47" s="114"/>
-      <c r="AH47" s="114"/>
-      <c r="AI47" s="114"/>
-      <c r="AJ47" s="114"/>
-      <c r="AK47" s="114"/>
-      <c r="AL47" s="114"/>
-      <c r="AM47" s="114"/>
-      <c r="AN47" s="114"/>
-      <c r="AO47" s="114"/>
-      <c r="AP47" s="114"/>
-      <c r="AQ47" s="114"/>
-      <c r="AR47" s="114"/>
-      <c r="AS47" s="114"/>
-      <c r="AT47" s="114"/>
-      <c r="AU47" s="114"/>
-      <c r="AV47" s="114"/>
-      <c r="AW47" s="114"/>
-      <c r="AX47" s="114"/>
-      <c r="AY47" s="114"/>
-      <c r="AZ47" s="114"/>
-      <c r="BA47" s="114"/>
-      <c r="BB47" s="114"/>
-      <c r="BC47" s="114"/>
-      <c r="BD47" s="114"/>
-      <c r="BE47" s="114"/>
-      <c r="BF47" s="114"/>
-      <c r="BG47" s="114"/>
-      <c r="BH47" s="114"/>
-      <c r="BI47" s="114"/>
-      <c r="BJ47" s="114"/>
-      <c r="BK47" s="115"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="110"/>
+      <c r="Z47" s="110"/>
+      <c r="AA47" s="110"/>
+      <c r="AB47" s="110"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+      <c r="AF47" s="110"/>
+      <c r="AG47" s="110"/>
+      <c r="AH47" s="110"/>
+      <c r="AI47" s="110"/>
+      <c r="AJ47" s="110"/>
+      <c r="AK47" s="110"/>
+      <c r="AL47" s="110"/>
+      <c r="AM47" s="110"/>
+      <c r="AN47" s="110"/>
+      <c r="AO47" s="110"/>
+      <c r="AP47" s="110"/>
+      <c r="AQ47" s="110"/>
+      <c r="AR47" s="110"/>
+      <c r="AS47" s="110"/>
+      <c r="AT47" s="110"/>
+      <c r="AU47" s="110"/>
+      <c r="AV47" s="110"/>
+      <c r="AW47" s="110"/>
+      <c r="AX47" s="110"/>
+      <c r="AY47" s="110"/>
+      <c r="AZ47" s="110"/>
+      <c r="BA47" s="110"/>
+      <c r="BB47" s="110"/>
+      <c r="BC47" s="110"/>
+      <c r="BD47" s="110"/>
+      <c r="BE47" s="110"/>
+      <c r="BF47" s="110"/>
+      <c r="BG47" s="110"/>
+      <c r="BH47" s="110"/>
+      <c r="BI47" s="110"/>
+      <c r="BJ47" s="110"/>
+      <c r="BK47" s="111"/>
       <c r="BL47" s="24"/>
       <c r="BM47" s="24"/>
       <c r="BN47" s="24"/>
@@ -30534,71 +30528,71 @@
       <c r="AMI47" s="1"/>
       <c r="AMJ47" s="1"/>
     </row>
-    <row r="48" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1025" customFormat="1" ht="18" customHeight="1">
       <c r="B48" s="12"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="107"/>
-      <c r="O48" s="107"/>
-      <c r="P48" s="107"/>
-      <c r="Q48" s="107"/>
-      <c r="R48" s="107"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="107"/>
-      <c r="U48" s="107"/>
-      <c r="V48" s="107"/>
-      <c r="W48" s="107"/>
-      <c r="X48" s="107"/>
-      <c r="Y48" s="107"/>
-      <c r="Z48" s="107"/>
-      <c r="AA48" s="107"/>
-      <c r="AB48" s="107"/>
-      <c r="AC48" s="107"/>
-      <c r="AD48" s="107"/>
-      <c r="AE48" s="107"/>
-      <c r="AF48" s="107"/>
-      <c r="AG48" s="107"/>
-      <c r="AH48" s="107"/>
-      <c r="AI48" s="107"/>
-      <c r="AJ48" s="107"/>
-      <c r="AK48" s="107"/>
-      <c r="AL48" s="107"/>
-      <c r="AM48" s="107"/>
-      <c r="AN48" s="107"/>
-      <c r="AO48" s="107"/>
-      <c r="AP48" s="107"/>
-      <c r="AQ48" s="107"/>
-      <c r="AR48" s="107"/>
-      <c r="AS48" s="107"/>
-      <c r="AT48" s="107"/>
-      <c r="AU48" s="107"/>
-      <c r="AV48" s="107"/>
-      <c r="AW48" s="107"/>
-      <c r="AX48" s="107"/>
-      <c r="AY48" s="107"/>
-      <c r="AZ48" s="107"/>
-      <c r="BA48" s="107"/>
-      <c r="BB48" s="107"/>
-      <c r="BC48" s="107"/>
-      <c r="BD48" s="107"/>
-      <c r="BE48" s="107"/>
-      <c r="BF48" s="107"/>
-      <c r="BG48" s="107"/>
-      <c r="BH48" s="107"/>
-      <c r="BI48" s="107"/>
-      <c r="BJ48" s="107"/>
-      <c r="BK48" s="108"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="U48" s="128"/>
+      <c r="V48" s="128"/>
+      <c r="W48" s="128"/>
+      <c r="X48" s="128"/>
+      <c r="Y48" s="128"/>
+      <c r="Z48" s="128"/>
+      <c r="AA48" s="128"/>
+      <c r="AB48" s="128"/>
+      <c r="AC48" s="128"/>
+      <c r="AD48" s="128"/>
+      <c r="AE48" s="128"/>
+      <c r="AF48" s="128"/>
+      <c r="AG48" s="128"/>
+      <c r="AH48" s="128"/>
+      <c r="AI48" s="128"/>
+      <c r="AJ48" s="128"/>
+      <c r="AK48" s="128"/>
+      <c r="AL48" s="128"/>
+      <c r="AM48" s="128"/>
+      <c r="AN48" s="128"/>
+      <c r="AO48" s="128"/>
+      <c r="AP48" s="128"/>
+      <c r="AQ48" s="128"/>
+      <c r="AR48" s="128"/>
+      <c r="AS48" s="128"/>
+      <c r="AT48" s="128"/>
+      <c r="AU48" s="128"/>
+      <c r="AV48" s="128"/>
+      <c r="AW48" s="128"/>
+      <c r="AX48" s="128"/>
+      <c r="AY48" s="128"/>
+      <c r="AZ48" s="128"/>
+      <c r="BA48" s="128"/>
+      <c r="BB48" s="128"/>
+      <c r="BC48" s="128"/>
+      <c r="BD48" s="128"/>
+      <c r="BE48" s="128"/>
+      <c r="BF48" s="128"/>
+      <c r="BG48" s="128"/>
+      <c r="BH48" s="128"/>
+      <c r="BI48" s="128"/>
+      <c r="BJ48" s="128"/>
+      <c r="BK48" s="129"/>
       <c r="BL48" s="24"/>
       <c r="BM48" s="24"/>
       <c r="BN48" s="24"/>
@@ -30625,69 +30619,69 @@
       <c r="CI48" s="17"/>
       <c r="AMK48" s="28"/>
     </row>
-    <row r="49" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1025" customFormat="1" ht="18" customHeight="1">
       <c r="B49" s="12"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52"/>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="52"/>
-      <c r="AP49" s="52"/>
-      <c r="AQ49" s="52"/>
-      <c r="AR49" s="52"/>
-      <c r="AS49" s="52"/>
-      <c r="AT49" s="52"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="52"/>
-      <c r="AW49" s="52"/>
-      <c r="AX49" s="52"/>
-      <c r="AY49" s="52"/>
-      <c r="AZ49" s="52"/>
-      <c r="BA49" s="52"/>
-      <c r="BB49" s="52"/>
-      <c r="BC49" s="52"/>
-      <c r="BD49" s="52"/>
-      <c r="BE49" s="52"/>
-      <c r="BF49" s="52"/>
-      <c r="BG49" s="52"/>
-      <c r="BH49" s="52"/>
-      <c r="BI49" s="52"/>
-      <c r="BJ49" s="52"/>
-      <c r="BK49" s="110"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="121"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="121"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="121"/>
+      <c r="S49" s="121"/>
+      <c r="T49" s="121"/>
+      <c r="U49" s="121"/>
+      <c r="V49" s="121"/>
+      <c r="W49" s="121"/>
+      <c r="X49" s="121"/>
+      <c r="Y49" s="121"/>
+      <c r="Z49" s="121"/>
+      <c r="AA49" s="121"/>
+      <c r="AB49" s="121"/>
+      <c r="AC49" s="121"/>
+      <c r="AD49" s="121"/>
+      <c r="AE49" s="121"/>
+      <c r="AF49" s="121"/>
+      <c r="AG49" s="121"/>
+      <c r="AH49" s="121"/>
+      <c r="AI49" s="121"/>
+      <c r="AJ49" s="121"/>
+      <c r="AK49" s="121"/>
+      <c r="AL49" s="121"/>
+      <c r="AM49" s="121"/>
+      <c r="AN49" s="121"/>
+      <c r="AO49" s="121"/>
+      <c r="AP49" s="121"/>
+      <c r="AQ49" s="121"/>
+      <c r="AR49" s="121"/>
+      <c r="AS49" s="121"/>
+      <c r="AT49" s="121"/>
+      <c r="AU49" s="121"/>
+      <c r="AV49" s="121"/>
+      <c r="AW49" s="121"/>
+      <c r="AX49" s="121"/>
+      <c r="AY49" s="121"/>
+      <c r="AZ49" s="121"/>
+      <c r="BA49" s="121"/>
+      <c r="BB49" s="121"/>
+      <c r="BC49" s="121"/>
+      <c r="BD49" s="121"/>
+      <c r="BE49" s="121"/>
+      <c r="BF49" s="121"/>
+      <c r="BG49" s="121"/>
+      <c r="BH49" s="121"/>
+      <c r="BI49" s="121"/>
+      <c r="BJ49" s="121"/>
+      <c r="BK49" s="131"/>
       <c r="BL49" s="24"/>
       <c r="BM49" s="24"/>
       <c r="BN49" s="24"/>
@@ -30714,69 +30708,69 @@
       <c r="CI49" s="17"/>
       <c r="AMK49" s="28"/>
     </row>
-    <row r="50" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1025" customFormat="1" ht="18" customHeight="1">
       <c r="B50" s="12"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
-      <c r="X50" s="112"/>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="112"/>
-      <c r="AA50" s="112"/>
-      <c r="AB50" s="112"/>
-      <c r="AC50" s="112"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="112"/>
-      <c r="AJ50" s="112"/>
-      <c r="AK50" s="112"/>
-      <c r="AL50" s="112"/>
-      <c r="AM50" s="112"/>
-      <c r="AN50" s="112"/>
-      <c r="AO50" s="112"/>
-      <c r="AP50" s="112"/>
-      <c r="AQ50" s="112"/>
-      <c r="AR50" s="112"/>
-      <c r="AS50" s="112"/>
-      <c r="AT50" s="112"/>
-      <c r="AU50" s="112"/>
-      <c r="AV50" s="112"/>
-      <c r="AW50" s="112"/>
-      <c r="AX50" s="112"/>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="112"/>
-      <c r="BA50" s="112"/>
-      <c r="BB50" s="112"/>
-      <c r="BC50" s="112"/>
-      <c r="BD50" s="112"/>
-      <c r="BE50" s="112"/>
-      <c r="BF50" s="112"/>
-      <c r="BG50" s="112"/>
-      <c r="BH50" s="112"/>
-      <c r="BI50" s="112"/>
-      <c r="BJ50" s="112"/>
-      <c r="BK50" s="113"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="133"/>
+      <c r="P50" s="133"/>
+      <c r="Q50" s="133"/>
+      <c r="R50" s="133"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="133"/>
+      <c r="U50" s="133"/>
+      <c r="V50" s="133"/>
+      <c r="W50" s="133"/>
+      <c r="X50" s="133"/>
+      <c r="Y50" s="133"/>
+      <c r="Z50" s="133"/>
+      <c r="AA50" s="133"/>
+      <c r="AB50" s="133"/>
+      <c r="AC50" s="133"/>
+      <c r="AD50" s="133"/>
+      <c r="AE50" s="133"/>
+      <c r="AF50" s="133"/>
+      <c r="AG50" s="133"/>
+      <c r="AH50" s="133"/>
+      <c r="AI50" s="133"/>
+      <c r="AJ50" s="133"/>
+      <c r="AK50" s="133"/>
+      <c r="AL50" s="133"/>
+      <c r="AM50" s="133"/>
+      <c r="AN50" s="133"/>
+      <c r="AO50" s="133"/>
+      <c r="AP50" s="133"/>
+      <c r="AQ50" s="133"/>
+      <c r="AR50" s="133"/>
+      <c r="AS50" s="133"/>
+      <c r="AT50" s="133"/>
+      <c r="AU50" s="133"/>
+      <c r="AV50" s="133"/>
+      <c r="AW50" s="133"/>
+      <c r="AX50" s="133"/>
+      <c r="AY50" s="133"/>
+      <c r="AZ50" s="133"/>
+      <c r="BA50" s="133"/>
+      <c r="BB50" s="133"/>
+      <c r="BC50" s="133"/>
+      <c r="BD50" s="133"/>
+      <c r="BE50" s="133"/>
+      <c r="BF50" s="133"/>
+      <c r="BG50" s="133"/>
+      <c r="BH50" s="133"/>
+      <c r="BI50" s="133"/>
+      <c r="BJ50" s="133"/>
+      <c r="BK50" s="134"/>
       <c r="BL50" s="24"/>
       <c r="BM50" s="24"/>
       <c r="BN50" s="24"/>
@@ -30803,7 +30797,7 @@
       <c r="CI50" s="17"/>
       <c r="AMK50" s="28"/>
     </row>
-    <row r="51" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A51"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -31829,7 +31823,7 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1025" ht="18" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -32857,7 +32851,7 @@
       <c r="AMI52" s="1"/>
       <c r="AMJ52" s="1"/>
     </row>
-    <row r="53" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A53" s="1"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
@@ -33883,7 +33877,7 @@
       <c r="AMI53" s="1"/>
       <c r="AMJ53" s="1"/>
     </row>
-    <row r="54" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1025" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A54"/>
       <c r="B54" s="43"/>
       <c r="C54" s="41"/>
@@ -34909,96 +34903,96 @@
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1025" ht="18" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="134" t="s">
+      <c r="B55" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="134"/>
-      <c r="P55" s="134"/>
-      <c r="Q55" s="134"/>
-      <c r="R55" s="134"/>
-      <c r="S55" s="134"/>
-      <c r="T55" s="134"/>
-      <c r="U55" s="134"/>
-      <c r="V55" s="134"/>
-      <c r="W55" s="134"/>
-      <c r="X55" s="134"/>
-      <c r="Y55" s="134"/>
-      <c r="Z55" s="134"/>
-      <c r="AA55" s="134"/>
-      <c r="AB55" s="134"/>
-      <c r="AC55" s="134"/>
-      <c r="AD55" s="134"/>
-      <c r="AE55" s="134"/>
-      <c r="AF55" s="134"/>
-      <c r="AG55" s="134"/>
-      <c r="AH55" s="134"/>
-      <c r="AI55" s="134"/>
-      <c r="AJ55" s="134"/>
-      <c r="AK55" s="134"/>
-      <c r="AL55" s="134"/>
-      <c r="AM55" s="134"/>
-      <c r="AN55" s="134"/>
-      <c r="AO55" s="134"/>
-      <c r="AP55" s="134"/>
-      <c r="AQ55" s="134"/>
-      <c r="AR55" s="134"/>
-      <c r="AS55" s="134"/>
-      <c r="AT55" s="134"/>
-      <c r="AU55" s="134"/>
-      <c r="AV55" s="134"/>
-      <c r="AW55" s="134"/>
-      <c r="AX55" s="134"/>
-      <c r="AY55" s="134"/>
-      <c r="AZ55" s="134"/>
-      <c r="BA55" s="134"/>
-      <c r="BB55" s="134"/>
-      <c r="BC55" s="134"/>
-      <c r="BD55" s="134"/>
-      <c r="BE55" s="134"/>
-      <c r="BF55" s="134"/>
-      <c r="BG55" s="134"/>
-      <c r="BH55" s="134"/>
-      <c r="BI55" s="134"/>
-      <c r="BJ55" s="134"/>
-      <c r="BK55" s="134"/>
-      <c r="BL55" s="134"/>
-      <c r="BM55" s="134"/>
-      <c r="BN55" s="134"/>
-      <c r="BO55" s="134"/>
-      <c r="BP55" s="134"/>
-      <c r="BQ55" s="134"/>
-      <c r="BR55" s="134"/>
-      <c r="BS55" s="134"/>
-      <c r="BT55" s="134"/>
-      <c r="BU55" s="134"/>
-      <c r="BV55" s="134"/>
-      <c r="BW55" s="134"/>
-      <c r="BX55" s="134"/>
-      <c r="BY55" s="134"/>
-      <c r="BZ55" s="134"/>
-      <c r="CA55" s="134"/>
-      <c r="CB55" s="134"/>
-      <c r="CC55" s="134"/>
-      <c r="CD55" s="134"/>
-      <c r="CE55" s="134"/>
-      <c r="CF55" s="134"/>
-      <c r="CG55" s="134"/>
-      <c r="CH55" s="134"/>
-      <c r="CI55" s="134"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+      <c r="Z55" s="64"/>
+      <c r="AA55" s="64"/>
+      <c r="AB55" s="64"/>
+      <c r="AC55" s="64"/>
+      <c r="AD55" s="64"/>
+      <c r="AE55" s="64"/>
+      <c r="AF55" s="64"/>
+      <c r="AG55" s="64"/>
+      <c r="AH55" s="64"/>
+      <c r="AI55" s="64"/>
+      <c r="AJ55" s="64"/>
+      <c r="AK55" s="64"/>
+      <c r="AL55" s="64"/>
+      <c r="AM55" s="64"/>
+      <c r="AN55" s="64"/>
+      <c r="AO55" s="64"/>
+      <c r="AP55" s="64"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="64"/>
+      <c r="AS55" s="64"/>
+      <c r="AT55" s="64"/>
+      <c r="AU55" s="64"/>
+      <c r="AV55" s="64"/>
+      <c r="AW55" s="64"/>
+      <c r="AX55" s="64"/>
+      <c r="AY55" s="64"/>
+      <c r="AZ55" s="64"/>
+      <c r="BA55" s="64"/>
+      <c r="BB55" s="64"/>
+      <c r="BC55" s="64"/>
+      <c r="BD55" s="64"/>
+      <c r="BE55" s="64"/>
+      <c r="BF55" s="64"/>
+      <c r="BG55" s="64"/>
+      <c r="BH55" s="64"/>
+      <c r="BI55" s="64"/>
+      <c r="BJ55" s="64"/>
+      <c r="BK55" s="64"/>
+      <c r="BL55" s="64"/>
+      <c r="BM55" s="64"/>
+      <c r="BN55" s="64"/>
+      <c r="BO55" s="64"/>
+      <c r="BP55" s="64"/>
+      <c r="BQ55" s="64"/>
+      <c r="BR55" s="64"/>
+      <c r="BS55" s="64"/>
+      <c r="BT55" s="64"/>
+      <c r="BU55" s="64"/>
+      <c r="BV55" s="64"/>
+      <c r="BW55" s="64"/>
+      <c r="BX55" s="64"/>
+      <c r="BY55" s="64"/>
+      <c r="BZ55" s="64"/>
+      <c r="CA55" s="64"/>
+      <c r="CB55" s="64"/>
+      <c r="CC55" s="64"/>
+      <c r="CD55" s="64"/>
+      <c r="CE55" s="64"/>
+      <c r="CF55" s="64"/>
+      <c r="CG55" s="64"/>
+      <c r="CH55" s="64"/>
+      <c r="CI55" s="64"/>
       <c r="CJ55" s="1"/>
       <c r="CK55" s="1"/>
       <c r="CL55" s="1"/>
@@ -35937,7 +35931,7 @@
       <c r="AMI55" s="1"/>
       <c r="AMJ55" s="1"/>
     </row>
-    <row r="56" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1025" ht="18" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="43"/>
       <c r="C56" s="41"/>
@@ -36963,7 +36957,7 @@
       <c r="AMI56" s="1"/>
       <c r="AMJ56" s="1"/>
     </row>
-    <row r="57" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1025" ht="18" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="43"/>
       <c r="C57" s="41"/>
@@ -37989,7 +37983,7 @@
       <c r="AMI57" s="1"/>
       <c r="AMJ57" s="1"/>
     </row>
-    <row r="58" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1025" customFormat="1" ht="18" customHeight="1">
       <c r="B58" s="43"/>
       <c r="C58" s="41"/>
       <c r="D58" s="41"/>
@@ -38078,69 +38072,69 @@
       <c r="CI58" s="43"/>
       <c r="AMK58" s="28"/>
     </row>
-    <row r="59" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1025" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="43"/>
       <c r="C59" s="41"/>
       <c r="D59" s="42"/>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="54"/>
-      <c r="AI59" s="54"/>
-      <c r="AJ59" s="54"/>
-      <c r="AK59" s="54"/>
-      <c r="AL59" s="54"/>
-      <c r="AM59" s="54"/>
-      <c r="AN59" s="54"/>
-      <c r="AO59" s="54"/>
-      <c r="AP59" s="54"/>
-      <c r="AQ59" s="54"/>
-      <c r="AR59" s="54"/>
-      <c r="AS59" s="54"/>
-      <c r="AT59" s="54"/>
-      <c r="AU59" s="54"/>
-      <c r="AV59" s="54"/>
-      <c r="AW59" s="54"/>
-      <c r="AX59" s="54"/>
-      <c r="AY59" s="54"/>
-      <c r="AZ59" s="54"/>
-      <c r="BA59" s="54"/>
-      <c r="BB59" s="54"/>
-      <c r="BC59" s="54"/>
-      <c r="BD59" s="54"/>
-      <c r="BE59" s="54"/>
-      <c r="BF59" s="54"/>
-      <c r="BG59" s="54"/>
-      <c r="BH59" s="54"/>
-      <c r="BI59" s="54"/>
-      <c r="BJ59" s="54"/>
-      <c r="BK59" s="54"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="75"/>
+      <c r="O59" s="75"/>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="75"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="75"/>
+      <c r="T59" s="75"/>
+      <c r="U59" s="75"/>
+      <c r="V59" s="75"/>
+      <c r="W59" s="75"/>
+      <c r="X59" s="75"/>
+      <c r="Y59" s="75"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="74"/>
+      <c r="AI59" s="74"/>
+      <c r="AJ59" s="74"/>
+      <c r="AK59" s="74"/>
+      <c r="AL59" s="74"/>
+      <c r="AM59" s="74"/>
+      <c r="AN59" s="74"/>
+      <c r="AO59" s="74"/>
+      <c r="AP59" s="74"/>
+      <c r="AQ59" s="74"/>
+      <c r="AR59" s="74"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="74"/>
+      <c r="AU59" s="74"/>
+      <c r="AV59" s="74"/>
+      <c r="AW59" s="74"/>
+      <c r="AX59" s="74"/>
+      <c r="AY59" s="74"/>
+      <c r="AZ59" s="74"/>
+      <c r="BA59" s="74"/>
+      <c r="BB59" s="74"/>
+      <c r="BC59" s="74"/>
+      <c r="BD59" s="74"/>
+      <c r="BE59" s="74"/>
+      <c r="BF59" s="74"/>
+      <c r="BG59" s="74"/>
+      <c r="BH59" s="74"/>
+      <c r="BI59" s="74"/>
+      <c r="BJ59" s="74"/>
+      <c r="BK59" s="74"/>
       <c r="BL59" s="42"/>
       <c r="BM59" s="42"/>
       <c r="BN59" s="42"/>
@@ -38167,69 +38161,69 @@
       <c r="CI59" s="43"/>
       <c r="AMK59" s="28"/>
     </row>
-    <row r="60" spans="1:1025" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1025" customFormat="1" ht="18" customHeight="1">
       <c r="B60" s="43"/>
       <c r="C60" s="41"/>
       <c r="D60" s="42"/>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-      <c r="AH60" s="54"/>
-      <c r="AI60" s="54"/>
-      <c r="AJ60" s="54"/>
-      <c r="AK60" s="54"/>
-      <c r="AL60" s="54"/>
-      <c r="AM60" s="54"/>
-      <c r="AN60" s="54"/>
-      <c r="AO60" s="54"/>
-      <c r="AP60" s="54"/>
-      <c r="AQ60" s="54"/>
-      <c r="AR60" s="54"/>
-      <c r="AS60" s="54"/>
-      <c r="AT60" s="54"/>
-      <c r="AU60" s="54"/>
-      <c r="AV60" s="54"/>
-      <c r="AW60" s="54"/>
-      <c r="AX60" s="54"/>
-      <c r="AY60" s="54"/>
-      <c r="AZ60" s="54"/>
-      <c r="BA60" s="54"/>
-      <c r="BB60" s="54"/>
-      <c r="BC60" s="54"/>
-      <c r="BD60" s="54"/>
-      <c r="BE60" s="54"/>
-      <c r="BF60" s="54"/>
-      <c r="BG60" s="54"/>
-      <c r="BH60" s="54"/>
-      <c r="BI60" s="54"/>
-      <c r="BJ60" s="54"/>
-      <c r="BK60" s="54"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="75"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="75"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="75"/>
+      <c r="V60" s="75"/>
+      <c r="W60" s="75"/>
+      <c r="X60" s="75"/>
+      <c r="Y60" s="75"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="74"/>
+      <c r="AE60" s="74"/>
+      <c r="AF60" s="74"/>
+      <c r="AG60" s="74"/>
+      <c r="AH60" s="74"/>
+      <c r="AI60" s="74"/>
+      <c r="AJ60" s="74"/>
+      <c r="AK60" s="74"/>
+      <c r="AL60" s="74"/>
+      <c r="AM60" s="74"/>
+      <c r="AN60" s="74"/>
+      <c r="AO60" s="74"/>
+      <c r="AP60" s="74"/>
+      <c r="AQ60" s="74"/>
+      <c r="AR60" s="74"/>
+      <c r="AS60" s="74"/>
+      <c r="AT60" s="74"/>
+      <c r="AU60" s="74"/>
+      <c r="AV60" s="74"/>
+      <c r="AW60" s="74"/>
+      <c r="AX60" s="74"/>
+      <c r="AY60" s="74"/>
+      <c r="AZ60" s="74"/>
+      <c r="BA60" s="74"/>
+      <c r="BB60" s="74"/>
+      <c r="BC60" s="74"/>
+      <c r="BD60" s="74"/>
+      <c r="BE60" s="74"/>
+      <c r="BF60" s="74"/>
+      <c r="BG60" s="74"/>
+      <c r="BH60" s="74"/>
+      <c r="BI60" s="74"/>
+      <c r="BJ60" s="74"/>
+      <c r="BK60" s="74"/>
       <c r="BL60" s="42"/>
       <c r="BM60" s="42"/>
       <c r="BN60" s="42"/>
@@ -38256,32 +38250,32 @@
       <c r="CI60" s="43"/>
       <c r="AMK60" s="28"/>
     </row>
-    <row r="61" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1025" ht="18" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="43"/>
       <c r="C61" s="41"/>
       <c r="D61" s="42"/>
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="53"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="75"/>
+      <c r="V61" s="75"/>
+      <c r="W61" s="75"/>
+      <c r="X61" s="75"/>
+      <c r="Y61" s="75"/>
       <c r="Z61" s="41"/>
       <c r="AA61" s="41"/>
       <c r="AB61" s="41"/>
@@ -39282,7 +39276,7 @@
       <c r="AMI61" s="1"/>
       <c r="AMJ61" s="1"/>
     </row>
-    <row r="62" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1025" ht="18" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="43"/>
       <c r="C62" s="41"/>
@@ -40308,7 +40302,7 @@
       <c r="AMI62" s="1"/>
       <c r="AMJ62" s="1"/>
     </row>
-    <row r="63" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1025" ht="18" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="43"/>
       <c r="C63" s="41"/>
@@ -41334,7 +41328,7 @@
       <c r="AMI63" s="1"/>
       <c r="AMJ63" s="1"/>
     </row>
-    <row r="64" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1025" ht="18" customHeight="1">
       <c r="A64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
@@ -42274,94 +42268,94 @@
       <c r="AMI64" s="1"/>
       <c r="AMJ64" s="1"/>
     </row>
-    <row r="65" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1024" ht="18" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="X65" s="65"/>
-      <c r="Y65" s="66"/>
-      <c r="Z65" s="66"/>
-      <c r="AA65" s="66"/>
-      <c r="AB65" s="66"/>
-      <c r="AC65" s="66"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="66"/>
-      <c r="AK65" s="66"/>
-      <c r="AL65" s="66"/>
-      <c r="AM65" s="66"/>
-      <c r="AN65" s="66"/>
-      <c r="AO65" s="66"/>
-      <c r="AP65" s="66"/>
-      <c r="AQ65" s="66"/>
-      <c r="AR65" s="66"/>
-      <c r="AS65" s="64"/>
-      <c r="AT65" s="64"/>
-      <c r="AU65" s="64"/>
-      <c r="AV65" s="64"/>
-      <c r="AW65" s="64"/>
-      <c r="AX65" s="64"/>
-      <c r="AY65" s="64"/>
-      <c r="AZ65" s="64"/>
-      <c r="BA65" s="64"/>
-      <c r="BB65" s="64"/>
-      <c r="BC65" s="64"/>
-      <c r="BD65" s="64"/>
-      <c r="BE65" s="64"/>
-      <c r="BF65" s="64"/>
-      <c r="BG65" s="64"/>
-      <c r="BH65" s="64"/>
-      <c r="BI65" s="64"/>
-      <c r="BJ65" s="64"/>
-      <c r="BK65" s="64"/>
-      <c r="BL65" s="64"/>
-      <c r="BM65" s="64"/>
-      <c r="BN65" s="64"/>
-      <c r="BO65" s="64"/>
-      <c r="BP65" s="64"/>
-      <c r="BQ65" s="64"/>
-      <c r="BR65" s="64"/>
-      <c r="BS65" s="64"/>
-      <c r="BT65" s="64"/>
-      <c r="BU65" s="64"/>
-      <c r="BV65" s="64"/>
-      <c r="BW65" s="64"/>
-      <c r="BX65" s="64"/>
-      <c r="BY65" s="64"/>
-      <c r="BZ65" s="64"/>
-      <c r="CA65" s="64"/>
-      <c r="CB65" s="64"/>
-      <c r="CC65" s="64"/>
-      <c r="CD65" s="64"/>
-      <c r="CE65" s="64"/>
-      <c r="CF65" s="64"/>
-      <c r="CG65" s="64"/>
-      <c r="CH65" s="64"/>
-      <c r="CI65" s="64"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="119"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="119"/>
+      <c r="S65" s="119"/>
+      <c r="T65" s="119"/>
+      <c r="U65" s="119"/>
+      <c r="V65" s="119"/>
+      <c r="W65" s="119"/>
+      <c r="X65" s="119"/>
+      <c r="Y65" s="120"/>
+      <c r="Z65" s="120"/>
+      <c r="AA65" s="120"/>
+      <c r="AB65" s="120"/>
+      <c r="AC65" s="120"/>
+      <c r="AD65" s="120"/>
+      <c r="AE65" s="120"/>
+      <c r="AF65" s="120"/>
+      <c r="AG65" s="120"/>
+      <c r="AH65" s="120"/>
+      <c r="AI65" s="120"/>
+      <c r="AJ65" s="120"/>
+      <c r="AK65" s="120"/>
+      <c r="AL65" s="120"/>
+      <c r="AM65" s="120"/>
+      <c r="AN65" s="120"/>
+      <c r="AO65" s="120"/>
+      <c r="AP65" s="120"/>
+      <c r="AQ65" s="120"/>
+      <c r="AR65" s="120"/>
+      <c r="AS65" s="118"/>
+      <c r="AT65" s="118"/>
+      <c r="AU65" s="118"/>
+      <c r="AV65" s="118"/>
+      <c r="AW65" s="118"/>
+      <c r="AX65" s="118"/>
+      <c r="AY65" s="118"/>
+      <c r="AZ65" s="118"/>
+      <c r="BA65" s="118"/>
+      <c r="BB65" s="118"/>
+      <c r="BC65" s="118"/>
+      <c r="BD65" s="118"/>
+      <c r="BE65" s="118"/>
+      <c r="BF65" s="118"/>
+      <c r="BG65" s="118"/>
+      <c r="BH65" s="118"/>
+      <c r="BI65" s="118"/>
+      <c r="BJ65" s="118"/>
+      <c r="BK65" s="118"/>
+      <c r="BL65" s="118"/>
+      <c r="BM65" s="118"/>
+      <c r="BN65" s="118"/>
+      <c r="BO65" s="118"/>
+      <c r="BP65" s="118"/>
+      <c r="BQ65" s="118"/>
+      <c r="BR65" s="118"/>
+      <c r="BS65" s="118"/>
+      <c r="BT65" s="118"/>
+      <c r="BU65" s="118"/>
+      <c r="BV65" s="118"/>
+      <c r="BW65" s="118"/>
+      <c r="BX65" s="118"/>
+      <c r="BY65" s="118"/>
+      <c r="BZ65" s="118"/>
+      <c r="CA65" s="118"/>
+      <c r="CB65" s="118"/>
+      <c r="CC65" s="118"/>
+      <c r="CD65" s="118"/>
+      <c r="CE65" s="118"/>
+      <c r="CF65" s="118"/>
+      <c r="CG65" s="118"/>
+      <c r="CH65" s="118"/>
+      <c r="CI65" s="118"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
       <c r="CL65" s="1"/>
@@ -43300,95 +43294,95 @@
       <c r="AMI65" s="1"/>
       <c r="AMJ65" s="1"/>
     </row>
-    <row r="66" spans="1:1024" x14ac:dyDescent="0.45">
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55"/>
-      <c r="W66" s="55"/>
-      <c r="X66" s="55"/>
-      <c r="Y66" s="55"/>
-      <c r="Z66" s="55"/>
-      <c r="AA66" s="55"/>
-      <c r="AB66" s="55"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="55"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="55"/>
-      <c r="AI66" s="55"/>
-      <c r="AJ66" s="55"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
-      <c r="AM66" s="55"/>
-      <c r="AN66" s="55"/>
-      <c r="AO66" s="55"/>
-      <c r="AP66" s="55"/>
-      <c r="AQ66" s="55"/>
-      <c r="AR66" s="55"/>
-      <c r="AS66" s="55"/>
-      <c r="AT66" s="55"/>
-      <c r="AU66" s="55"/>
-      <c r="AV66" s="55"/>
-      <c r="AW66" s="55"/>
-      <c r="AX66" s="55"/>
-      <c r="AY66" s="55"/>
-      <c r="AZ66" s="55"/>
-      <c r="BA66" s="55"/>
-      <c r="BB66" s="55"/>
-      <c r="BC66" s="55"/>
-      <c r="BD66" s="55"/>
-      <c r="BE66" s="55"/>
-      <c r="BF66" s="55"/>
-      <c r="BG66" s="55"/>
-      <c r="BH66" s="55"/>
-      <c r="BI66" s="55"/>
-      <c r="BJ66" s="55"/>
-      <c r="BK66" s="55"/>
-      <c r="BL66" s="55"/>
-      <c r="BM66" s="55"/>
-      <c r="BN66" s="55"/>
-      <c r="BO66" s="55"/>
-      <c r="BP66" s="55"/>
-      <c r="BQ66" s="55"/>
-      <c r="BR66" s="55"/>
-      <c r="BS66" s="55"/>
-      <c r="BT66" s="55"/>
-      <c r="BU66" s="55"/>
-      <c r="BV66" s="55"/>
-      <c r="BW66" s="55"/>
-      <c r="BX66" s="55"/>
-      <c r="BY66" s="55"/>
-      <c r="BZ66" s="55"/>
-      <c r="CA66" s="55"/>
-      <c r="CB66" s="55"/>
-      <c r="CC66" s="55"/>
-      <c r="CD66" s="55"/>
-      <c r="CE66" s="55"/>
-      <c r="CF66" s="55"/>
-      <c r="CG66" s="55"/>
-      <c r="CH66" s="55"/>
-      <c r="CI66" s="55"/>
+    <row r="66" spans="1:1024">
+      <c r="B66" s="116"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="117"/>
+      <c r="T66" s="117"/>
+      <c r="U66" s="117"/>
+      <c r="V66" s="117"/>
+      <c r="W66" s="117"/>
+      <c r="X66" s="117"/>
+      <c r="Y66" s="117"/>
+      <c r="Z66" s="117"/>
+      <c r="AA66" s="117"/>
+      <c r="AB66" s="117"/>
+      <c r="AC66" s="117"/>
+      <c r="AD66" s="117"/>
+      <c r="AE66" s="117"/>
+      <c r="AF66" s="117"/>
+      <c r="AG66" s="117"/>
+      <c r="AH66" s="117"/>
+      <c r="AI66" s="117"/>
+      <c r="AJ66" s="117"/>
+      <c r="AK66" s="117"/>
+      <c r="AL66" s="117"/>
+      <c r="AM66" s="117"/>
+      <c r="AN66" s="117"/>
+      <c r="AO66" s="117"/>
+      <c r="AP66" s="117"/>
+      <c r="AQ66" s="117"/>
+      <c r="AR66" s="117"/>
+      <c r="AS66" s="117"/>
+      <c r="AT66" s="117"/>
+      <c r="AU66" s="117"/>
+      <c r="AV66" s="117"/>
+      <c r="AW66" s="117"/>
+      <c r="AX66" s="117"/>
+      <c r="AY66" s="117"/>
+      <c r="AZ66" s="117"/>
+      <c r="BA66" s="117"/>
+      <c r="BB66" s="117"/>
+      <c r="BC66" s="117"/>
+      <c r="BD66" s="117"/>
+      <c r="BE66" s="117"/>
+      <c r="BF66" s="117"/>
+      <c r="BG66" s="117"/>
+      <c r="BH66" s="117"/>
+      <c r="BI66" s="117"/>
+      <c r="BJ66" s="117"/>
+      <c r="BK66" s="117"/>
+      <c r="BL66" s="117"/>
+      <c r="BM66" s="117"/>
+      <c r="BN66" s="117"/>
+      <c r="BO66" s="117"/>
+      <c r="BP66" s="117"/>
+      <c r="BQ66" s="117"/>
+      <c r="BR66" s="117"/>
+      <c r="BS66" s="117"/>
+      <c r="BT66" s="117"/>
+      <c r="BU66" s="117"/>
+      <c r="BV66" s="117"/>
+      <c r="BW66" s="117"/>
+      <c r="BX66" s="117"/>
+      <c r="BY66" s="117"/>
+      <c r="BZ66" s="117"/>
+      <c r="CA66" s="117"/>
+      <c r="CB66" s="117"/>
+      <c r="CC66" s="117"/>
+      <c r="CD66" s="117"/>
+      <c r="CE66" s="117"/>
+      <c r="CF66" s="117"/>
+      <c r="CG66" s="117"/>
+      <c r="CH66" s="117"/>
+      <c r="CI66" s="117"/>
     </row>
-    <row r="67" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1024">
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="37"/>
@@ -43477,7 +43471,7 @@
       <c r="CI67" s="16"/>
       <c r="CJ67" s="36"/>
     </row>
-    <row r="68" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1024">
       <c r="B68" s="16"/>
       <c r="C68" s="33"/>
       <c r="D68" s="34"/>
@@ -43566,7 +43560,7 @@
       <c r="CI68" s="16"/>
       <c r="CJ68" s="36"/>
     </row>
-    <row r="69" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1024">
       <c r="B69" s="16"/>
       <c r="C69" s="33"/>
       <c r="D69" s="34"/>
@@ -43655,7 +43649,7 @@
       <c r="CI69" s="16"/>
       <c r="CJ69" s="36"/>
     </row>
-    <row r="70" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1024">
       <c r="B70" s="16"/>
       <c r="C70" s="33"/>
       <c r="D70" s="34"/>
@@ -43744,69 +43738,69 @@
       <c r="CI70" s="16"/>
       <c r="CJ70" s="36"/>
     </row>
-    <row r="71" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1024">
       <c r="B71" s="16"/>
       <c r="C71" s="33"/>
       <c r="D71" s="34"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="58"/>
-      <c r="R71" s="58"/>
-      <c r="S71" s="58"/>
-      <c r="T71" s="58"/>
-      <c r="U71" s="58"/>
-      <c r="V71" s="58"/>
-      <c r="W71" s="58"/>
-      <c r="X71" s="58"/>
-      <c r="Y71" s="58"/>
-      <c r="Z71" s="58"/>
-      <c r="AA71" s="58"/>
-      <c r="AB71" s="58"/>
-      <c r="AC71" s="58"/>
-      <c r="AD71" s="58"/>
-      <c r="AE71" s="58"/>
-      <c r="AF71" s="58"/>
-      <c r="AG71" s="58"/>
-      <c r="AH71" s="58"/>
-      <c r="AI71" s="58"/>
-      <c r="AJ71" s="58"/>
-      <c r="AK71" s="58"/>
-      <c r="AL71" s="58"/>
-      <c r="AM71" s="58"/>
-      <c r="AN71" s="58"/>
-      <c r="AO71" s="58"/>
-      <c r="AP71" s="58"/>
-      <c r="AQ71" s="58"/>
-      <c r="AR71" s="58"/>
-      <c r="AS71" s="58"/>
-      <c r="AT71" s="58"/>
-      <c r="AU71" s="58"/>
-      <c r="AV71" s="58"/>
-      <c r="AW71" s="59"/>
-      <c r="AX71" s="59"/>
-      <c r="AY71" s="59"/>
-      <c r="AZ71" s="59"/>
-      <c r="BA71" s="59"/>
-      <c r="BB71" s="59"/>
-      <c r="BC71" s="59"/>
-      <c r="BD71" s="59"/>
-      <c r="BE71" s="59"/>
-      <c r="BF71" s="59"/>
-      <c r="BG71" s="59"/>
-      <c r="BH71" s="59"/>
-      <c r="BI71" s="59"/>
-      <c r="BJ71" s="59"/>
-      <c r="BK71" s="59"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="124"/>
+      <c r="O71" s="124"/>
+      <c r="P71" s="124"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="124"/>
+      <c r="T71" s="124"/>
+      <c r="U71" s="124"/>
+      <c r="V71" s="124"/>
+      <c r="W71" s="124"/>
+      <c r="X71" s="124"/>
+      <c r="Y71" s="124"/>
+      <c r="Z71" s="124"/>
+      <c r="AA71" s="124"/>
+      <c r="AB71" s="124"/>
+      <c r="AC71" s="124"/>
+      <c r="AD71" s="124"/>
+      <c r="AE71" s="124"/>
+      <c r="AF71" s="124"/>
+      <c r="AG71" s="124"/>
+      <c r="AH71" s="124"/>
+      <c r="AI71" s="124"/>
+      <c r="AJ71" s="124"/>
+      <c r="AK71" s="124"/>
+      <c r="AL71" s="124"/>
+      <c r="AM71" s="124"/>
+      <c r="AN71" s="124"/>
+      <c r="AO71" s="124"/>
+      <c r="AP71" s="124"/>
+      <c r="AQ71" s="124"/>
+      <c r="AR71" s="124"/>
+      <c r="AS71" s="124"/>
+      <c r="AT71" s="124"/>
+      <c r="AU71" s="124"/>
+      <c r="AV71" s="124"/>
+      <c r="AW71" s="125"/>
+      <c r="AX71" s="125"/>
+      <c r="AY71" s="125"/>
+      <c r="AZ71" s="125"/>
+      <c r="BA71" s="125"/>
+      <c r="BB71" s="125"/>
+      <c r="BC71" s="125"/>
+      <c r="BD71" s="125"/>
+      <c r="BE71" s="125"/>
+      <c r="BF71" s="125"/>
+      <c r="BG71" s="125"/>
+      <c r="BH71" s="125"/>
+      <c r="BI71" s="125"/>
+      <c r="BJ71" s="125"/>
+      <c r="BK71" s="125"/>
       <c r="BL71" s="34"/>
       <c r="BM71" s="34"/>
       <c r="BN71" s="34"/>
@@ -43833,69 +43827,69 @@
       <c r="CI71" s="16"/>
       <c r="CJ71" s="36"/>
     </row>
-    <row r="72" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1024">
       <c r="B72" s="16"/>
       <c r="C72" s="33"/>
       <c r="D72" s="34"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="60"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="60"/>
-      <c r="AA72" s="60"/>
-      <c r="AB72" s="60"/>
-      <c r="AC72" s="60"/>
-      <c r="AD72" s="60"/>
-      <c r="AE72" s="60"/>
-      <c r="AF72" s="60"/>
-      <c r="AG72" s="60"/>
-      <c r="AH72" s="60"/>
-      <c r="AI72" s="60"/>
-      <c r="AJ72" s="60"/>
-      <c r="AK72" s="60"/>
-      <c r="AL72" s="60"/>
-      <c r="AM72" s="60"/>
-      <c r="AN72" s="60"/>
-      <c r="AO72" s="60"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="60"/>
-      <c r="AR72" s="60"/>
-      <c r="AS72" s="60"/>
-      <c r="AT72" s="60"/>
-      <c r="AU72" s="60"/>
-      <c r="AV72" s="60"/>
-      <c r="AW72" s="59"/>
-      <c r="AX72" s="59"/>
-      <c r="AY72" s="59"/>
-      <c r="AZ72" s="59"/>
-      <c r="BA72" s="59"/>
-      <c r="BB72" s="59"/>
-      <c r="BC72" s="59"/>
-      <c r="BD72" s="59"/>
-      <c r="BE72" s="59"/>
-      <c r="BF72" s="59"/>
-      <c r="BG72" s="59"/>
-      <c r="BH72" s="59"/>
-      <c r="BI72" s="59"/>
-      <c r="BJ72" s="59"/>
-      <c r="BK72" s="59"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="126"/>
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="126"/>
+      <c r="Q72" s="126"/>
+      <c r="R72" s="126"/>
+      <c r="S72" s="126"/>
+      <c r="T72" s="126"/>
+      <c r="U72" s="126"/>
+      <c r="V72" s="126"/>
+      <c r="W72" s="126"/>
+      <c r="X72" s="126"/>
+      <c r="Y72" s="126"/>
+      <c r="Z72" s="126"/>
+      <c r="AA72" s="126"/>
+      <c r="AB72" s="126"/>
+      <c r="AC72" s="126"/>
+      <c r="AD72" s="126"/>
+      <c r="AE72" s="126"/>
+      <c r="AF72" s="126"/>
+      <c r="AG72" s="126"/>
+      <c r="AH72" s="126"/>
+      <c r="AI72" s="126"/>
+      <c r="AJ72" s="126"/>
+      <c r="AK72" s="126"/>
+      <c r="AL72" s="126"/>
+      <c r="AM72" s="126"/>
+      <c r="AN72" s="126"/>
+      <c r="AO72" s="126"/>
+      <c r="AP72" s="126"/>
+      <c r="AQ72" s="126"/>
+      <c r="AR72" s="126"/>
+      <c r="AS72" s="126"/>
+      <c r="AT72" s="126"/>
+      <c r="AU72" s="126"/>
+      <c r="AV72" s="126"/>
+      <c r="AW72" s="125"/>
+      <c r="AX72" s="125"/>
+      <c r="AY72" s="125"/>
+      <c r="AZ72" s="125"/>
+      <c r="BA72" s="125"/>
+      <c r="BB72" s="125"/>
+      <c r="BC72" s="125"/>
+      <c r="BD72" s="125"/>
+      <c r="BE72" s="125"/>
+      <c r="BF72" s="125"/>
+      <c r="BG72" s="125"/>
+      <c r="BH72" s="125"/>
+      <c r="BI72" s="125"/>
+      <c r="BJ72" s="125"/>
+      <c r="BK72" s="125"/>
       <c r="BL72" s="34"/>
       <c r="BM72" s="34"/>
       <c r="BN72" s="34"/>
@@ -43922,69 +43916,69 @@
       <c r="CI72" s="16"/>
       <c r="CJ72" s="36"/>
     </row>
-    <row r="73" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1024">
       <c r="B73" s="16"/>
       <c r="C73" s="33"/>
       <c r="D73" s="34"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="55"/>
-      <c r="X73" s="55"/>
-      <c r="Y73" s="55"/>
-      <c r="Z73" s="55"/>
-      <c r="AA73" s="55"/>
-      <c r="AB73" s="55"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="55"/>
-      <c r="AI73" s="55"/>
-      <c r="AJ73" s="55"/>
-      <c r="AK73" s="55"/>
-      <c r="AL73" s="55"/>
-      <c r="AM73" s="55"/>
-      <c r="AN73" s="55"/>
-      <c r="AO73" s="55"/>
-      <c r="AP73" s="55"/>
-      <c r="AQ73" s="55"/>
-      <c r="AR73" s="55"/>
-      <c r="AS73" s="55"/>
-      <c r="AT73" s="55"/>
-      <c r="AU73" s="55"/>
-      <c r="AV73" s="55"/>
-      <c r="AW73" s="56"/>
-      <c r="AX73" s="56"/>
-      <c r="AY73" s="56"/>
-      <c r="AZ73" s="56"/>
-      <c r="BA73" s="56"/>
-      <c r="BB73" s="56"/>
-      <c r="BC73" s="56"/>
-      <c r="BD73" s="56"/>
-      <c r="BE73" s="56"/>
-      <c r="BF73" s="56"/>
-      <c r="BG73" s="56"/>
-      <c r="BH73" s="56"/>
-      <c r="BI73" s="56"/>
-      <c r="BJ73" s="56"/>
-      <c r="BK73" s="56"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="117"/>
+      <c r="T73" s="117"/>
+      <c r="U73" s="117"/>
+      <c r="V73" s="117"/>
+      <c r="W73" s="117"/>
+      <c r="X73" s="117"/>
+      <c r="Y73" s="117"/>
+      <c r="Z73" s="117"/>
+      <c r="AA73" s="117"/>
+      <c r="AB73" s="117"/>
+      <c r="AC73" s="117"/>
+      <c r="AD73" s="117"/>
+      <c r="AE73" s="117"/>
+      <c r="AF73" s="117"/>
+      <c r="AG73" s="117"/>
+      <c r="AH73" s="117"/>
+      <c r="AI73" s="117"/>
+      <c r="AJ73" s="117"/>
+      <c r="AK73" s="117"/>
+      <c r="AL73" s="117"/>
+      <c r="AM73" s="117"/>
+      <c r="AN73" s="117"/>
+      <c r="AO73" s="117"/>
+      <c r="AP73" s="117"/>
+      <c r="AQ73" s="117"/>
+      <c r="AR73" s="117"/>
+      <c r="AS73" s="117"/>
+      <c r="AT73" s="117"/>
+      <c r="AU73" s="117"/>
+      <c r="AV73" s="117"/>
+      <c r="AW73" s="122"/>
+      <c r="AX73" s="122"/>
+      <c r="AY73" s="122"/>
+      <c r="AZ73" s="122"/>
+      <c r="BA73" s="122"/>
+      <c r="BB73" s="122"/>
+      <c r="BC73" s="122"/>
+      <c r="BD73" s="122"/>
+      <c r="BE73" s="122"/>
+      <c r="BF73" s="122"/>
+      <c r="BG73" s="122"/>
+      <c r="BH73" s="122"/>
+      <c r="BI73" s="122"/>
+      <c r="BJ73" s="122"/>
+      <c r="BK73" s="122"/>
       <c r="BL73" s="34"/>
       <c r="BM73" s="34"/>
       <c r="BN73" s="34"/>
@@ -44011,7 +44005,7 @@
       <c r="CI73" s="16"/>
       <c r="CJ73" s="36"/>
     </row>
-    <row r="74" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1024">
       <c r="B74" s="16"/>
       <c r="C74" s="33"/>
       <c r="D74" s="34"/>
@@ -44100,7 +44094,7 @@
       <c r="CI74" s="16"/>
       <c r="CJ74" s="36"/>
     </row>
-    <row r="75" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1024">
       <c r="B75" s="16"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -44189,7 +44183,7 @@
       <c r="CI75" s="16"/>
       <c r="CJ75" s="36"/>
     </row>
-    <row r="76" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1024">
       <c r="B76" s="16"/>
       <c r="C76" s="33"/>
       <c r="D76" s="34"/>
@@ -44278,7 +44272,7 @@
       <c r="CI76" s="16"/>
       <c r="CJ76" s="36"/>
     </row>
-    <row r="77" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1024">
       <c r="B77" s="16"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -44367,69 +44361,69 @@
       <c r="CI77" s="16"/>
       <c r="CJ77" s="36"/>
     </row>
-    <row r="78" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1024">
       <c r="B78" s="16"/>
       <c r="C78" s="33"/>
       <c r="D78" s="34"/>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
-      <c r="V78" s="57"/>
-      <c r="W78" s="57"/>
-      <c r="X78" s="57"/>
-      <c r="Y78" s="57"/>
-      <c r="Z78" s="57"/>
-      <c r="AA78" s="57"/>
-      <c r="AB78" s="57"/>
-      <c r="AC78" s="57"/>
-      <c r="AD78" s="57"/>
-      <c r="AE78" s="57"/>
-      <c r="AF78" s="57"/>
-      <c r="AG78" s="57"/>
-      <c r="AH78" s="57"/>
-      <c r="AI78" s="57"/>
-      <c r="AJ78" s="57"/>
-      <c r="AK78" s="57"/>
-      <c r="AL78" s="57"/>
-      <c r="AM78" s="57"/>
-      <c r="AN78" s="57"/>
-      <c r="AO78" s="57"/>
-      <c r="AP78" s="57"/>
-      <c r="AQ78" s="57"/>
-      <c r="AR78" s="57"/>
-      <c r="AS78" s="57"/>
-      <c r="AT78" s="57"/>
-      <c r="AU78" s="57"/>
-      <c r="AV78" s="57"/>
-      <c r="AW78" s="57"/>
-      <c r="AX78" s="57"/>
-      <c r="AY78" s="57"/>
-      <c r="AZ78" s="57"/>
-      <c r="BA78" s="57"/>
-      <c r="BB78" s="57"/>
-      <c r="BC78" s="57"/>
-      <c r="BD78" s="57"/>
-      <c r="BE78" s="57"/>
-      <c r="BF78" s="57"/>
-      <c r="BG78" s="57"/>
-      <c r="BH78" s="57"/>
-      <c r="BI78" s="57"/>
-      <c r="BJ78" s="57"/>
-      <c r="BK78" s="57"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+      <c r="O78" s="123"/>
+      <c r="P78" s="123"/>
+      <c r="Q78" s="123"/>
+      <c r="R78" s="123"/>
+      <c r="S78" s="123"/>
+      <c r="T78" s="123"/>
+      <c r="U78" s="123"/>
+      <c r="V78" s="123"/>
+      <c r="W78" s="123"/>
+      <c r="X78" s="123"/>
+      <c r="Y78" s="123"/>
+      <c r="Z78" s="123"/>
+      <c r="AA78" s="123"/>
+      <c r="AB78" s="123"/>
+      <c r="AC78" s="123"/>
+      <c r="AD78" s="123"/>
+      <c r="AE78" s="123"/>
+      <c r="AF78" s="123"/>
+      <c r="AG78" s="123"/>
+      <c r="AH78" s="123"/>
+      <c r="AI78" s="123"/>
+      <c r="AJ78" s="123"/>
+      <c r="AK78" s="123"/>
+      <c r="AL78" s="123"/>
+      <c r="AM78" s="123"/>
+      <c r="AN78" s="123"/>
+      <c r="AO78" s="123"/>
+      <c r="AP78" s="123"/>
+      <c r="AQ78" s="123"/>
+      <c r="AR78" s="123"/>
+      <c r="AS78" s="123"/>
+      <c r="AT78" s="123"/>
+      <c r="AU78" s="123"/>
+      <c r="AV78" s="123"/>
+      <c r="AW78" s="123"/>
+      <c r="AX78" s="123"/>
+      <c r="AY78" s="123"/>
+      <c r="AZ78" s="123"/>
+      <c r="BA78" s="123"/>
+      <c r="BB78" s="123"/>
+      <c r="BC78" s="123"/>
+      <c r="BD78" s="123"/>
+      <c r="BE78" s="123"/>
+      <c r="BF78" s="123"/>
+      <c r="BG78" s="123"/>
+      <c r="BH78" s="123"/>
+      <c r="BI78" s="123"/>
+      <c r="BJ78" s="123"/>
+      <c r="BK78" s="123"/>
       <c r="BL78" s="34"/>
       <c r="BM78" s="34"/>
       <c r="BN78" s="34"/>
@@ -44456,69 +44450,69 @@
       <c r="CI78" s="16"/>
       <c r="CJ78" s="36"/>
     </row>
-    <row r="79" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1024">
       <c r="B79" s="16"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="52"/>
-      <c r="S79" s="52"/>
-      <c r="T79" s="52"/>
-      <c r="U79" s="52"/>
-      <c r="V79" s="52"/>
-      <c r="W79" s="52"/>
-      <c r="X79" s="52"/>
-      <c r="Y79" s="52"/>
-      <c r="Z79" s="52"/>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="52"/>
-      <c r="AC79" s="52"/>
-      <c r="AD79" s="52"/>
-      <c r="AE79" s="52"/>
-      <c r="AF79" s="52"/>
-      <c r="AG79" s="52"/>
-      <c r="AH79" s="52"/>
-      <c r="AI79" s="52"/>
-      <c r="AJ79" s="52"/>
-      <c r="AK79" s="52"/>
-      <c r="AL79" s="52"/>
-      <c r="AM79" s="52"/>
-      <c r="AN79" s="52"/>
-      <c r="AO79" s="52"/>
-      <c r="AP79" s="52"/>
-      <c r="AQ79" s="52"/>
-      <c r="AR79" s="52"/>
-      <c r="AS79" s="52"/>
-      <c r="AT79" s="52"/>
-      <c r="AU79" s="52"/>
-      <c r="AV79" s="52"/>
-      <c r="AW79" s="52"/>
-      <c r="AX79" s="52"/>
-      <c r="AY79" s="52"/>
-      <c r="AZ79" s="52"/>
-      <c r="BA79" s="52"/>
-      <c r="BB79" s="52"/>
-      <c r="BC79" s="52"/>
-      <c r="BD79" s="52"/>
-      <c r="BE79" s="52"/>
-      <c r="BF79" s="52"/>
-      <c r="BG79" s="52"/>
-      <c r="BH79" s="52"/>
-      <c r="BI79" s="52"/>
-      <c r="BJ79" s="52"/>
-      <c r="BK79" s="52"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="121"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="121"/>
+      <c r="M79" s="121"/>
+      <c r="N79" s="121"/>
+      <c r="O79" s="121"/>
+      <c r="P79" s="121"/>
+      <c r="Q79" s="121"/>
+      <c r="R79" s="121"/>
+      <c r="S79" s="121"/>
+      <c r="T79" s="121"/>
+      <c r="U79" s="121"/>
+      <c r="V79" s="121"/>
+      <c r="W79" s="121"/>
+      <c r="X79" s="121"/>
+      <c r="Y79" s="121"/>
+      <c r="Z79" s="121"/>
+      <c r="AA79" s="121"/>
+      <c r="AB79" s="121"/>
+      <c r="AC79" s="121"/>
+      <c r="AD79" s="121"/>
+      <c r="AE79" s="121"/>
+      <c r="AF79" s="121"/>
+      <c r="AG79" s="121"/>
+      <c r="AH79" s="121"/>
+      <c r="AI79" s="121"/>
+      <c r="AJ79" s="121"/>
+      <c r="AK79" s="121"/>
+      <c r="AL79" s="121"/>
+      <c r="AM79" s="121"/>
+      <c r="AN79" s="121"/>
+      <c r="AO79" s="121"/>
+      <c r="AP79" s="121"/>
+      <c r="AQ79" s="121"/>
+      <c r="AR79" s="121"/>
+      <c r="AS79" s="121"/>
+      <c r="AT79" s="121"/>
+      <c r="AU79" s="121"/>
+      <c r="AV79" s="121"/>
+      <c r="AW79" s="121"/>
+      <c r="AX79" s="121"/>
+      <c r="AY79" s="121"/>
+      <c r="AZ79" s="121"/>
+      <c r="BA79" s="121"/>
+      <c r="BB79" s="121"/>
+      <c r="BC79" s="121"/>
+      <c r="BD79" s="121"/>
+      <c r="BE79" s="121"/>
+      <c r="BF79" s="121"/>
+      <c r="BG79" s="121"/>
+      <c r="BH79" s="121"/>
+      <c r="BI79" s="121"/>
+      <c r="BJ79" s="121"/>
+      <c r="BK79" s="121"/>
       <c r="BL79" s="34"/>
       <c r="BM79" s="34"/>
       <c r="BN79" s="34"/>
@@ -44545,69 +44539,69 @@
       <c r="CI79" s="16"/>
       <c r="CJ79" s="36"/>
     </row>
-    <row r="80" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1024">
       <c r="B80" s="16"/>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="52"/>
-      <c r="S80" s="52"/>
-      <c r="T80" s="52"/>
-      <c r="U80" s="52"/>
-      <c r="V80" s="52"/>
-      <c r="W80" s="52"/>
-      <c r="X80" s="52"/>
-      <c r="Y80" s="52"/>
-      <c r="Z80" s="52"/>
-      <c r="AA80" s="52"/>
-      <c r="AB80" s="52"/>
-      <c r="AC80" s="52"/>
-      <c r="AD80" s="52"/>
-      <c r="AE80" s="52"/>
-      <c r="AF80" s="52"/>
-      <c r="AG80" s="52"/>
-      <c r="AH80" s="52"/>
-      <c r="AI80" s="52"/>
-      <c r="AJ80" s="52"/>
-      <c r="AK80" s="52"/>
-      <c r="AL80" s="52"/>
-      <c r="AM80" s="52"/>
-      <c r="AN80" s="52"/>
-      <c r="AO80" s="52"/>
-      <c r="AP80" s="52"/>
-      <c r="AQ80" s="52"/>
-      <c r="AR80" s="52"/>
-      <c r="AS80" s="52"/>
-      <c r="AT80" s="52"/>
-      <c r="AU80" s="52"/>
-      <c r="AV80" s="52"/>
-      <c r="AW80" s="52"/>
-      <c r="AX80" s="52"/>
-      <c r="AY80" s="52"/>
-      <c r="AZ80" s="52"/>
-      <c r="BA80" s="52"/>
-      <c r="BB80" s="52"/>
-      <c r="BC80" s="52"/>
-      <c r="BD80" s="52"/>
-      <c r="BE80" s="52"/>
-      <c r="BF80" s="52"/>
-      <c r="BG80" s="52"/>
-      <c r="BH80" s="52"/>
-      <c r="BI80" s="52"/>
-      <c r="BJ80" s="52"/>
-      <c r="BK80" s="52"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="121"/>
+      <c r="L80" s="121"/>
+      <c r="M80" s="121"/>
+      <c r="N80" s="121"/>
+      <c r="O80" s="121"/>
+      <c r="P80" s="121"/>
+      <c r="Q80" s="121"/>
+      <c r="R80" s="121"/>
+      <c r="S80" s="121"/>
+      <c r="T80" s="121"/>
+      <c r="U80" s="121"/>
+      <c r="V80" s="121"/>
+      <c r="W80" s="121"/>
+      <c r="X80" s="121"/>
+      <c r="Y80" s="121"/>
+      <c r="Z80" s="121"/>
+      <c r="AA80" s="121"/>
+      <c r="AB80" s="121"/>
+      <c r="AC80" s="121"/>
+      <c r="AD80" s="121"/>
+      <c r="AE80" s="121"/>
+      <c r="AF80" s="121"/>
+      <c r="AG80" s="121"/>
+      <c r="AH80" s="121"/>
+      <c r="AI80" s="121"/>
+      <c r="AJ80" s="121"/>
+      <c r="AK80" s="121"/>
+      <c r="AL80" s="121"/>
+      <c r="AM80" s="121"/>
+      <c r="AN80" s="121"/>
+      <c r="AO80" s="121"/>
+      <c r="AP80" s="121"/>
+      <c r="AQ80" s="121"/>
+      <c r="AR80" s="121"/>
+      <c r="AS80" s="121"/>
+      <c r="AT80" s="121"/>
+      <c r="AU80" s="121"/>
+      <c r="AV80" s="121"/>
+      <c r="AW80" s="121"/>
+      <c r="AX80" s="121"/>
+      <c r="AY80" s="121"/>
+      <c r="AZ80" s="121"/>
+      <c r="BA80" s="121"/>
+      <c r="BB80" s="121"/>
+      <c r="BC80" s="121"/>
+      <c r="BD80" s="121"/>
+      <c r="BE80" s="121"/>
+      <c r="BF80" s="121"/>
+      <c r="BG80" s="121"/>
+      <c r="BH80" s="121"/>
+      <c r="BI80" s="121"/>
+      <c r="BJ80" s="121"/>
+      <c r="BK80" s="121"/>
       <c r="BL80" s="34"/>
       <c r="BM80" s="34"/>
       <c r="BN80" s="34"/>
@@ -44634,69 +44628,69 @@
       <c r="CI80" s="16"/>
       <c r="CJ80" s="36"/>
     </row>
-    <row r="81" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:88">
       <c r="B81" s="16"/>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="52"/>
-      <c r="X81" s="52"/>
-      <c r="Y81" s="52"/>
-      <c r="Z81" s="52"/>
-      <c r="AA81" s="52"/>
-      <c r="AB81" s="52"/>
-      <c r="AC81" s="52"/>
-      <c r="AD81" s="52"/>
-      <c r="AE81" s="52"/>
-      <c r="AF81" s="52"/>
-      <c r="AG81" s="52"/>
-      <c r="AH81" s="52"/>
-      <c r="AI81" s="52"/>
-      <c r="AJ81" s="52"/>
-      <c r="AK81" s="52"/>
-      <c r="AL81" s="52"/>
-      <c r="AM81" s="52"/>
-      <c r="AN81" s="52"/>
-      <c r="AO81" s="52"/>
-      <c r="AP81" s="52"/>
-      <c r="AQ81" s="52"/>
-      <c r="AR81" s="52"/>
-      <c r="AS81" s="52"/>
-      <c r="AT81" s="52"/>
-      <c r="AU81" s="52"/>
-      <c r="AV81" s="52"/>
-      <c r="AW81" s="52"/>
-      <c r="AX81" s="52"/>
-      <c r="AY81" s="52"/>
-      <c r="AZ81" s="52"/>
-      <c r="BA81" s="52"/>
-      <c r="BB81" s="52"/>
-      <c r="BC81" s="52"/>
-      <c r="BD81" s="52"/>
-      <c r="BE81" s="52"/>
-      <c r="BF81" s="52"/>
-      <c r="BG81" s="52"/>
-      <c r="BH81" s="52"/>
-      <c r="BI81" s="52"/>
-      <c r="BJ81" s="52"/>
-      <c r="BK81" s="52"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="121"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="121"/>
+      <c r="K81" s="121"/>
+      <c r="L81" s="121"/>
+      <c r="M81" s="121"/>
+      <c r="N81" s="121"/>
+      <c r="O81" s="121"/>
+      <c r="P81" s="121"/>
+      <c r="Q81" s="121"/>
+      <c r="R81" s="121"/>
+      <c r="S81" s="121"/>
+      <c r="T81" s="121"/>
+      <c r="U81" s="121"/>
+      <c r="V81" s="121"/>
+      <c r="W81" s="121"/>
+      <c r="X81" s="121"/>
+      <c r="Y81" s="121"/>
+      <c r="Z81" s="121"/>
+      <c r="AA81" s="121"/>
+      <c r="AB81" s="121"/>
+      <c r="AC81" s="121"/>
+      <c r="AD81" s="121"/>
+      <c r="AE81" s="121"/>
+      <c r="AF81" s="121"/>
+      <c r="AG81" s="121"/>
+      <c r="AH81" s="121"/>
+      <c r="AI81" s="121"/>
+      <c r="AJ81" s="121"/>
+      <c r="AK81" s="121"/>
+      <c r="AL81" s="121"/>
+      <c r="AM81" s="121"/>
+      <c r="AN81" s="121"/>
+      <c r="AO81" s="121"/>
+      <c r="AP81" s="121"/>
+      <c r="AQ81" s="121"/>
+      <c r="AR81" s="121"/>
+      <c r="AS81" s="121"/>
+      <c r="AT81" s="121"/>
+      <c r="AU81" s="121"/>
+      <c r="AV81" s="121"/>
+      <c r="AW81" s="121"/>
+      <c r="AX81" s="121"/>
+      <c r="AY81" s="121"/>
+      <c r="AZ81" s="121"/>
+      <c r="BA81" s="121"/>
+      <c r="BB81" s="121"/>
+      <c r="BC81" s="121"/>
+      <c r="BD81" s="121"/>
+      <c r="BE81" s="121"/>
+      <c r="BF81" s="121"/>
+      <c r="BG81" s="121"/>
+      <c r="BH81" s="121"/>
+      <c r="BI81" s="121"/>
+      <c r="BJ81" s="121"/>
+      <c r="BK81" s="121"/>
       <c r="BL81" s="34"/>
       <c r="BM81" s="34"/>
       <c r="BN81" s="34"/>
@@ -44723,7 +44717,7 @@
       <c r="CI81" s="16"/>
       <c r="CJ81" s="36"/>
     </row>
-    <row r="82" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:88">
       <c r="B82" s="16"/>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
@@ -44812,7 +44806,7 @@
       <c r="CI82" s="16"/>
       <c r="CJ82" s="36"/>
     </row>
-    <row r="83" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:88">
       <c r="B83" s="16"/>
       <c r="C83" s="33"/>
       <c r="D83" s="34"/>
@@ -44901,7 +44895,7 @@
       <c r="CI83" s="16"/>
       <c r="CJ83" s="36"/>
     </row>
-    <row r="84" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:88">
       <c r="B84" s="16"/>
       <c r="C84" s="33"/>
       <c r="D84" s="34"/>
@@ -44990,7 +44984,7 @@
       <c r="CI84" s="16"/>
       <c r="CJ84" s="36"/>
     </row>
-    <row r="85" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:88">
       <c r="B85" s="16"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
@@ -45079,7 +45073,7 @@
       <c r="CI85" s="16"/>
       <c r="CJ85" s="36"/>
     </row>
-    <row r="86" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:88">
       <c r="B86" s="16"/>
       <c r="C86" s="33"/>
       <c r="D86" s="34"/>
@@ -45168,7 +45162,7 @@
       <c r="CI86" s="16"/>
       <c r="CJ86" s="36"/>
     </row>
-    <row r="87" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:88">
       <c r="B87" s="16"/>
       <c r="C87" s="33"/>
       <c r="D87" s="34"/>
@@ -45257,7 +45251,7 @@
       <c r="CI87" s="16"/>
       <c r="CJ87" s="36"/>
     </row>
-    <row r="88" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:88">
       <c r="B88" s="16"/>
       <c r="C88" s="33"/>
       <c r="D88" s="34"/>
@@ -45346,7 +45340,7 @@
       <c r="CI88" s="16"/>
       <c r="CJ88" s="36"/>
     </row>
-    <row r="89" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:88">
       <c r="B89" s="16"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
@@ -45435,7 +45429,7 @@
       <c r="CI89" s="16"/>
       <c r="CJ89" s="36"/>
     </row>
-    <row r="90" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:88">
       <c r="B90" s="16"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
@@ -45524,7 +45518,7 @@
       <c r="CI90" s="16"/>
       <c r="CJ90" s="36"/>
     </row>
-    <row r="91" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:88">
       <c r="B91" s="16"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
@@ -45613,69 +45607,69 @@
       <c r="CI91" s="16"/>
       <c r="CJ91" s="36"/>
     </row>
-    <row r="92" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:88">
       <c r="B92" s="16"/>
       <c r="C92" s="33"/>
       <c r="D92" s="34"/>
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-      <c r="M92" s="53"/>
-      <c r="N92" s="53"/>
-      <c r="O92" s="53"/>
-      <c r="P92" s="53"/>
-      <c r="Q92" s="53"/>
-      <c r="R92" s="53"/>
-      <c r="S92" s="53"/>
-      <c r="T92" s="53"/>
-      <c r="U92" s="53"/>
-      <c r="V92" s="53"/>
-      <c r="W92" s="53"/>
-      <c r="X92" s="53"/>
-      <c r="Y92" s="53"/>
-      <c r="Z92" s="54"/>
-      <c r="AA92" s="54"/>
-      <c r="AB92" s="54"/>
-      <c r="AC92" s="54"/>
-      <c r="AD92" s="54"/>
-      <c r="AE92" s="54"/>
-      <c r="AF92" s="54"/>
-      <c r="AG92" s="54"/>
-      <c r="AH92" s="54"/>
-      <c r="AI92" s="54"/>
-      <c r="AJ92" s="54"/>
-      <c r="AK92" s="54"/>
-      <c r="AL92" s="54"/>
-      <c r="AM92" s="54"/>
-      <c r="AN92" s="54"/>
-      <c r="AO92" s="54"/>
-      <c r="AP92" s="54"/>
-      <c r="AQ92" s="54"/>
-      <c r="AR92" s="54"/>
-      <c r="AS92" s="54"/>
-      <c r="AT92" s="54"/>
-      <c r="AU92" s="54"/>
-      <c r="AV92" s="54"/>
-      <c r="AW92" s="54"/>
-      <c r="AX92" s="54"/>
-      <c r="AY92" s="54"/>
-      <c r="AZ92" s="54"/>
-      <c r="BA92" s="54"/>
-      <c r="BB92" s="54"/>
-      <c r="BC92" s="54"/>
-      <c r="BD92" s="54"/>
-      <c r="BE92" s="54"/>
-      <c r="BF92" s="54"/>
-      <c r="BG92" s="54"/>
-      <c r="BH92" s="54"/>
-      <c r="BI92" s="54"/>
-      <c r="BJ92" s="54"/>
-      <c r="BK92" s="54"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
+      <c r="O92" s="75"/>
+      <c r="P92" s="75"/>
+      <c r="Q92" s="75"/>
+      <c r="R92" s="75"/>
+      <c r="S92" s="75"/>
+      <c r="T92" s="75"/>
+      <c r="U92" s="75"/>
+      <c r="V92" s="75"/>
+      <c r="W92" s="75"/>
+      <c r="X92" s="75"/>
+      <c r="Y92" s="75"/>
+      <c r="Z92" s="74"/>
+      <c r="AA92" s="74"/>
+      <c r="AB92" s="74"/>
+      <c r="AC92" s="74"/>
+      <c r="AD92" s="74"/>
+      <c r="AE92" s="74"/>
+      <c r="AF92" s="74"/>
+      <c r="AG92" s="74"/>
+      <c r="AH92" s="74"/>
+      <c r="AI92" s="74"/>
+      <c r="AJ92" s="74"/>
+      <c r="AK92" s="74"/>
+      <c r="AL92" s="74"/>
+      <c r="AM92" s="74"/>
+      <c r="AN92" s="74"/>
+      <c r="AO92" s="74"/>
+      <c r="AP92" s="74"/>
+      <c r="AQ92" s="74"/>
+      <c r="AR92" s="74"/>
+      <c r="AS92" s="74"/>
+      <c r="AT92" s="74"/>
+      <c r="AU92" s="74"/>
+      <c r="AV92" s="74"/>
+      <c r="AW92" s="74"/>
+      <c r="AX92" s="74"/>
+      <c r="AY92" s="74"/>
+      <c r="AZ92" s="74"/>
+      <c r="BA92" s="74"/>
+      <c r="BB92" s="74"/>
+      <c r="BC92" s="74"/>
+      <c r="BD92" s="74"/>
+      <c r="BE92" s="74"/>
+      <c r="BF92" s="74"/>
+      <c r="BG92" s="74"/>
+      <c r="BH92" s="74"/>
+      <c r="BI92" s="74"/>
+      <c r="BJ92" s="74"/>
+      <c r="BK92" s="74"/>
       <c r="BL92" s="34"/>
       <c r="BM92" s="34"/>
       <c r="BN92" s="34"/>
@@ -45702,69 +45696,69 @@
       <c r="CI92" s="16"/>
       <c r="CJ92" s="36"/>
     </row>
-    <row r="93" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:88">
       <c r="B93" s="16"/>
       <c r="C93" s="33"/>
       <c r="D93" s="34"/>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-      <c r="O93" s="53"/>
-      <c r="P93" s="53"/>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="53"/>
-      <c r="S93" s="53"/>
-      <c r="T93" s="53"/>
-      <c r="U93" s="53"/>
-      <c r="V93" s="53"/>
-      <c r="W93" s="53"/>
-      <c r="X93" s="53"/>
-      <c r="Y93" s="53"/>
-      <c r="Z93" s="54"/>
-      <c r="AA93" s="54"/>
-      <c r="AB93" s="54"/>
-      <c r="AC93" s="54"/>
-      <c r="AD93" s="54"/>
-      <c r="AE93" s="54"/>
-      <c r="AF93" s="54"/>
-      <c r="AG93" s="54"/>
-      <c r="AH93" s="54"/>
-      <c r="AI93" s="54"/>
-      <c r="AJ93" s="54"/>
-      <c r="AK93" s="54"/>
-      <c r="AL93" s="54"/>
-      <c r="AM93" s="54"/>
-      <c r="AN93" s="54"/>
-      <c r="AO93" s="54"/>
-      <c r="AP93" s="54"/>
-      <c r="AQ93" s="54"/>
-      <c r="AR93" s="54"/>
-      <c r="AS93" s="54"/>
-      <c r="AT93" s="54"/>
-      <c r="AU93" s="54"/>
-      <c r="AV93" s="54"/>
-      <c r="AW93" s="54"/>
-      <c r="AX93" s="54"/>
-      <c r="AY93" s="54"/>
-      <c r="AZ93" s="54"/>
-      <c r="BA93" s="54"/>
-      <c r="BB93" s="54"/>
-      <c r="BC93" s="54"/>
-      <c r="BD93" s="54"/>
-      <c r="BE93" s="54"/>
-      <c r="BF93" s="54"/>
-      <c r="BG93" s="54"/>
-      <c r="BH93" s="54"/>
-      <c r="BI93" s="54"/>
-      <c r="BJ93" s="54"/>
-      <c r="BK93" s="54"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
+      <c r="Q93" s="75"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="75"/>
+      <c r="T93" s="75"/>
+      <c r="U93" s="75"/>
+      <c r="V93" s="75"/>
+      <c r="W93" s="75"/>
+      <c r="X93" s="75"/>
+      <c r="Y93" s="75"/>
+      <c r="Z93" s="74"/>
+      <c r="AA93" s="74"/>
+      <c r="AB93" s="74"/>
+      <c r="AC93" s="74"/>
+      <c r="AD93" s="74"/>
+      <c r="AE93" s="74"/>
+      <c r="AF93" s="74"/>
+      <c r="AG93" s="74"/>
+      <c r="AH93" s="74"/>
+      <c r="AI93" s="74"/>
+      <c r="AJ93" s="74"/>
+      <c r="AK93" s="74"/>
+      <c r="AL93" s="74"/>
+      <c r="AM93" s="74"/>
+      <c r="AN93" s="74"/>
+      <c r="AO93" s="74"/>
+      <c r="AP93" s="74"/>
+      <c r="AQ93" s="74"/>
+      <c r="AR93" s="74"/>
+      <c r="AS93" s="74"/>
+      <c r="AT93" s="74"/>
+      <c r="AU93" s="74"/>
+      <c r="AV93" s="74"/>
+      <c r="AW93" s="74"/>
+      <c r="AX93" s="74"/>
+      <c r="AY93" s="74"/>
+      <c r="AZ93" s="74"/>
+      <c r="BA93" s="74"/>
+      <c r="BB93" s="74"/>
+      <c r="BC93" s="74"/>
+      <c r="BD93" s="74"/>
+      <c r="BE93" s="74"/>
+      <c r="BF93" s="74"/>
+      <c r="BG93" s="74"/>
+      <c r="BH93" s="74"/>
+      <c r="BI93" s="74"/>
+      <c r="BJ93" s="74"/>
+      <c r="BK93" s="74"/>
       <c r="BL93" s="34"/>
       <c r="BM93" s="34"/>
       <c r="BN93" s="34"/>
@@ -45791,31 +45785,31 @@
       <c r="CI93" s="16"/>
       <c r="CJ93" s="36"/>
     </row>
-    <row r="94" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:88">
       <c r="B94" s="16"/>
       <c r="C94" s="33"/>
       <c r="D94" s="34"/>
       <c r="E94" s="33"/>
       <c r="F94" s="33"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
-      <c r="O94" s="53"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="53"/>
-      <c r="T94" s="53"/>
-      <c r="U94" s="53"/>
-      <c r="V94" s="53"/>
-      <c r="W94" s="53"/>
-      <c r="X94" s="53"/>
-      <c r="Y94" s="53"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="75"/>
+      <c r="Q94" s="75"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="75"/>
+      <c r="T94" s="75"/>
+      <c r="U94" s="75"/>
+      <c r="V94" s="75"/>
+      <c r="W94" s="75"/>
+      <c r="X94" s="75"/>
+      <c r="Y94" s="75"/>
       <c r="Z94" s="33"/>
       <c r="AA94" s="33"/>
       <c r="AB94" s="33"/>
@@ -45880,7 +45874,7 @@
       <c r="CI94" s="16"/>
       <c r="CJ94" s="36"/>
     </row>
-    <row r="95" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:88">
       <c r="B95" s="16"/>
       <c r="C95" s="33"/>
       <c r="D95" s="34"/>
@@ -45969,7 +45963,7 @@
       <c r="CI95" s="16"/>
       <c r="CJ95" s="36"/>
     </row>
-    <row r="96" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:88">
       <c r="B96" s="16"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
@@ -46058,7 +46052,7 @@
       <c r="CI96" s="16"/>
       <c r="CJ96" s="36"/>
     </row>
-    <row r="97" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:88">
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
@@ -46147,7 +46141,7 @@
       <c r="CI97" s="36"/>
       <c r="CJ97" s="36"/>
     </row>
-    <row r="98" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:88">
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
@@ -46236,51 +46230,61 @@
       <c r="CI98" s="36"/>
       <c r="CJ98" s="36"/>
     </row>
-    <row r="99" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:88">
       <c r="CJ99" s="36"/>
     </row>
-    <row r="100" spans="2:88" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:88">
       <c r="CJ100" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="B24:CI24"/>
-    <mergeCell ref="B18:CI18"/>
-    <mergeCell ref="B26:CI26"/>
-    <mergeCell ref="B55:CI55"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AK40"/>
-    <mergeCell ref="Z59:BK60"/>
-    <mergeCell ref="G59:Y61"/>
-    <mergeCell ref="AL40:BK40"/>
-    <mergeCell ref="E35:X35"/>
-    <mergeCell ref="AS35:CI35"/>
-    <mergeCell ref="G42:P42"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="AA42:AK42"/>
-    <mergeCell ref="G41:P41"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA41:AK41"/>
-    <mergeCell ref="AL41:BK41"/>
-    <mergeCell ref="AL42:BK42"/>
-    <mergeCell ref="Y35:AH35"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="G79:BK81"/>
+    <mergeCell ref="G92:Y94"/>
+    <mergeCell ref="Z92:BK93"/>
+    <mergeCell ref="G73:P73"/>
+    <mergeCell ref="Q73:Z73"/>
+    <mergeCell ref="AA73:AK73"/>
+    <mergeCell ref="AL73:BK73"/>
+    <mergeCell ref="G78:BK78"/>
+    <mergeCell ref="G71:P71"/>
+    <mergeCell ref="Q71:Z71"/>
+    <mergeCell ref="AA71:AK71"/>
+    <mergeCell ref="AL71:BK71"/>
+    <mergeCell ref="G72:P72"/>
+    <mergeCell ref="Q72:Z72"/>
+    <mergeCell ref="AA72:AK72"/>
+    <mergeCell ref="AL72:BK72"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:X66"/>
+    <mergeCell ref="Y66:AH66"/>
+    <mergeCell ref="AI66:AR66"/>
+    <mergeCell ref="AS66:CI66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:X65"/>
+    <mergeCell ref="Y65:AH65"/>
+    <mergeCell ref="AI65:AR65"/>
+    <mergeCell ref="AS65:CI65"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="Y21:BK21"/>
+    <mergeCell ref="Y22:BK22"/>
+    <mergeCell ref="Y28:BK28"/>
+    <mergeCell ref="Y29:BK29"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AH15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AH16"/>
+    <mergeCell ref="AI16:AR16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="J22:X22"/>
     <mergeCell ref="Y5:AR5"/>
     <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="AS34:CI34"/>
@@ -46305,64 +46309,54 @@
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:X28"/>
     <mergeCell ref="G29:I29"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="Z59:BK60"/>
+    <mergeCell ref="G59:Y61"/>
+    <mergeCell ref="AL40:BK40"/>
+    <mergeCell ref="E35:X35"/>
+    <mergeCell ref="AS35:CI35"/>
+    <mergeCell ref="G42:P42"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="AA42:AK42"/>
+    <mergeCell ref="G41:P41"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AK41"/>
+    <mergeCell ref="AL41:BK41"/>
+    <mergeCell ref="AL42:BK42"/>
+    <mergeCell ref="Y35:AH35"/>
+    <mergeCell ref="AI35:AR35"/>
+    <mergeCell ref="G47:BK47"/>
+    <mergeCell ref="G48:BK50"/>
+    <mergeCell ref="B24:CI24"/>
+    <mergeCell ref="B18:CI18"/>
+    <mergeCell ref="B26:CI26"/>
+    <mergeCell ref="B55:CI55"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="AA40:AK40"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="AI35:AR35"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="Y21:BK21"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y28:BK28"/>
-    <mergeCell ref="Y29:BK29"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AH16"/>
-    <mergeCell ref="AI16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:X34"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:X66"/>
-    <mergeCell ref="Y66:AH66"/>
-    <mergeCell ref="AI66:AR66"/>
-    <mergeCell ref="AS66:CI66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:X65"/>
-    <mergeCell ref="Y65:AH65"/>
-    <mergeCell ref="AI65:AR65"/>
-    <mergeCell ref="AS65:CI65"/>
-    <mergeCell ref="J22:X22"/>
     <mergeCell ref="Y30:BK30"/>
     <mergeCell ref="Y31:BK31"/>
-    <mergeCell ref="G79:BK81"/>
-    <mergeCell ref="G92:Y94"/>
-    <mergeCell ref="Z92:BK93"/>
-    <mergeCell ref="G73:P73"/>
-    <mergeCell ref="Q73:Z73"/>
-    <mergeCell ref="AA73:AK73"/>
-    <mergeCell ref="AL73:BK73"/>
-    <mergeCell ref="G78:BK78"/>
-    <mergeCell ref="G71:P71"/>
-    <mergeCell ref="Q71:Z71"/>
-    <mergeCell ref="AA71:AK71"/>
-    <mergeCell ref="AL71:BK71"/>
-    <mergeCell ref="G72:P72"/>
-    <mergeCell ref="Q72:Z72"/>
-    <mergeCell ref="AA72:AK72"/>
-    <mergeCell ref="AL72:BK72"/>
     <mergeCell ref="J31:X31"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:X30"/>
-    <mergeCell ref="G47:BK47"/>
-    <mergeCell ref="G48:BK50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
